--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\gabel\GitHub\wcde\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="16275" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="441">
   <si>
     <t>continent</t>
   </si>
@@ -844,12 +849,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1294,13 +1293,61 @@
     <t>ggarea</t>
   </si>
   <si>
-    <t>is171</t>
+    <t>is185</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>edu8</t>
+  </si>
+  <si>
+    <t>samir_fucked_up_geocodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1779,8 +1826,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1832,6 +1885,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1879,7 +1935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1914,7 +1970,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2123,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,46 +2190,56 @@
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C2">
         <v>900</v>
       </c>
       <c r="D2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="I2" t="str">
+        <f>B2</f>
+        <v>World</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -2184,10 +2250,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I28" si="0">B3</f>
+        <v>Africa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2198,10 +2268,14 @@
       <c r="D4">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2212,10 +2286,14 @@
       <c r="D5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2226,10 +2304,14 @@
       <c r="D6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Latin America and the Caribbean</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -2240,10 +2322,14 @@
       <c r="D7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>Northern America</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2254,8 +2340,12 @@
       <c r="D8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>Oceania</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2268,8 +2358,12 @@
       <c r="D9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>Eastern Africa</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2282,8 +2376,12 @@
       <c r="D10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>Middle Africa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2296,8 +2394,12 @@
       <c r="D11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Northern Africa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2310,8 +2412,12 @@
       <c r="D12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>Southern Africa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2324,8 +2430,12 @@
       <c r="D13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Western Africa</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2338,8 +2448,12 @@
       <c r="D14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Eastern Asia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2352,8 +2466,12 @@
       <c r="D15">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>South-Central Asia</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2366,8 +2484,12 @@
       <c r="D16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>South-Eastern Asia</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2380,8 +2502,12 @@
       <c r="D17">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>Western Asia</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2394,8 +2520,12 @@
       <c r="D18">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>Eastern Europe</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2408,8 +2538,12 @@
       <c r="D19">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>Northern Europe</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2422,8 +2556,12 @@
       <c r="D20">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>Southern Europe</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2436,8 +2574,12 @@
       <c r="D21">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>Western Europe</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2450,8 +2592,12 @@
       <c r="D22">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>Caribbean</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2464,8 +2610,12 @@
       <c r="D23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>Central America</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2478,8 +2628,12 @@
       <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>South America</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2492,8 +2646,12 @@
       <c r="D25">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>Australia and New Zealand</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2506,8 +2664,12 @@
       <c r="D26">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>Melanesia</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2520,8 +2682,12 @@
       <c r="D27">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>Micronesia</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2534,8 +2700,12 @@
       <c r="D28">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>Polynesia</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2548,17 +2718,24 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f>CONCATENATE("CC",C29)</f>
+        <v>CC4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2571,17 +2748,24 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <f t="shared" ref="I30:I93" si="1">CONCATENATE("CC",C30)</f>
+        <v>CC8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2594,17 +2778,24 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>12</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>CC12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2617,4407 +2808,5931 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>CC24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>CC28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>22</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
         <v>19</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>CC32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>51</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>4</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>CC51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>533</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>19</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>CC533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>29</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>CC36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>8</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>CC40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>37</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>CC31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>44</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>39</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>CC44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>48</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>4</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>CC48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>50</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>43</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>CC50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>52</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>45</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>19</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>CC52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>112</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>48</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>8</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>CC112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>56</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>50</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
         <v>8</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>CC56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>84</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>53</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
         <v>19</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>CC84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>204</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>12</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>CC204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>64</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
         <v>4</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>CC64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>60</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>19</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>CC68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>61</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>70</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>62</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>8</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>CC70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>72</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>65</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>12</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H51" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>CC72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>66</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>76</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>67</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>CC76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
         <v>69</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>96</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>70</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>4</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>CC96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
         <v>71</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>100</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>72</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
         <v>8</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>CC100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>73</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>854</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>74</v>
       </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>12</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>CC854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
         <v>76</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>108</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>77</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>12</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H56" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>CC108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>78</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>116</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>79</v>
       </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>4</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>CC116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>80</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>120</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>81</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>12</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>CC120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>124</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>84</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>82</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>CC124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>132</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>86</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
         <v>12</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>CC132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
         <v>87</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>140</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>88</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
         <v>12</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>CC140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
         <v>89</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>148</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>90</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
         <v>12</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>CC148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>92</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>830</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>93</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
         <v>8</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H63" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>CC830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>94</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>152</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>95</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
         <v>19</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H64" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>CC152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
         <v>97</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>156</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>98</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
         <v>4</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>CC156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
         <v>99</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>170</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>100</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
         <v>19</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>CC170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
         <v>101</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>174</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>102</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
         <v>12</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>CC174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>103</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>178</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>104</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
         <v>12</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>CC178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>105</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>188</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>106</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
         <v>19</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H69" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>CC188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
         <v>107</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>384</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>108</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
         <v>12</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H70" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>CC384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
         <v>109</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>191</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>110</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>8</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>CC191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
         <v>111</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>192</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>112</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
         <v>19</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>CC192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>430</v>
+      </c>
+      <c r="C73">
+        <v>531</v>
+      </c>
+      <c r="D73" t="s">
+        <v>434</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>CC531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
         <v>113</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>196</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>114</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
         <v>4</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H74" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>CC196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
         <v>115</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>203</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
         <v>116</v>
       </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>8</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H75" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>CC203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
         <v>117</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>408</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D76" t="s">
         <v>118</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
         <v>4</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H76" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>CC408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
         <v>119</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>180</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>120</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
         <v>12</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H77" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>CC180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
         <v>121</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>208</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>122</v>
       </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>8</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H78" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>CC208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
         <v>123</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <v>262</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>124</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
         <v>12</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H79" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>CC262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
         <v>125</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <v>214</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>126</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
         <v>19</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H80" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>CC214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
         <v>127</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>218</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>128</v>
       </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
         <v>19</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H81" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>CC218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
         <v>129</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <v>818</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>130</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
         <v>12</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>CC818</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
         <v>131</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>222</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>132</v>
       </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
         <v>19</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H83" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>CC222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
         <v>133</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <v>226</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>134</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
         <v>12</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>CC226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
         <v>135</v>
       </c>
-      <c r="C83">
+      <c r="C85">
         <v>232</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>136</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
         <v>12</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H85" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>CC232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
         <v>137</v>
       </c>
-      <c r="C84">
+      <c r="C86">
         <v>233</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>138</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
         <v>8</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>CC233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
         <v>139</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>231</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>140</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
         <v>12</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H87" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>CC231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
         <v>142</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>242</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>143</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
         <v>29</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H88" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>CC242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
         <v>144</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <v>246</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>145</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
         <v>8</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>CC246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
         <v>146</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>250</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>147</v>
       </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
         <v>8</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H90" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>CC250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
         <v>148</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <v>254</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>149</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
         <v>19</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H91" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>CC254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
         <v>151</v>
       </c>
-      <c r="C90">
+      <c r="C92">
         <v>258</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>152</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
         <v>29</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H92" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>CC258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
         <v>153</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <v>266</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>154</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
         <v>12</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H93" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>CC266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
         <v>155</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <v>270</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>156</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
         <v>12</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H94" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="I94" t="str">
+        <f t="shared" ref="I94:I157" si="2">CONCATENATE("CC",C94)</f>
+        <v>CC270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
         <v>157</v>
       </c>
-      <c r="C93">
+      <c r="C95">
         <v>268</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>158</v>
       </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H95" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>CC268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
         <v>159</v>
       </c>
-      <c r="C94">
+      <c r="C96">
         <v>276</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>160</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
         <v>8</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H96" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>CC276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
         <v>161</v>
       </c>
-      <c r="C95">
+      <c r="C97">
         <v>288</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>162</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
         <v>12</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H97" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>CC288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
         <v>163</v>
       </c>
-      <c r="C96">
+      <c r="C98">
         <v>300</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>164</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
         <v>8</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>CC300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
         <v>165</v>
       </c>
-      <c r="C97">
+      <c r="C99">
         <v>308</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>166</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
         <v>19</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H99" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>CC308</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
         <v>167</v>
       </c>
-      <c r="C98">
+      <c r="C100">
         <v>312</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D100" t="s">
         <v>168</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
         <v>19</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H100" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="I100" t="str">
+        <f t="shared" si="2"/>
+        <v>CC312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
         <v>170</v>
       </c>
-      <c r="C99">
+      <c r="C101">
         <v>316</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>171</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
         <v>29</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H101" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="I101" t="str">
+        <f t="shared" si="2"/>
+        <v>CC316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
         <v>172</v>
       </c>
-      <c r="C100">
+      <c r="C102">
         <v>320</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>173</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
         <v>19</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H102" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="I102" t="str">
+        <f t="shared" si="2"/>
+        <v>CC320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
         <v>174</v>
       </c>
-      <c r="C101">
+      <c r="C103">
         <v>324</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>175</v>
       </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
         <v>12</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H103" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="I103" t="str">
+        <f t="shared" si="2"/>
+        <v>CC324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
         <v>176</v>
       </c>
-      <c r="C102">
+      <c r="C104">
         <v>624</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>177</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
         <v>12</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H104" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="I104" t="str">
+        <f t="shared" si="2"/>
+        <v>CC624</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
         <v>178</v>
       </c>
-      <c r="C103">
+      <c r="C105">
         <v>328</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>179</v>
       </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
         <v>19</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H105" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="I105" t="str">
+        <f t="shared" si="2"/>
+        <v>CC328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
         <v>180</v>
       </c>
-      <c r="C104">
+      <c r="C106">
         <v>332</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>181</v>
       </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
         <v>19</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H106" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="I106" t="str">
+        <f t="shared" si="2"/>
+        <v>CC332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
         <v>182</v>
       </c>
-      <c r="C105">
+      <c r="C107">
         <v>340</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>183</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
         <v>19</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H107" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="I107" t="str">
+        <f t="shared" si="2"/>
+        <v>CC340</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
         <v>184</v>
       </c>
-      <c r="C106">
+      <c r="C108">
         <v>344</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>185</v>
       </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
         <v>4</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H108" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="I108" t="str">
+        <f t="shared" si="2"/>
+        <v>CC344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
         <v>186</v>
       </c>
-      <c r="C107">
+      <c r="C109">
         <v>348</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>187</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
         <v>8</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H109" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="I109" t="str">
+        <f t="shared" si="2"/>
+        <v>CC348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
         <v>188</v>
       </c>
-      <c r="C108">
+      <c r="C110">
         <v>352</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>189</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
         <v>8</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H110" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="I110" t="str">
+        <f t="shared" si="2"/>
+        <v>CC352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
         <v>190</v>
       </c>
-      <c r="C109">
+      <c r="C111">
         <v>356</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>191</v>
       </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
         <v>4</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="I111" t="str">
+        <f t="shared" si="2"/>
+        <v>CC356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
         <v>192</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <v>360</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>193</v>
       </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
         <v>4</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H112" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="I112" t="str">
+        <f t="shared" si="2"/>
+        <v>CC360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
         <v>194</v>
       </c>
-      <c r="C111">
+      <c r="C113">
         <v>364</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>195</v>
       </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
         <v>4</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="I113" t="str">
+        <f t="shared" si="2"/>
+        <v>CC364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
         <v>196</v>
       </c>
-      <c r="C112">
+      <c r="C114">
         <v>368</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>197</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
         <v>4</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H114" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="I114" t="str">
+        <f t="shared" si="2"/>
+        <v>CC368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
         <v>198</v>
       </c>
-      <c r="C113">
+      <c r="C115">
         <v>372</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>199</v>
       </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
         <v>8</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H115" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="I115" t="str">
+        <f t="shared" si="2"/>
+        <v>CC372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
         <v>200</v>
       </c>
-      <c r="C114">
+      <c r="C116">
         <v>376</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D116" t="s">
         <v>201</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
         <v>4</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H116" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="I116" t="str">
+        <f t="shared" si="2"/>
+        <v>CC376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
         <v>202</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <v>380</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>203</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
         <v>8</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="I117" t="str">
+        <f t="shared" si="2"/>
+        <v>CC380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
         <v>204</v>
       </c>
-      <c r="C116">
+      <c r="C118">
         <v>388</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>205</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
         <v>19</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H118" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="I118" t="str">
+        <f t="shared" si="2"/>
+        <v>CC388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
         <v>206</v>
       </c>
-      <c r="C117">
+      <c r="C119">
         <v>392</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
         <v>207</v>
       </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
         <v>4</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H119" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="I119" t="str">
+        <f t="shared" si="2"/>
+        <v>CC392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
         <v>208</v>
       </c>
-      <c r="C118">
+      <c r="C120">
         <v>400</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D120" t="s">
         <v>209</v>
       </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
         <v>4</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H120" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="I120" t="str">
+        <f t="shared" si="2"/>
+        <v>CC400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
         <v>210</v>
       </c>
-      <c r="C119">
+      <c r="C121">
         <v>398</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D121" t="s">
         <v>211</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
         <v>4</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="I121" t="str">
+        <f t="shared" si="2"/>
+        <v>CC398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
         <v>212</v>
       </c>
-      <c r="C120">
+      <c r="C122">
         <v>404</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>213</v>
       </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
         <v>12</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H122" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="I122" t="str">
+        <f t="shared" si="2"/>
+        <v>CC404</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>425</v>
+      </c>
+      <c r="C123">
+        <v>296</v>
+      </c>
+      <c r="D123" t="s">
+        <v>433</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" t="s">
+        <v>169</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="2"/>
+        <v>CC296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
         <v>214</v>
       </c>
-      <c r="C121">
+      <c r="C124">
         <v>414</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D124" t="s">
         <v>215</v>
       </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
         <v>4</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H124" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="I124" t="str">
+        <f t="shared" si="2"/>
+        <v>CC414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
         <v>216</v>
       </c>
-      <c r="C122">
+      <c r="C125">
         <v>417</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D125" t="s">
         <v>217</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
         <v>4</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H125" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="I125" t="str">
+        <f t="shared" si="2"/>
+        <v>CC417</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
         <v>218</v>
       </c>
-      <c r="C123">
+      <c r="C126">
         <v>418</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D126" t="s">
         <v>219</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
         <v>4</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H126" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="I126" t="str">
+        <f t="shared" si="2"/>
+        <v>CC418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
         <v>220</v>
       </c>
-      <c r="C124">
+      <c r="C127">
         <v>428</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>221</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
         <v>8</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H127" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="I127" t="str">
+        <f t="shared" si="2"/>
+        <v>CC428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
         <v>222</v>
       </c>
-      <c r="C125">
+      <c r="C128">
         <v>422</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D128" t="s">
         <v>223</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
         <v>4</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H128" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="I128" t="str">
+        <f t="shared" si="2"/>
+        <v>CC422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
         <v>224</v>
       </c>
-      <c r="C126">
+      <c r="C129">
         <v>426</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D129" t="s">
         <v>225</v>
       </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
         <v>12</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H129" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="I129" t="str">
+        <f t="shared" si="2"/>
+        <v>CC426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
         <v>226</v>
       </c>
-      <c r="C127">
+      <c r="C130">
         <v>430</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D130" t="s">
         <v>227</v>
       </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
         <v>12</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H130" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="I130" t="str">
+        <f t="shared" si="2"/>
+        <v>CC430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
         <v>228</v>
       </c>
-      <c r="C128">
+      <c r="C131">
         <v>434</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>229</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
         <v>12</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="I131" t="str">
+        <f t="shared" si="2"/>
+        <v>CC434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
         <v>230</v>
       </c>
-      <c r="C129">
+      <c r="C132">
         <v>440</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D132" t="s">
         <v>231</v>
       </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
         <v>8</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H132" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="I132" t="str">
+        <f t="shared" si="2"/>
+        <v>CC440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
         <v>232</v>
       </c>
-      <c r="C130">
+      <c r="C133">
         <v>442</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D133" t="s">
         <v>233</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
         <v>8</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H133" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>CC442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
         <v>234</v>
       </c>
-      <c r="C131">
+      <c r="C134">
         <v>446</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D134" t="s">
         <v>235</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
         <v>4</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H134" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>CC446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
         <v>236</v>
       </c>
-      <c r="C132">
+      <c r="C135">
         <v>450</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>237</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
         <v>12</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H135" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>CC450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
         <v>238</v>
       </c>
-      <c r="C133">
+      <c r="C136">
         <v>454</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
         <v>239</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
         <v>12</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H136" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>CC454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
         <v>240</v>
       </c>
-      <c r="C134">
+      <c r="C137">
         <v>458</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D137" t="s">
         <v>241</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
         <v>4</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H137" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>CC458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
         <v>242</v>
       </c>
-      <c r="C135">
+      <c r="C138">
         <v>462</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D138" t="s">
         <v>243</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
         <v>4</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H138" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>CC462</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
         <v>244</v>
       </c>
-      <c r="C136">
+      <c r="C139">
         <v>466</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D139" t="s">
         <v>245</v>
       </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
         <v>12</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H139" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>CC466</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
         <v>246</v>
       </c>
-      <c r="C137">
+      <c r="C140">
         <v>470</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>247</v>
       </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
         <v>8</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H140" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>CC470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
         <v>248</v>
       </c>
-      <c r="C138">
+      <c r="C141">
         <v>474</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>249</v>
       </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
         <v>19</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H141" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>CC474</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
         <v>250</v>
       </c>
-      <c r="C139">
+      <c r="C142">
         <v>478</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>251</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
         <v>12</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H142" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>CC478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
         <v>252</v>
       </c>
-      <c r="C140">
+      <c r="C143">
         <v>480</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
         <v>253</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
         <v>12</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H143" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>CC480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
         <v>254</v>
       </c>
-      <c r="C141">
+      <c r="C144">
         <v>175</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D144" t="s">
         <v>255</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
         <v>12</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H144" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>CC175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
         <v>256</v>
       </c>
-      <c r="C142">
+      <c r="C145">
         <v>484</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D145" t="s">
         <v>257</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
         <v>19</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H145" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>CC484</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
         <v>258</v>
       </c>
-      <c r="C143">
+      <c r="C146">
         <v>583</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D146" t="s">
         <v>259</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
         <v>29</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H146" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>CC583</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
         <v>260</v>
       </c>
-      <c r="C144">
+      <c r="C147">
         <v>496</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D147" t="s">
         <v>261</v>
       </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
         <v>4</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H147" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>CC496</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
         <v>262</v>
       </c>
-      <c r="C145">
+      <c r="C148">
         <v>499</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D148" t="s">
         <v>263</v>
       </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
         <v>8</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H148" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>CC499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
         <v>264</v>
       </c>
-      <c r="C146">
+      <c r="C149">
         <v>504</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D149" t="s">
         <v>265</v>
       </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
         <v>12</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H149" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>CC504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
         <v>266</v>
       </c>
-      <c r="C147">
+      <c r="C150">
         <v>508</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D150" t="s">
         <v>267</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
         <v>12</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H150" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>CC508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
         <v>268</v>
       </c>
-      <c r="C148">
+      <c r="C151">
         <v>104</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D151" t="s">
         <v>269</v>
       </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
         <v>4</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H151" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>CC104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
         <v>270</v>
       </c>
-      <c r="C149">
+      <c r="C152">
         <v>516</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D152" t="s">
         <v>271</v>
       </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
         <v>12</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H152" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>CC516</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
         <v>272</v>
       </c>
-      <c r="C150">
+      <c r="C153">
         <v>524</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D153" t="s">
         <v>273</v>
       </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
         <v>4</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H153" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>CC524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
         <v>274</v>
       </c>
-      <c r="C151">
+      <c r="C154">
         <v>528</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D154" t="s">
         <v>275</v>
       </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
         <v>8</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H154" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>CC528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
         <v>276</v>
       </c>
-      <c r="C152">
-        <v>530</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C155">
+        <v>540</v>
+      </c>
+      <c r="D155" t="s">
         <v>277</v>
       </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H155" t="s">
+        <v>141</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>CC540</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156">
+        <v>554</v>
+      </c>
+      <c r="D156" t="s">
+        <v>279</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" t="s">
+        <v>30</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>CC554</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157">
+        <v>558</v>
+      </c>
+      <c r="D157" t="s">
+        <v>281</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
         <v>19</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H157" t="s">
+        <v>51</v>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>CC558</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158">
+        <v>562</v>
+      </c>
+      <c r="D158" t="s">
+        <v>283</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>54</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" ref="I158:I221" si="3">CONCATENATE("CC",C158)</f>
+        <v>CC562</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>284</v>
+      </c>
+      <c r="C159">
+        <v>566</v>
+      </c>
+      <c r="D159" t="s">
+        <v>285</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" t="s">
+        <v>54</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="3"/>
+        <v>CC566</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>286</v>
+      </c>
+      <c r="C160">
+        <v>578</v>
+      </c>
+      <c r="D160" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" t="s">
+        <v>91</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="3"/>
+        <v>CC578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161">
+        <v>275</v>
+      </c>
+      <c r="D161" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>23</v>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="3"/>
+        <v>CC275</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162">
+        <v>512</v>
+      </c>
+      <c r="D162" t="s">
+        <v>291</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>4</v>
+      </c>
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" si="3"/>
+        <v>CC512</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163">
+        <v>586</v>
+      </c>
+      <c r="D163" t="s">
+        <v>293</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s">
+        <v>5</v>
+      </c>
+      <c r="I163" t="str">
+        <f t="shared" si="3"/>
+        <v>CC586</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164">
+        <v>591</v>
+      </c>
+      <c r="D164" t="s">
+        <v>295</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
+        <v>51</v>
+      </c>
+      <c r="I164" t="str">
+        <f t="shared" si="3"/>
+        <v>CC591</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165">
+        <v>598</v>
+      </c>
+      <c r="D165" t="s">
+        <v>297</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>29</v>
+      </c>
+      <c r="H165" t="s">
+        <v>141</v>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" si="3"/>
+        <v>CC598</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166">
+        <v>600</v>
+      </c>
+      <c r="D166" t="s">
+        <v>299</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" si="3"/>
+        <v>CC600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167">
+        <v>604</v>
+      </c>
+      <c r="D167" t="s">
+        <v>301</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" si="3"/>
+        <v>CC604</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>302</v>
+      </c>
+      <c r="C168">
+        <v>608</v>
+      </c>
+      <c r="D168" t="s">
+        <v>303</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>4</v>
+      </c>
+      <c r="H168" t="s">
+        <v>68</v>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="3"/>
+        <v>CC608</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>304</v>
+      </c>
+      <c r="C169">
+        <v>616</v>
+      </c>
+      <c r="D169" t="s">
+        <v>305</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" t="s">
+        <v>46</v>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" si="3"/>
+        <v>CC616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>306</v>
+      </c>
+      <c r="C170">
+        <v>620</v>
+      </c>
+      <c r="D170" t="s">
+        <v>307</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" t="s">
+        <v>9</v>
+      </c>
+      <c r="I170" t="str">
+        <f t="shared" si="3"/>
+        <v>CC620</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>308</v>
+      </c>
+      <c r="C171">
+        <v>630</v>
+      </c>
+      <c r="D171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" t="s">
-        <v>278</v>
-      </c>
-      <c r="C153">
-        <v>540</v>
-      </c>
-      <c r="D153" t="s">
-        <v>279</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="I171" t="str">
+        <f t="shared" si="3"/>
+        <v>CC630</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>310</v>
+      </c>
+      <c r="C172">
+        <v>634</v>
+      </c>
+      <c r="D172" t="s">
+        <v>311</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>4</v>
+      </c>
+      <c r="H172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" si="3"/>
+        <v>CC634</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173">
+        <v>410</v>
+      </c>
+      <c r="D173" t="s">
+        <v>313</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>4</v>
+      </c>
+      <c r="H173" t="s">
+        <v>96</v>
+      </c>
+      <c r="I173" t="str">
+        <f t="shared" si="3"/>
+        <v>CC410</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>314</v>
+      </c>
+      <c r="C174">
+        <v>498</v>
+      </c>
+      <c r="D174" t="s">
+        <v>315</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" t="s">
+        <v>46</v>
+      </c>
+      <c r="I174" t="str">
+        <f t="shared" si="3"/>
+        <v>CC498</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>316</v>
+      </c>
+      <c r="C175">
+        <v>638</v>
+      </c>
+      <c r="D175" t="s">
+        <v>317</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175" t="str">
+        <f t="shared" si="3"/>
+        <v>CC638</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>318</v>
+      </c>
+      <c r="C176">
+        <v>642</v>
+      </c>
+      <c r="D176" t="s">
+        <v>319</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" t="s">
+        <v>46</v>
+      </c>
+      <c r="I176" t="str">
+        <f t="shared" si="3"/>
+        <v>CC642</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
+      <c r="C177">
+        <v>643</v>
+      </c>
+      <c r="D177" t="s">
+        <v>321</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" t="str">
+        <f t="shared" si="3"/>
+        <v>CC643</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>322</v>
+      </c>
+      <c r="C178">
+        <v>646</v>
+      </c>
+      <c r="D178" t="s">
+        <v>323</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178" t="str">
+        <f t="shared" si="3"/>
+        <v>CC646</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>324</v>
+      </c>
+      <c r="C179">
+        <v>662</v>
+      </c>
+      <c r="D179" t="s">
+        <v>325</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>19</v>
+      </c>
+      <c r="H179" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" t="str">
+        <f t="shared" si="3"/>
+        <v>CC662</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>326</v>
+      </c>
+      <c r="C180">
+        <v>670</v>
+      </c>
+      <c r="D180" t="s">
+        <v>327</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" t="s">
+        <v>26</v>
+      </c>
+      <c r="I180" t="str">
+        <f t="shared" si="3"/>
+        <v>CC670</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
+        <v>328</v>
+      </c>
+      <c r="C181">
+        <v>882</v>
+      </c>
+      <c r="D181" t="s">
+        <v>329</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
         <v>29</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H181" t="s">
+        <v>150</v>
+      </c>
+      <c r="I181" t="str">
+        <f t="shared" si="3"/>
+        <v>CC882</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>330</v>
+      </c>
+      <c r="C182">
+        <v>678</v>
+      </c>
+      <c r="D182" t="s">
+        <v>331</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" t="s">
+        <v>16</v>
+      </c>
+      <c r="I182" t="str">
+        <f t="shared" si="3"/>
+        <v>CC678</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>332</v>
+      </c>
+      <c r="C183">
+        <v>682</v>
+      </c>
+      <c r="D183" t="s">
+        <v>333</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>4</v>
+      </c>
+      <c r="H183" t="s">
+        <v>23</v>
+      </c>
+      <c r="I183" t="str">
+        <f t="shared" si="3"/>
+        <v>CC682</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>334</v>
+      </c>
+      <c r="C184">
+        <v>686</v>
+      </c>
+      <c r="D184" t="s">
+        <v>335</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>12</v>
+      </c>
+      <c r="H184" t="s">
+        <v>54</v>
+      </c>
+      <c r="I184" t="str">
+        <f t="shared" si="3"/>
+        <v>CC686</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>336</v>
+      </c>
+      <c r="C185">
+        <v>688</v>
+      </c>
+      <c r="D185" t="s">
+        <v>337</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>8</v>
+      </c>
+      <c r="H185" t="s">
+        <v>9</v>
+      </c>
+      <c r="I185" t="str">
+        <f t="shared" si="3"/>
+        <v>CC688</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>427</v>
+      </c>
+      <c r="C186">
+        <v>690</v>
+      </c>
+      <c r="D186" t="s">
+        <v>437</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" t="s">
+        <v>75</v>
+      </c>
+      <c r="I186" t="str">
+        <f t="shared" si="3"/>
+        <v>CC690</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>338</v>
+      </c>
+      <c r="C187">
+        <v>694</v>
+      </c>
+      <c r="D187" t="s">
+        <v>339</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" t="s">
+        <v>54</v>
+      </c>
+      <c r="I187" t="str">
+        <f t="shared" si="3"/>
+        <v>CC694</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>340</v>
+      </c>
+      <c r="C188">
+        <v>702</v>
+      </c>
+      <c r="D188" t="s">
+        <v>341</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>4</v>
+      </c>
+      <c r="H188" t="s">
+        <v>68</v>
+      </c>
+      <c r="I188" t="str">
+        <f t="shared" si="3"/>
+        <v>CC702</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>342</v>
+      </c>
+      <c r="C189">
+        <v>703</v>
+      </c>
+      <c r="D189" t="s">
+        <v>343</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" t="s">
+        <v>46</v>
+      </c>
+      <c r="I189" t="str">
+        <f t="shared" si="3"/>
+        <v>CC703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>344</v>
+      </c>
+      <c r="C190">
+        <v>705</v>
+      </c>
+      <c r="D190" t="s">
+        <v>345</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" t="s">
+        <v>9</v>
+      </c>
+      <c r="I190" t="str">
+        <f t="shared" si="3"/>
+        <v>CC705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191">
+        <v>90</v>
+      </c>
+      <c r="D191" t="s">
+        <v>347</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" t="s">
-        <v>280</v>
-      </c>
-      <c r="C154">
-        <v>554</v>
-      </c>
-      <c r="D154" t="s">
-        <v>281</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="I191" t="str">
+        <f t="shared" si="3"/>
+        <v>CC90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>348</v>
+      </c>
+      <c r="C192">
+        <v>706</v>
+      </c>
+      <c r="D192" t="s">
+        <v>349</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192" t="str">
+        <f t="shared" si="3"/>
+        <v>CC706</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>350</v>
+      </c>
+      <c r="C193">
+        <v>710</v>
+      </c>
+      <c r="D193" t="s">
+        <v>351</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" t="s">
+        <v>63</v>
+      </c>
+      <c r="I193" t="str">
+        <f t="shared" si="3"/>
+        <v>CC710</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>426</v>
+      </c>
+      <c r="C194">
+        <v>728</v>
+      </c>
+      <c r="D194" t="s">
+        <v>435</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" t="s">
+        <v>75</v>
+      </c>
+      <c r="I194" t="str">
+        <f t="shared" si="3"/>
+        <v>CC728</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>352</v>
+      </c>
+      <c r="C195">
+        <v>724</v>
+      </c>
+      <c r="D195" t="s">
+        <v>353</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" t="s">
+        <v>9</v>
+      </c>
+      <c r="I195" t="str">
+        <f t="shared" si="3"/>
+        <v>CC724</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>354</v>
+      </c>
+      <c r="C196">
+        <v>144</v>
+      </c>
+      <c r="D196" t="s">
+        <v>355</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>4</v>
+      </c>
+      <c r="H196" t="s">
+        <v>5</v>
+      </c>
+      <c r="I196" t="str">
+        <f t="shared" si="3"/>
+        <v>CC144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>356</v>
+      </c>
+      <c r="C197">
+        <v>729</v>
+      </c>
+      <c r="D197" t="s">
+        <v>357</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" t="str">
+        <f t="shared" si="3"/>
+        <v>CC729</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198">
+        <v>740</v>
+      </c>
+      <c r="D198" t="s">
+        <v>359</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="str">
+        <f t="shared" si="3"/>
+        <v>CC740</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>360</v>
+      </c>
+      <c r="C199">
+        <v>748</v>
+      </c>
+      <c r="D199" t="s">
+        <v>361</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" t="s">
+        <v>63</v>
+      </c>
+      <c r="I199" t="str">
+        <f t="shared" si="3"/>
+        <v>CC748</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>362</v>
+      </c>
+      <c r="C200">
+        <v>752</v>
+      </c>
+      <c r="D200" t="s">
+        <v>363</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>8</v>
+      </c>
+      <c r="H200" t="s">
+        <v>91</v>
+      </c>
+      <c r="I200" t="str">
+        <f t="shared" si="3"/>
+        <v>CC752</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>364</v>
+      </c>
+      <c r="C201">
+        <v>756</v>
+      </c>
+      <c r="D201" t="s">
+        <v>365</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" t="str">
+        <f t="shared" si="3"/>
+        <v>CC756</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>366</v>
+      </c>
+      <c r="C202">
+        <v>760</v>
+      </c>
+      <c r="D202" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>4</v>
+      </c>
+      <c r="H202" t="s">
+        <v>23</v>
+      </c>
+      <c r="I202" t="str">
+        <f t="shared" si="3"/>
+        <v>CC760</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>431</v>
+      </c>
+      <c r="C203">
+        <v>158</v>
+      </c>
+      <c r="D203" t="s">
+        <v>432</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>4</v>
+      </c>
+      <c r="H203" t="s">
+        <v>96</v>
+      </c>
+      <c r="I203" t="str">
+        <f t="shared" si="3"/>
+        <v>CC158</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>368</v>
+      </c>
+      <c r="C204">
+        <v>762</v>
+      </c>
+      <c r="D204" t="s">
+        <v>369</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>4</v>
+      </c>
+      <c r="H204" t="s">
+        <v>5</v>
+      </c>
+      <c r="I204" t="str">
+        <f t="shared" si="3"/>
+        <v>CC762</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>370</v>
+      </c>
+      <c r="C205">
+        <v>764</v>
+      </c>
+      <c r="D205" t="s">
+        <v>371</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="s">
+        <v>4</v>
+      </c>
+      <c r="H205" t="s">
+        <v>68</v>
+      </c>
+      <c r="I205" t="str">
+        <f t="shared" si="3"/>
+        <v>CC764</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>420</v>
+      </c>
+      <c r="C206">
+        <v>807</v>
+      </c>
+      <c r="D206" t="s">
+        <v>372</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
+        <v>8</v>
+      </c>
+      <c r="H206" t="s">
+        <v>9</v>
+      </c>
+      <c r="I206" t="str">
+        <f t="shared" si="3"/>
+        <v>CC807</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>373</v>
+      </c>
+      <c r="C207">
+        <v>626</v>
+      </c>
+      <c r="D207" t="s">
+        <v>374</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>4</v>
+      </c>
+      <c r="H207" t="s">
+        <v>68</v>
+      </c>
+      <c r="I207" t="str">
+        <f t="shared" si="3"/>
+        <v>CC626</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>375</v>
+      </c>
+      <c r="C208">
+        <v>768</v>
+      </c>
+      <c r="D208" t="s">
+        <v>376</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" t="s">
+        <v>54</v>
+      </c>
+      <c r="I208" t="str">
+        <f t="shared" si="3"/>
+        <v>CC768</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>377</v>
+      </c>
+      <c r="C209">
+        <v>776</v>
+      </c>
+      <c r="D209" t="s">
+        <v>378</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" t="s">
         <v>29</v>
       </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" t="s">
-        <v>282</v>
-      </c>
-      <c r="C155">
-        <v>558</v>
-      </c>
-      <c r="D155" t="s">
-        <v>283</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="H209" t="s">
+        <v>150</v>
+      </c>
+      <c r="I209" t="str">
+        <f t="shared" si="3"/>
+        <v>CC776</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>379</v>
+      </c>
+      <c r="C210">
+        <v>780</v>
+      </c>
+      <c r="D210" t="s">
+        <v>380</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
         <v>19</v>
       </c>
-      <c r="G155" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" t="s">
-        <v>284</v>
-      </c>
-      <c r="C156">
-        <v>562</v>
-      </c>
-      <c r="D156" t="s">
-        <v>285</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="H210" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" t="str">
+        <f t="shared" si="3"/>
+        <v>CC780</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>381</v>
+      </c>
+      <c r="C211">
+        <v>788</v>
+      </c>
+      <c r="D211" t="s">
+        <v>382</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" t="s">
         <v>12</v>
       </c>
-      <c r="G156" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" t="s">
-        <v>286</v>
-      </c>
-      <c r="C157">
-        <v>566</v>
-      </c>
-      <c r="D157" t="s">
-        <v>287</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="H211" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" t="str">
+        <f t="shared" si="3"/>
+        <v>CC788</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>383</v>
+      </c>
+      <c r="C212">
+        <v>792</v>
+      </c>
+      <c r="D212" t="s">
+        <v>384</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>4</v>
+      </c>
+      <c r="H212" t="s">
+        <v>23</v>
+      </c>
+      <c r="I212" t="str">
+        <f t="shared" si="3"/>
+        <v>CC792</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>385</v>
+      </c>
+      <c r="C213">
+        <v>795</v>
+      </c>
+      <c r="D213" t="s">
+        <v>386</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" t="s">
+        <v>5</v>
+      </c>
+      <c r="I213" t="str">
+        <f t="shared" si="3"/>
+        <v>CC795</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
+        <v>387</v>
+      </c>
+      <c r="C214">
+        <v>800</v>
+      </c>
+      <c r="D214" t="s">
+        <v>388</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
         <v>12</v>
       </c>
-      <c r="G157" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" t="s">
-        <v>288</v>
-      </c>
-      <c r="C158">
-        <v>578</v>
-      </c>
-      <c r="D158" t="s">
-        <v>289</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="H214" t="s">
+        <v>75</v>
+      </c>
+      <c r="I214" t="str">
+        <f t="shared" si="3"/>
+        <v>CC800</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>389</v>
+      </c>
+      <c r="C215">
+        <v>804</v>
+      </c>
+      <c r="D215" t="s">
+        <v>390</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
         <v>8</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H215" t="s">
+        <v>46</v>
+      </c>
+      <c r="I215" t="str">
+        <f t="shared" si="3"/>
+        <v>CC804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>391</v>
+      </c>
+      <c r="C216">
+        <v>784</v>
+      </c>
+      <c r="D216" t="s">
+        <v>392</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216" t="str">
+        <f t="shared" si="3"/>
+        <v>CC784</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>393</v>
+      </c>
+      <c r="C217">
+        <v>826</v>
+      </c>
+      <c r="D217" t="s">
+        <v>394</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" t="s">
-        <v>290</v>
-      </c>
-      <c r="C159">
-        <v>275</v>
-      </c>
-      <c r="D159" t="s">
-        <v>291</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="I217" t="str">
+        <f t="shared" si="3"/>
+        <v>CC826</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
+        <v>395</v>
+      </c>
+      <c r="C218">
+        <v>834</v>
+      </c>
+      <c r="D218" t="s">
+        <v>396</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" t="s">
+        <v>75</v>
+      </c>
+      <c r="I218" t="str">
+        <f t="shared" si="3"/>
+        <v>CC834</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>397</v>
+      </c>
+      <c r="C219">
+        <v>840</v>
+      </c>
+      <c r="D219" t="s">
+        <v>398</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+      <c r="H219" t="s">
+        <v>82</v>
+      </c>
+      <c r="I219" t="str">
+        <f t="shared" si="3"/>
+        <v>CC840</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>399</v>
+      </c>
+      <c r="C220">
+        <v>850</v>
+      </c>
+      <c r="D220" t="s">
+        <v>400</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" t="str">
+        <f t="shared" si="3"/>
+        <v>CC850</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>401</v>
+      </c>
+      <c r="C221">
+        <v>858</v>
+      </c>
+      <c r="D221" t="s">
+        <v>402</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" t="str">
+        <f t="shared" si="3"/>
+        <v>CC858</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
+        <v>403</v>
+      </c>
+      <c r="C222">
+        <v>860</v>
+      </c>
+      <c r="D222" t="s">
+        <v>404</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
         <v>4</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H222" t="s">
+        <v>5</v>
+      </c>
+      <c r="I222" t="str">
+        <f t="shared" ref="I222:I229" si="4">CONCATENATE("CC",C222)</f>
+        <v>CC860</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
+        <v>405</v>
+      </c>
+      <c r="C223">
+        <v>548</v>
+      </c>
+      <c r="D223" t="s">
+        <v>406</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" t="s">
+        <v>141</v>
+      </c>
+      <c r="I223" t="str">
+        <f t="shared" si="4"/>
+        <v>CC548</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>407</v>
+      </c>
+      <c r="C224">
+        <v>862</v>
+      </c>
+      <c r="D224" t="s">
+        <v>408</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>19</v>
+      </c>
+      <c r="H224" t="s">
+        <v>20</v>
+      </c>
+      <c r="I224" t="str">
+        <f t="shared" si="4"/>
+        <v>CC862</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>409</v>
+      </c>
+      <c r="C225">
+        <v>704</v>
+      </c>
+      <c r="D225" t="s">
+        <v>410</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>4</v>
+      </c>
+      <c r="H225" t="s">
+        <v>68</v>
+      </c>
+      <c r="I225" t="str">
+        <f t="shared" si="4"/>
+        <v>CC704</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>428</v>
+      </c>
+      <c r="C226">
+        <v>732</v>
+      </c>
+      <c r="D226" t="s">
+        <v>438</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>12</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" t="str">
+        <f t="shared" si="4"/>
+        <v>CC732</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>411</v>
+      </c>
+      <c r="C227">
+        <v>887</v>
+      </c>
+      <c r="D227" t="s">
+        <v>412</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>4</v>
+      </c>
+      <c r="H227" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>2</v>
-      </c>
-      <c r="B160" t="s">
-        <v>292</v>
-      </c>
-      <c r="C160">
-        <v>512</v>
-      </c>
-      <c r="D160" t="s">
-        <v>293</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-      <c r="G160" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" t="s">
-        <v>294</v>
-      </c>
-      <c r="C161">
-        <v>586</v>
-      </c>
-      <c r="D161" t="s">
-        <v>295</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" t="s">
-        <v>4</v>
-      </c>
-      <c r="G161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>2</v>
-      </c>
-      <c r="B162" t="s">
-        <v>296</v>
-      </c>
-      <c r="C162">
-        <v>591</v>
-      </c>
-      <c r="D162" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" t="s">
-        <v>298</v>
-      </c>
-      <c r="C163">
-        <v>598</v>
-      </c>
-      <c r="D163" t="s">
-        <v>299</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163" t="s">
-        <v>29</v>
-      </c>
-      <c r="G163" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>2</v>
-      </c>
-      <c r="B164" t="s">
-        <v>300</v>
-      </c>
-      <c r="C164">
-        <v>600</v>
-      </c>
-      <c r="D164" t="s">
-        <v>301</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>2</v>
-      </c>
-      <c r="B165" t="s">
-        <v>302</v>
-      </c>
-      <c r="C165">
-        <v>604</v>
-      </c>
-      <c r="D165" t="s">
-        <v>303</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>2</v>
-      </c>
-      <c r="B166" t="s">
-        <v>304</v>
-      </c>
-      <c r="C166">
-        <v>608</v>
-      </c>
-      <c r="D166" t="s">
-        <v>305</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" t="s">
-        <v>4</v>
-      </c>
-      <c r="G166" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>2</v>
-      </c>
-      <c r="B167" t="s">
-        <v>306</v>
-      </c>
-      <c r="C167">
-        <v>616</v>
-      </c>
-      <c r="D167" t="s">
-        <v>307</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>8</v>
-      </c>
-      <c r="G167" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>2</v>
-      </c>
-      <c r="B168" t="s">
-        <v>308</v>
-      </c>
-      <c r="C168">
-        <v>620</v>
-      </c>
-      <c r="D168" t="s">
-        <v>309</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168" t="s">
-        <v>8</v>
-      </c>
-      <c r="G168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" t="s">
-        <v>310</v>
-      </c>
-      <c r="C169">
-        <v>630</v>
-      </c>
-      <c r="D169" t="s">
-        <v>311</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" t="s">
-        <v>312</v>
-      </c>
-      <c r="C170">
-        <v>634</v>
-      </c>
-      <c r="D170" t="s">
-        <v>313</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>4</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>2</v>
-      </c>
-      <c r="B171" t="s">
-        <v>314</v>
-      </c>
-      <c r="C171">
-        <v>410</v>
-      </c>
-      <c r="D171" t="s">
-        <v>315</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="s">
-        <v>4</v>
-      </c>
-      <c r="G171" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" t="s">
-        <v>316</v>
-      </c>
-      <c r="C172">
-        <v>498</v>
-      </c>
-      <c r="D172" t="s">
-        <v>317</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" t="s">
-        <v>8</v>
-      </c>
-      <c r="G172" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>2</v>
-      </c>
-      <c r="B173" t="s">
-        <v>318</v>
-      </c>
-      <c r="C173">
-        <v>638</v>
-      </c>
-      <c r="D173" t="s">
-        <v>319</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="I227" t="str">
+        <f t="shared" si="4"/>
+        <v>CC887</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>413</v>
+      </c>
+      <c r="C228">
+        <v>894</v>
+      </c>
+      <c r="D228" t="s">
+        <v>414</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
         <v>12</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H228" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>2</v>
-      </c>
-      <c r="B174" t="s">
-        <v>320</v>
-      </c>
-      <c r="C174">
-        <v>642</v>
-      </c>
-      <c r="D174" t="s">
-        <v>321</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>2</v>
-      </c>
-      <c r="B175" t="s">
-        <v>322</v>
-      </c>
-      <c r="C175">
-        <v>643</v>
-      </c>
-      <c r="D175" t="s">
-        <v>323</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>8</v>
-      </c>
-      <c r="G175" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" t="s">
-        <v>324</v>
-      </c>
-      <c r="C176">
-        <v>646</v>
-      </c>
-      <c r="D176" t="s">
-        <v>325</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="I228" t="str">
+        <f t="shared" si="4"/>
+        <v>CC894</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
+        <v>415</v>
+      </c>
+      <c r="C229">
+        <v>716</v>
+      </c>
+      <c r="D229" t="s">
+        <v>416</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
         <v>12</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H229" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" t="s">
-        <v>326</v>
-      </c>
-      <c r="C177">
-        <v>662</v>
-      </c>
-      <c r="D177" t="s">
-        <v>327</v>
-      </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" t="s">
-        <v>328</v>
-      </c>
-      <c r="C178">
-        <v>670</v>
-      </c>
-      <c r="D178" t="s">
-        <v>329</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" t="s">
-        <v>330</v>
-      </c>
-      <c r="C179">
-        <v>882</v>
-      </c>
-      <c r="D179" t="s">
-        <v>331</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>29</v>
-      </c>
-      <c r="G179" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>2</v>
-      </c>
-      <c r="B180" t="s">
-        <v>332</v>
-      </c>
-      <c r="C180">
-        <v>678</v>
-      </c>
-      <c r="D180" t="s">
-        <v>333</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" t="s">
-        <v>334</v>
-      </c>
-      <c r="C181">
-        <v>682</v>
-      </c>
-      <c r="D181" t="s">
-        <v>335</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
-        <v>4</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>2</v>
-      </c>
-      <c r="B182" t="s">
-        <v>336</v>
-      </c>
-      <c r="C182">
-        <v>686</v>
-      </c>
-      <c r="D182" t="s">
-        <v>337</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" t="s">
-        <v>338</v>
-      </c>
-      <c r="C183">
-        <v>688</v>
-      </c>
-      <c r="D183" t="s">
-        <v>339</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
-        <v>8</v>
-      </c>
-      <c r="G183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>2</v>
-      </c>
-      <c r="B184" t="s">
-        <v>340</v>
-      </c>
-      <c r="C184">
-        <v>694</v>
-      </c>
-      <c r="D184" t="s">
-        <v>341</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" t="s">
-        <v>342</v>
-      </c>
-      <c r="C185">
-        <v>702</v>
-      </c>
-      <c r="D185" t="s">
-        <v>343</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-      <c r="F185" t="s">
-        <v>4</v>
-      </c>
-      <c r="G185" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>2</v>
-      </c>
-      <c r="B186" t="s">
-        <v>344</v>
-      </c>
-      <c r="C186">
-        <v>703</v>
-      </c>
-      <c r="D186" t="s">
-        <v>345</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
-        <v>8</v>
-      </c>
-      <c r="G186" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>2</v>
-      </c>
-      <c r="B187" t="s">
-        <v>346</v>
-      </c>
-      <c r="C187">
-        <v>705</v>
-      </c>
-      <c r="D187" t="s">
-        <v>347</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>8</v>
-      </c>
-      <c r="G187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" t="s">
-        <v>348</v>
-      </c>
-      <c r="C188">
-        <v>90</v>
-      </c>
-      <c r="D188" t="s">
-        <v>349</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188" t="s">
-        <v>29</v>
-      </c>
-      <c r="G188" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>2</v>
-      </c>
-      <c r="B189" t="s">
-        <v>350</v>
-      </c>
-      <c r="C189">
-        <v>706</v>
-      </c>
-      <c r="D189" t="s">
-        <v>351</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" t="s">
-        <v>352</v>
-      </c>
-      <c r="C190">
-        <v>710</v>
-      </c>
-      <c r="D190" t="s">
-        <v>353</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" t="s">
-        <v>354</v>
-      </c>
-      <c r="C191">
-        <v>724</v>
-      </c>
-      <c r="D191" t="s">
-        <v>355</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191" t="s">
-        <v>8</v>
-      </c>
-      <c r="G191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" t="s">
-        <v>356</v>
-      </c>
-      <c r="C192">
-        <v>144</v>
-      </c>
-      <c r="D192" t="s">
-        <v>357</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192" t="s">
-        <v>4</v>
-      </c>
-      <c r="G192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>2</v>
-      </c>
-      <c r="B193" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193">
-        <v>736</v>
-      </c>
-      <c r="D193" t="s">
-        <v>359</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>2</v>
-      </c>
-      <c r="B194" t="s">
-        <v>360</v>
-      </c>
-      <c r="C194">
-        <v>740</v>
-      </c>
-      <c r="D194" t="s">
-        <v>361</v>
-      </c>
-      <c r="E194">
-        <v>1</v>
-      </c>
-      <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" t="s">
-        <v>362</v>
-      </c>
-      <c r="C195">
-        <v>748</v>
-      </c>
-      <c r="D195" t="s">
-        <v>363</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-      <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>2</v>
-      </c>
-      <c r="B196" t="s">
-        <v>364</v>
-      </c>
-      <c r="C196">
-        <v>752</v>
-      </c>
-      <c r="D196" t="s">
-        <v>365</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
-        <v>8</v>
-      </c>
-      <c r="G196" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" t="s">
-        <v>366</v>
-      </c>
-      <c r="C197">
-        <v>756</v>
-      </c>
-      <c r="D197" t="s">
-        <v>367</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197" t="s">
-        <v>8</v>
-      </c>
-      <c r="G197" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198">
-        <v>760</v>
-      </c>
-      <c r="D198" t="s">
-        <v>369</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="F198" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" t="s">
-        <v>370</v>
-      </c>
-      <c r="C199">
-        <v>762</v>
-      </c>
-      <c r="D199" t="s">
-        <v>371</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
-      <c r="F199" t="s">
-        <v>4</v>
-      </c>
-      <c r="G199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>2</v>
-      </c>
-      <c r="B200" t="s">
-        <v>372</v>
-      </c>
-      <c r="C200">
-        <v>764</v>
-      </c>
-      <c r="D200" t="s">
-        <v>373</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200" t="s">
-        <v>4</v>
-      </c>
-      <c r="G200" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>2</v>
-      </c>
-      <c r="B201" t="s">
-        <v>422</v>
-      </c>
-      <c r="C201">
-        <v>807</v>
-      </c>
-      <c r="D201" t="s">
-        <v>374</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
-        <v>8</v>
-      </c>
-      <c r="G201" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" t="s">
-        <v>375</v>
-      </c>
-      <c r="C202">
-        <v>626</v>
-      </c>
-      <c r="D202" t="s">
-        <v>376</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
-        <v>4</v>
-      </c>
-      <c r="G202" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>2</v>
-      </c>
-      <c r="B203" t="s">
-        <v>377</v>
-      </c>
-      <c r="C203">
-        <v>768</v>
-      </c>
-      <c r="D203" t="s">
-        <v>378</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>2</v>
-      </c>
-      <c r="B204" t="s">
-        <v>379</v>
-      </c>
-      <c r="C204">
-        <v>776</v>
-      </c>
-      <c r="D204" t="s">
-        <v>380</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-      <c r="F204" t="s">
-        <v>29</v>
-      </c>
-      <c r="G204" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" t="s">
-        <v>381</v>
-      </c>
-      <c r="C205">
-        <v>780</v>
-      </c>
-      <c r="D205" t="s">
-        <v>382</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" t="s">
-        <v>383</v>
-      </c>
-      <c r="C206">
-        <v>788</v>
-      </c>
-      <c r="D206" t="s">
-        <v>384</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" t="s">
-        <v>385</v>
-      </c>
-      <c r="C207">
-        <v>792</v>
-      </c>
-      <c r="D207" t="s">
-        <v>386</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207" t="s">
-        <v>4</v>
-      </c>
-      <c r="G207" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" t="s">
-        <v>387</v>
-      </c>
-      <c r="C208">
-        <v>795</v>
-      </c>
-      <c r="D208" t="s">
-        <v>388</v>
-      </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-      <c r="F208" t="s">
-        <v>4</v>
-      </c>
-      <c r="G208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" t="s">
-        <v>389</v>
-      </c>
-      <c r="C209">
-        <v>800</v>
-      </c>
-      <c r="D209" t="s">
-        <v>390</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>2</v>
-      </c>
-      <c r="B210" t="s">
-        <v>391</v>
-      </c>
-      <c r="C210">
-        <v>804</v>
-      </c>
-      <c r="D210" t="s">
-        <v>392</v>
-      </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210" t="s">
-        <v>8</v>
-      </c>
-      <c r="G210" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>2</v>
-      </c>
-      <c r="B211" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211">
-        <v>784</v>
-      </c>
-      <c r="D211" t="s">
-        <v>394</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" t="s">
-        <v>4</v>
-      </c>
-      <c r="G211" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" t="s">
-        <v>395</v>
-      </c>
-      <c r="C212">
-        <v>826</v>
-      </c>
-      <c r="D212" t="s">
-        <v>396</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212" t="s">
-        <v>8</v>
-      </c>
-      <c r="G212" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>2</v>
-      </c>
-      <c r="B213" t="s">
-        <v>397</v>
-      </c>
-      <c r="C213">
-        <v>834</v>
-      </c>
-      <c r="D213" t="s">
-        <v>398</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>2</v>
-      </c>
-      <c r="B214" t="s">
-        <v>399</v>
-      </c>
-      <c r="C214">
-        <v>840</v>
-      </c>
-      <c r="D214" t="s">
-        <v>400</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214" t="s">
-        <v>82</v>
-      </c>
-      <c r="G214" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" t="s">
-        <v>401</v>
-      </c>
-      <c r="C215">
-        <v>850</v>
-      </c>
-      <c r="D215" t="s">
-        <v>402</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215" t="s">
-        <v>19</v>
-      </c>
-      <c r="G215" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" t="s">
-        <v>403</v>
-      </c>
-      <c r="C216">
-        <v>858</v>
-      </c>
-      <c r="D216" t="s">
-        <v>404</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>2</v>
-      </c>
-      <c r="B217" t="s">
-        <v>405</v>
-      </c>
-      <c r="C217">
-        <v>860</v>
-      </c>
-      <c r="D217" t="s">
-        <v>406</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217" t="s">
-        <v>4</v>
-      </c>
-      <c r="G217" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" t="s">
-        <v>407</v>
-      </c>
-      <c r="C218">
-        <v>548</v>
-      </c>
-      <c r="D218" t="s">
-        <v>408</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
-        <v>29</v>
-      </c>
-      <c r="G218" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>2</v>
-      </c>
-      <c r="B219" t="s">
-        <v>409</v>
-      </c>
-      <c r="C219">
-        <v>862</v>
-      </c>
-      <c r="D219" t="s">
-        <v>410</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>2</v>
-      </c>
-      <c r="B220" t="s">
-        <v>411</v>
-      </c>
-      <c r="C220">
-        <v>704</v>
-      </c>
-      <c r="D220" t="s">
-        <v>412</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220" t="s">
-        <v>4</v>
-      </c>
-      <c r="G220" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>2</v>
-      </c>
-      <c r="B221" t="s">
-        <v>413</v>
-      </c>
-      <c r="C221">
-        <v>887</v>
-      </c>
-      <c r="D221" t="s">
-        <v>414</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221" t="s">
-        <v>4</v>
-      </c>
-      <c r="G221" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>2</v>
-      </c>
-      <c r="B222" t="s">
-        <v>415</v>
-      </c>
-      <c r="C222">
-        <v>894</v>
-      </c>
-      <c r="D222" t="s">
-        <v>416</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222" t="s">
-        <v>12</v>
-      </c>
-      <c r="G222" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223" t="s">
-        <v>417</v>
-      </c>
-      <c r="C223">
-        <v>716</v>
-      </c>
-      <c r="D223" t="s">
-        <v>418</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="F223" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" t="s">
-        <v>75</v>
+      <c r="I229" t="str">
+        <f t="shared" si="4"/>
+        <v>CC716</v>
       </c>
     </row>
   </sheetData>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\gabel\GitHub\wcde\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\User\creiter\Data Explorer 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="440">
   <si>
     <t>continent</t>
   </si>
@@ -1339,9 +1339,6 @@
   </si>
   <si>
     <t>edu8</t>
-  </si>
-  <si>
-    <t>samir_fucked_up_geocodes</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2187,7 @@
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>421</v>
       </c>
@@ -2215,11 +2212,8 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>417</v>
       </c>
@@ -2232,12 +2226,8 @@
       <c r="D2" t="s">
         <v>419</v>
       </c>
-      <c r="I2" t="str">
-        <f>B2</f>
-        <v>World</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -2250,12 +2240,8 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I28" si="0">B3</f>
-        <v>Africa</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -2268,12 +2254,8 @@
       <c r="D4">
         <v>142</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>Asia</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -2286,12 +2268,8 @@
       <c r="D5">
         <v>150</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>Europe</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>417</v>
       </c>
@@ -2304,12 +2282,8 @@
       <c r="D6">
         <v>19</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>Latin America and the Caribbean</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -2322,12 +2296,8 @@
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>Northern America</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>417</v>
       </c>
@@ -2340,12 +2310,8 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>Oceania</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2358,12 +2324,8 @@
       <c r="D9">
         <v>14</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>Eastern Africa</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2376,12 +2338,8 @@
       <c r="D10">
         <v>17</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>Middle Africa</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2394,12 +2352,8 @@
       <c r="D11">
         <v>15</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>Northern Africa</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2412,12 +2366,8 @@
       <c r="D12">
         <v>18</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="0"/>
-        <v>Southern Africa</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2430,12 +2380,8 @@
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="0"/>
-        <v>Western Africa</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2448,12 +2394,8 @@
       <c r="D14">
         <v>30</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>Eastern Asia</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2466,12 +2408,8 @@
       <c r="D15">
         <v>142</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>South-Central Asia</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2484,12 +2422,8 @@
       <c r="D16">
         <v>35</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>South-Eastern Asia</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2502,12 +2436,8 @@
       <c r="D17">
         <v>145</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>Western Asia</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2520,12 +2450,8 @@
       <c r="D18">
         <v>151</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>Eastern Europe</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2538,12 +2464,8 @@
       <c r="D19">
         <v>154</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>Northern Europe</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2556,12 +2478,8 @@
       <c r="D20">
         <v>39</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>Southern Europe</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2574,12 +2492,8 @@
       <c r="D21">
         <v>155</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>Western Europe</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2592,12 +2506,8 @@
       <c r="D22">
         <v>29</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>Caribbean</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2610,12 +2520,8 @@
       <c r="D23">
         <v>13</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>Central America</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2628,12 +2534,8 @@
       <c r="D24">
         <v>5</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>South America</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2646,12 +2548,8 @@
       <c r="D25">
         <v>53</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>Australia and New Zealand</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2664,12 +2562,8 @@
       <c r="D26">
         <v>54</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>Melanesia</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2682,12 +2576,8 @@
       <c r="D27">
         <v>57</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>Micronesia</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2700,12 +2590,8 @@
       <c r="D28">
         <v>61</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>Polynesia</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2730,12 +2616,8 @@
       <c r="H29" t="s">
         <v>5</v>
       </c>
-      <c r="I29" t="str">
-        <f>CONCATENATE("CC",C29)</f>
-        <v>CC4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -2760,12 +2642,8 @@
       <c r="H30" t="s">
         <v>9</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" ref="I30:I93" si="1">CONCATENATE("CC",C30)</f>
-        <v>CC8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2790,12 +2668,8 @@
       <c r="H31" t="s">
         <v>13</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>CC12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2820,12 +2694,8 @@
       <c r="H32" t="s">
         <v>16</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>CC24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2850,12 +2720,8 @@
       <c r="H33" t="s">
         <v>26</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v>CC28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2880,12 +2746,8 @@
       <c r="H34" t="s">
         <v>20</v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v>CC32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2910,12 +2772,8 @@
       <c r="H35" t="s">
         <v>23</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="1"/>
-        <v>CC51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2940,12 +2798,8 @@
       <c r="H36" t="s">
         <v>26</v>
       </c>
-      <c r="I36" t="str">
-        <f t="shared" si="1"/>
-        <v>CC533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2970,12 +2824,8 @@
       <c r="H37" t="s">
         <v>30</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="1"/>
-        <v>CC36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3000,12 +2850,8 @@
       <c r="H38" t="s">
         <v>33</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="1"/>
-        <v>CC40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3030,12 +2876,8 @@
       <c r="H39" t="s">
         <v>23</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" si="1"/>
-        <v>CC31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3060,12 +2902,8 @@
       <c r="H40" t="s">
         <v>26</v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" si="1"/>
-        <v>CC44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -3090,12 +2928,8 @@
       <c r="H41" t="s">
         <v>23</v>
       </c>
-      <c r="I41" t="str">
-        <f t="shared" si="1"/>
-        <v>CC48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3120,12 +2954,8 @@
       <c r="H42" t="s">
         <v>5</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="1"/>
-        <v>CC50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -3150,12 +2980,8 @@
       <c r="H43" t="s">
         <v>26</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" si="1"/>
-        <v>CC52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3180,12 +3006,8 @@
       <c r="H44" t="s">
         <v>46</v>
       </c>
-      <c r="I44" t="str">
-        <f t="shared" si="1"/>
-        <v>CC112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3210,12 +3032,8 @@
       <c r="H45" t="s">
         <v>33</v>
       </c>
-      <c r="I45" t="str">
-        <f t="shared" si="1"/>
-        <v>CC56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3240,12 +3058,8 @@
       <c r="H46" t="s">
         <v>51</v>
       </c>
-      <c r="I46" t="str">
-        <f t="shared" si="1"/>
-        <v>CC84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -3270,12 +3084,8 @@
       <c r="H47" t="s">
         <v>54</v>
       </c>
-      <c r="I47" t="str">
-        <f t="shared" si="1"/>
-        <v>CC204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3300,12 +3110,8 @@
       <c r="H48" t="s">
         <v>5</v>
       </c>
-      <c r="I48" t="str">
-        <f t="shared" si="1"/>
-        <v>CC64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3330,12 +3136,8 @@
       <c r="H49" t="s">
         <v>20</v>
       </c>
-      <c r="I49" t="str">
-        <f t="shared" si="1"/>
-        <v>CC68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -3360,12 +3162,8 @@
       <c r="H50" t="s">
         <v>9</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" si="1"/>
-        <v>CC70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3390,12 +3188,8 @@
       <c r="H51" t="s">
         <v>63</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" si="1"/>
-        <v>CC72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -3420,12 +3214,8 @@
       <c r="H52" t="s">
         <v>20</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="1"/>
-        <v>CC76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -3450,12 +3240,8 @@
       <c r="H53" t="s">
         <v>68</v>
       </c>
-      <c r="I53" t="str">
-        <f t="shared" si="1"/>
-        <v>CC96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -3480,12 +3266,8 @@
       <c r="H54" t="s">
         <v>46</v>
       </c>
-      <c r="I54" t="str">
-        <f t="shared" si="1"/>
-        <v>CC100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -3510,12 +3292,8 @@
       <c r="H55" t="s">
         <v>54</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" si="1"/>
-        <v>CC854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3540,12 +3318,8 @@
       <c r="H56" t="s">
         <v>75</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" si="1"/>
-        <v>CC108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3570,12 +3344,8 @@
       <c r="H57" t="s">
         <v>68</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="1"/>
-        <v>CC116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -3600,12 +3370,8 @@
       <c r="H58" t="s">
         <v>16</v>
       </c>
-      <c r="I58" t="str">
-        <f t="shared" si="1"/>
-        <v>CC120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -3630,12 +3396,8 @@
       <c r="H59" t="s">
         <v>82</v>
       </c>
-      <c r="I59" t="str">
-        <f t="shared" si="1"/>
-        <v>CC124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -3660,12 +3422,8 @@
       <c r="H60" t="s">
         <v>54</v>
       </c>
-      <c r="I60" t="str">
-        <f t="shared" si="1"/>
-        <v>CC132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -3690,12 +3448,8 @@
       <c r="H61" t="s">
         <v>16</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="1"/>
-        <v>CC140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -3720,12 +3474,8 @@
       <c r="H62" t="s">
         <v>16</v>
       </c>
-      <c r="I62" t="str">
-        <f t="shared" si="1"/>
-        <v>CC148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -3750,12 +3500,8 @@
       <c r="H63" t="s">
         <v>91</v>
       </c>
-      <c r="I63" t="str">
-        <f t="shared" si="1"/>
-        <v>CC830</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -3780,12 +3526,8 @@
       <c r="H64" t="s">
         <v>20</v>
       </c>
-      <c r="I64" t="str">
-        <f t="shared" si="1"/>
-        <v>CC152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3810,12 +3552,8 @@
       <c r="H65" t="s">
         <v>96</v>
       </c>
-      <c r="I65" t="str">
-        <f t="shared" si="1"/>
-        <v>CC156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3840,12 +3578,8 @@
       <c r="H66" t="s">
         <v>20</v>
       </c>
-      <c r="I66" t="str">
-        <f t="shared" si="1"/>
-        <v>CC170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3870,12 +3604,8 @@
       <c r="H67" t="s">
         <v>75</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" si="1"/>
-        <v>CC174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3900,12 +3630,8 @@
       <c r="H68" t="s">
         <v>16</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" si="1"/>
-        <v>CC178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3930,12 +3656,8 @@
       <c r="H69" t="s">
         <v>51</v>
       </c>
-      <c r="I69" t="str">
-        <f t="shared" si="1"/>
-        <v>CC188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3960,12 +3682,8 @@
       <c r="H70" t="s">
         <v>54</v>
       </c>
-      <c r="I70" t="str">
-        <f t="shared" si="1"/>
-        <v>CC384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3990,12 +3708,8 @@
       <c r="H71" t="s">
         <v>9</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="1"/>
-        <v>CC191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4020,12 +3734,8 @@
       <c r="H72" t="s">
         <v>26</v>
       </c>
-      <c r="I72" t="str">
-        <f t="shared" si="1"/>
-        <v>CC192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -4050,12 +3760,8 @@
       <c r="H73" t="s">
         <v>26</v>
       </c>
-      <c r="I73" t="str">
-        <f t="shared" si="1"/>
-        <v>CC531</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4080,12 +3786,8 @@
       <c r="H74" t="s">
         <v>23</v>
       </c>
-      <c r="I74" t="str">
-        <f t="shared" si="1"/>
-        <v>CC196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -4110,12 +3812,8 @@
       <c r="H75" t="s">
         <v>46</v>
       </c>
-      <c r="I75" t="str">
-        <f t="shared" si="1"/>
-        <v>CC203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -4140,12 +3838,8 @@
       <c r="H76" t="s">
         <v>96</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="1"/>
-        <v>CC408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -4170,12 +3864,8 @@
       <c r="H77" t="s">
         <v>16</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="1"/>
-        <v>CC180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -4200,12 +3890,8 @@
       <c r="H78" t="s">
         <v>91</v>
       </c>
-      <c r="I78" t="str">
-        <f t="shared" si="1"/>
-        <v>CC208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4230,12 +3916,8 @@
       <c r="H79" t="s">
         <v>75</v>
       </c>
-      <c r="I79" t="str">
-        <f t="shared" si="1"/>
-        <v>CC262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -4260,12 +3942,8 @@
       <c r="H80" t="s">
         <v>26</v>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" si="1"/>
-        <v>CC214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4290,12 +3968,8 @@
       <c r="H81" t="s">
         <v>20</v>
       </c>
-      <c r="I81" t="str">
-        <f t="shared" si="1"/>
-        <v>CC218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4320,12 +3994,8 @@
       <c r="H82" t="s">
         <v>13</v>
       </c>
-      <c r="I82" t="str">
-        <f t="shared" si="1"/>
-        <v>CC818</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4350,12 +4020,8 @@
       <c r="H83" t="s">
         <v>51</v>
       </c>
-      <c r="I83" t="str">
-        <f t="shared" si="1"/>
-        <v>CC222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4380,12 +4046,8 @@
       <c r="H84" t="s">
         <v>16</v>
       </c>
-      <c r="I84" t="str">
-        <f t="shared" si="1"/>
-        <v>CC226</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4410,12 +4072,8 @@
       <c r="H85" t="s">
         <v>75</v>
       </c>
-      <c r="I85" t="str">
-        <f t="shared" si="1"/>
-        <v>CC232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -4440,12 +4098,8 @@
       <c r="H86" t="s">
         <v>91</v>
       </c>
-      <c r="I86" t="str">
-        <f t="shared" si="1"/>
-        <v>CC233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -4470,12 +4124,8 @@
       <c r="H87" t="s">
         <v>75</v>
       </c>
-      <c r="I87" t="str">
-        <f t="shared" si="1"/>
-        <v>CC231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4500,12 +4150,8 @@
       <c r="H88" t="s">
         <v>141</v>
       </c>
-      <c r="I88" t="str">
-        <f t="shared" si="1"/>
-        <v>CC242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4530,12 +4176,8 @@
       <c r="H89" t="s">
         <v>91</v>
       </c>
-      <c r="I89" t="str">
-        <f t="shared" si="1"/>
-        <v>CC246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4560,12 +4202,8 @@
       <c r="H90" t="s">
         <v>33</v>
       </c>
-      <c r="I90" t="str">
-        <f t="shared" si="1"/>
-        <v>CC250</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4590,12 +4228,8 @@
       <c r="H91" t="s">
         <v>20</v>
       </c>
-      <c r="I91" t="str">
-        <f t="shared" si="1"/>
-        <v>CC254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -4620,12 +4254,8 @@
       <c r="H92" t="s">
         <v>150</v>
       </c>
-      <c r="I92" t="str">
-        <f t="shared" si="1"/>
-        <v>CC258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -4650,12 +4280,8 @@
       <c r="H93" t="s">
         <v>16</v>
       </c>
-      <c r="I93" t="str">
-        <f t="shared" si="1"/>
-        <v>CC266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -4680,12 +4306,8 @@
       <c r="H94" t="s">
         <v>54</v>
       </c>
-      <c r="I94" t="str">
-        <f t="shared" ref="I94:I157" si="2">CONCATENATE("CC",C94)</f>
-        <v>CC270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4710,12 +4332,8 @@
       <c r="H95" t="s">
         <v>23</v>
       </c>
-      <c r="I95" t="str">
-        <f t="shared" si="2"/>
-        <v>CC268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4740,12 +4358,8 @@
       <c r="H96" t="s">
         <v>33</v>
       </c>
-      <c r="I96" t="str">
-        <f t="shared" si="2"/>
-        <v>CC276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -4770,12 +4384,8 @@
       <c r="H97" t="s">
         <v>54</v>
       </c>
-      <c r="I97" t="str">
-        <f t="shared" si="2"/>
-        <v>CC288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -4800,12 +4410,8 @@
       <c r="H98" t="s">
         <v>9</v>
       </c>
-      <c r="I98" t="str">
-        <f t="shared" si="2"/>
-        <v>CC300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -4830,12 +4436,8 @@
       <c r="H99" t="s">
         <v>26</v>
       </c>
-      <c r="I99" t="str">
-        <f t="shared" si="2"/>
-        <v>CC308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -4860,12 +4462,8 @@
       <c r="H100" t="s">
         <v>26</v>
       </c>
-      <c r="I100" t="str">
-        <f t="shared" si="2"/>
-        <v>CC312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -4890,12 +4488,8 @@
       <c r="H101" t="s">
         <v>169</v>
       </c>
-      <c r="I101" t="str">
-        <f t="shared" si="2"/>
-        <v>CC316</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4920,12 +4514,8 @@
       <c r="H102" t="s">
         <v>51</v>
       </c>
-      <c r="I102" t="str">
-        <f t="shared" si="2"/>
-        <v>CC320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4950,12 +4540,8 @@
       <c r="H103" t="s">
         <v>54</v>
       </c>
-      <c r="I103" t="str">
-        <f t="shared" si="2"/>
-        <v>CC324</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4980,12 +4566,8 @@
       <c r="H104" t="s">
         <v>54</v>
       </c>
-      <c r="I104" t="str">
-        <f t="shared" si="2"/>
-        <v>CC624</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -5010,12 +4592,8 @@
       <c r="H105" t="s">
         <v>20</v>
       </c>
-      <c r="I105" t="str">
-        <f t="shared" si="2"/>
-        <v>CC328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -5040,12 +4618,8 @@
       <c r="H106" t="s">
         <v>26</v>
       </c>
-      <c r="I106" t="str">
-        <f t="shared" si="2"/>
-        <v>CC332</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -5070,12 +4644,8 @@
       <c r="H107" t="s">
         <v>51</v>
       </c>
-      <c r="I107" t="str">
-        <f t="shared" si="2"/>
-        <v>CC340</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -5100,12 +4670,8 @@
       <c r="H108" t="s">
         <v>96</v>
       </c>
-      <c r="I108" t="str">
-        <f t="shared" si="2"/>
-        <v>CC344</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -5130,12 +4696,8 @@
       <c r="H109" t="s">
         <v>46</v>
       </c>
-      <c r="I109" t="str">
-        <f t="shared" si="2"/>
-        <v>CC348</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -5160,12 +4722,8 @@
       <c r="H110" t="s">
         <v>91</v>
       </c>
-      <c r="I110" t="str">
-        <f t="shared" si="2"/>
-        <v>CC352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -5190,12 +4748,8 @@
       <c r="H111" t="s">
         <v>5</v>
       </c>
-      <c r="I111" t="str">
-        <f t="shared" si="2"/>
-        <v>CC356</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -5220,12 +4774,8 @@
       <c r="H112" t="s">
         <v>68</v>
       </c>
-      <c r="I112" t="str">
-        <f t="shared" si="2"/>
-        <v>CC360</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -5250,12 +4800,8 @@
       <c r="H113" t="s">
         <v>5</v>
       </c>
-      <c r="I113" t="str">
-        <f t="shared" si="2"/>
-        <v>CC364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -5280,12 +4826,8 @@
       <c r="H114" t="s">
         <v>23</v>
       </c>
-      <c r="I114" t="str">
-        <f t="shared" si="2"/>
-        <v>CC368</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -5310,12 +4852,8 @@
       <c r="H115" t="s">
         <v>91</v>
       </c>
-      <c r="I115" t="str">
-        <f t="shared" si="2"/>
-        <v>CC372</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -5340,12 +4878,8 @@
       <c r="H116" t="s">
         <v>23</v>
       </c>
-      <c r="I116" t="str">
-        <f t="shared" si="2"/>
-        <v>CC376</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -5370,12 +4904,8 @@
       <c r="H117" t="s">
         <v>9</v>
       </c>
-      <c r="I117" t="str">
-        <f t="shared" si="2"/>
-        <v>CC380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -5400,12 +4930,8 @@
       <c r="H118" t="s">
         <v>26</v>
       </c>
-      <c r="I118" t="str">
-        <f t="shared" si="2"/>
-        <v>CC388</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -5430,12 +4956,8 @@
       <c r="H119" t="s">
         <v>96</v>
       </c>
-      <c r="I119" t="str">
-        <f t="shared" si="2"/>
-        <v>CC392</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -5460,12 +4982,8 @@
       <c r="H120" t="s">
         <v>23</v>
       </c>
-      <c r="I120" t="str">
-        <f t="shared" si="2"/>
-        <v>CC400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -5490,12 +5008,8 @@
       <c r="H121" t="s">
         <v>5</v>
       </c>
-      <c r="I121" t="str">
-        <f t="shared" si="2"/>
-        <v>CC398</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -5520,12 +5034,8 @@
       <c r="H122" t="s">
         <v>75</v>
       </c>
-      <c r="I122" t="str">
-        <f t="shared" si="2"/>
-        <v>CC404</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -5550,12 +5060,8 @@
       <c r="H123" t="s">
         <v>169</v>
       </c>
-      <c r="I123" t="str">
-        <f t="shared" si="2"/>
-        <v>CC296</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -5580,12 +5086,8 @@
       <c r="H124" t="s">
         <v>23</v>
       </c>
-      <c r="I124" t="str">
-        <f t="shared" si="2"/>
-        <v>CC414</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -5610,12 +5112,8 @@
       <c r="H125" t="s">
         <v>5</v>
       </c>
-      <c r="I125" t="str">
-        <f t="shared" si="2"/>
-        <v>CC417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -5640,12 +5138,8 @@
       <c r="H126" t="s">
         <v>68</v>
       </c>
-      <c r="I126" t="str">
-        <f t="shared" si="2"/>
-        <v>CC418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -5670,12 +5164,8 @@
       <c r="H127" t="s">
         <v>91</v>
       </c>
-      <c r="I127" t="str">
-        <f t="shared" si="2"/>
-        <v>CC428</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -5700,12 +5190,8 @@
       <c r="H128" t="s">
         <v>23</v>
       </c>
-      <c r="I128" t="str">
-        <f t="shared" si="2"/>
-        <v>CC422</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -5730,12 +5216,8 @@
       <c r="H129" t="s">
         <v>63</v>
       </c>
-      <c r="I129" t="str">
-        <f t="shared" si="2"/>
-        <v>CC426</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -5760,12 +5242,8 @@
       <c r="H130" t="s">
         <v>54</v>
       </c>
-      <c r="I130" t="str">
-        <f t="shared" si="2"/>
-        <v>CC430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -5790,12 +5268,8 @@
       <c r="H131" t="s">
         <v>13</v>
       </c>
-      <c r="I131" t="str">
-        <f t="shared" si="2"/>
-        <v>CC434</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -5820,12 +5294,8 @@
       <c r="H132" t="s">
         <v>91</v>
       </c>
-      <c r="I132" t="str">
-        <f t="shared" si="2"/>
-        <v>CC440</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -5850,12 +5320,8 @@
       <c r="H133" t="s">
         <v>33</v>
       </c>
-      <c r="I133" t="str">
-        <f t="shared" si="2"/>
-        <v>CC442</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5880,12 +5346,8 @@
       <c r="H134" t="s">
         <v>96</v>
       </c>
-      <c r="I134" t="str">
-        <f t="shared" si="2"/>
-        <v>CC446</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -5910,12 +5372,8 @@
       <c r="H135" t="s">
         <v>75</v>
       </c>
-      <c r="I135" t="str">
-        <f t="shared" si="2"/>
-        <v>CC450</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -5940,12 +5398,8 @@
       <c r="H136" t="s">
         <v>75</v>
       </c>
-      <c r="I136" t="str">
-        <f t="shared" si="2"/>
-        <v>CC454</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -5970,12 +5424,8 @@
       <c r="H137" t="s">
         <v>68</v>
       </c>
-      <c r="I137" t="str">
-        <f t="shared" si="2"/>
-        <v>CC458</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -6000,12 +5450,8 @@
       <c r="H138" t="s">
         <v>5</v>
       </c>
-      <c r="I138" t="str">
-        <f t="shared" si="2"/>
-        <v>CC462</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -6030,12 +5476,8 @@
       <c r="H139" t="s">
         <v>54</v>
       </c>
-      <c r="I139" t="str">
-        <f t="shared" si="2"/>
-        <v>CC466</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -6060,12 +5502,8 @@
       <c r="H140" t="s">
         <v>9</v>
       </c>
-      <c r="I140" t="str">
-        <f t="shared" si="2"/>
-        <v>CC470</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -6090,12 +5528,8 @@
       <c r="H141" t="s">
         <v>26</v>
       </c>
-      <c r="I141" t="str">
-        <f t="shared" si="2"/>
-        <v>CC474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -6120,12 +5554,8 @@
       <c r="H142" t="s">
         <v>54</v>
       </c>
-      <c r="I142" t="str">
-        <f t="shared" si="2"/>
-        <v>CC478</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -6150,12 +5580,8 @@
       <c r="H143" t="s">
         <v>75</v>
       </c>
-      <c r="I143" t="str">
-        <f t="shared" si="2"/>
-        <v>CC480</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -6180,12 +5606,8 @@
       <c r="H144" t="s">
         <v>75</v>
       </c>
-      <c r="I144" t="str">
-        <f t="shared" si="2"/>
-        <v>CC175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -6210,12 +5632,8 @@
       <c r="H145" t="s">
         <v>51</v>
       </c>
-      <c r="I145" t="str">
-        <f t="shared" si="2"/>
-        <v>CC484</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -6240,12 +5658,8 @@
       <c r="H146" t="s">
         <v>169</v>
       </c>
-      <c r="I146" t="str">
-        <f t="shared" si="2"/>
-        <v>CC583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -6270,12 +5684,8 @@
       <c r="H147" t="s">
         <v>96</v>
       </c>
-      <c r="I147" t="str">
-        <f t="shared" si="2"/>
-        <v>CC496</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -6300,12 +5710,8 @@
       <c r="H148" t="s">
         <v>9</v>
       </c>
-      <c r="I148" t="str">
-        <f t="shared" si="2"/>
-        <v>CC499</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -6330,12 +5736,8 @@
       <c r="H149" t="s">
         <v>13</v>
       </c>
-      <c r="I149" t="str">
-        <f t="shared" si="2"/>
-        <v>CC504</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -6360,12 +5762,8 @@
       <c r="H150" t="s">
         <v>75</v>
       </c>
-      <c r="I150" t="str">
-        <f t="shared" si="2"/>
-        <v>CC508</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -6390,12 +5788,8 @@
       <c r="H151" t="s">
         <v>68</v>
       </c>
-      <c r="I151" t="str">
-        <f t="shared" si="2"/>
-        <v>CC104</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -6420,12 +5814,8 @@
       <c r="H152" t="s">
         <v>63</v>
       </c>
-      <c r="I152" t="str">
-        <f t="shared" si="2"/>
-        <v>CC516</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -6450,12 +5840,8 @@
       <c r="H153" t="s">
         <v>5</v>
       </c>
-      <c r="I153" t="str">
-        <f t="shared" si="2"/>
-        <v>CC524</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -6480,12 +5866,8 @@
       <c r="H154" t="s">
         <v>33</v>
       </c>
-      <c r="I154" t="str">
-        <f t="shared" si="2"/>
-        <v>CC528</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -6510,12 +5892,8 @@
       <c r="H155" t="s">
         <v>141</v>
       </c>
-      <c r="I155" t="str">
-        <f t="shared" si="2"/>
-        <v>CC540</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -6540,12 +5918,8 @@
       <c r="H156" t="s">
         <v>30</v>
       </c>
-      <c r="I156" t="str">
-        <f t="shared" si="2"/>
-        <v>CC554</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -6570,12 +5944,8 @@
       <c r="H157" t="s">
         <v>51</v>
       </c>
-      <c r="I157" t="str">
-        <f t="shared" si="2"/>
-        <v>CC558</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -6600,12 +5970,8 @@
       <c r="H158" t="s">
         <v>54</v>
       </c>
-      <c r="I158" t="str">
-        <f t="shared" ref="I158:I221" si="3">CONCATENATE("CC",C158)</f>
-        <v>CC562</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -6630,12 +5996,8 @@
       <c r="H159" t="s">
         <v>54</v>
       </c>
-      <c r="I159" t="str">
-        <f t="shared" si="3"/>
-        <v>CC566</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -6660,12 +6022,8 @@
       <c r="H160" t="s">
         <v>91</v>
       </c>
-      <c r="I160" t="str">
-        <f t="shared" si="3"/>
-        <v>CC578</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -6690,12 +6048,8 @@
       <c r="H161" t="s">
         <v>23</v>
       </c>
-      <c r="I161" t="str">
-        <f t="shared" si="3"/>
-        <v>CC275</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -6720,12 +6074,8 @@
       <c r="H162" t="s">
         <v>23</v>
       </c>
-      <c r="I162" t="str">
-        <f t="shared" si="3"/>
-        <v>CC512</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -6750,12 +6100,8 @@
       <c r="H163" t="s">
         <v>5</v>
       </c>
-      <c r="I163" t="str">
-        <f t="shared" si="3"/>
-        <v>CC586</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -6780,12 +6126,8 @@
       <c r="H164" t="s">
         <v>51</v>
       </c>
-      <c r="I164" t="str">
-        <f t="shared" si="3"/>
-        <v>CC591</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -6810,12 +6152,8 @@
       <c r="H165" t="s">
         <v>141</v>
       </c>
-      <c r="I165" t="str">
-        <f t="shared" si="3"/>
-        <v>CC598</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -6840,12 +6178,8 @@
       <c r="H166" t="s">
         <v>20</v>
       </c>
-      <c r="I166" t="str">
-        <f t="shared" si="3"/>
-        <v>CC600</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -6870,12 +6204,8 @@
       <c r="H167" t="s">
         <v>20</v>
       </c>
-      <c r="I167" t="str">
-        <f t="shared" si="3"/>
-        <v>CC604</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -6900,12 +6230,8 @@
       <c r="H168" t="s">
         <v>68</v>
       </c>
-      <c r="I168" t="str">
-        <f t="shared" si="3"/>
-        <v>CC608</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -6930,12 +6256,8 @@
       <c r="H169" t="s">
         <v>46</v>
       </c>
-      <c r="I169" t="str">
-        <f t="shared" si="3"/>
-        <v>CC616</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -6960,12 +6282,8 @@
       <c r="H170" t="s">
         <v>9</v>
       </c>
-      <c r="I170" t="str">
-        <f t="shared" si="3"/>
-        <v>CC620</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -6990,12 +6308,8 @@
       <c r="H171" t="s">
         <v>26</v>
       </c>
-      <c r="I171" t="str">
-        <f t="shared" si="3"/>
-        <v>CC630</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -7020,12 +6334,8 @@
       <c r="H172" t="s">
         <v>23</v>
       </c>
-      <c r="I172" t="str">
-        <f t="shared" si="3"/>
-        <v>CC634</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -7050,12 +6360,8 @@
       <c r="H173" t="s">
         <v>96</v>
       </c>
-      <c r="I173" t="str">
-        <f t="shared" si="3"/>
-        <v>CC410</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -7080,12 +6386,8 @@
       <c r="H174" t="s">
         <v>46</v>
       </c>
-      <c r="I174" t="str">
-        <f t="shared" si="3"/>
-        <v>CC498</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -7110,12 +6412,8 @@
       <c r="H175" t="s">
         <v>75</v>
       </c>
-      <c r="I175" t="str">
-        <f t="shared" si="3"/>
-        <v>CC638</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -7140,12 +6438,8 @@
       <c r="H176" t="s">
         <v>46</v>
       </c>
-      <c r="I176" t="str">
-        <f t="shared" si="3"/>
-        <v>CC642</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -7170,12 +6464,8 @@
       <c r="H177" t="s">
         <v>46</v>
       </c>
-      <c r="I177" t="str">
-        <f t="shared" si="3"/>
-        <v>CC643</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -7200,12 +6490,8 @@
       <c r="H178" t="s">
         <v>75</v>
       </c>
-      <c r="I178" t="str">
-        <f t="shared" si="3"/>
-        <v>CC646</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -7230,12 +6516,8 @@
       <c r="H179" t="s">
         <v>26</v>
       </c>
-      <c r="I179" t="str">
-        <f t="shared" si="3"/>
-        <v>CC662</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -7260,12 +6542,8 @@
       <c r="H180" t="s">
         <v>26</v>
       </c>
-      <c r="I180" t="str">
-        <f t="shared" si="3"/>
-        <v>CC670</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -7290,12 +6568,8 @@
       <c r="H181" t="s">
         <v>150</v>
       </c>
-      <c r="I181" t="str">
-        <f t="shared" si="3"/>
-        <v>CC882</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -7320,12 +6594,8 @@
       <c r="H182" t="s">
         <v>16</v>
       </c>
-      <c r="I182" t="str">
-        <f t="shared" si="3"/>
-        <v>CC678</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -7350,12 +6620,8 @@
       <c r="H183" t="s">
         <v>23</v>
       </c>
-      <c r="I183" t="str">
-        <f t="shared" si="3"/>
-        <v>CC682</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -7380,12 +6646,8 @@
       <c r="H184" t="s">
         <v>54</v>
       </c>
-      <c r="I184" t="str">
-        <f t="shared" si="3"/>
-        <v>CC686</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -7410,12 +6672,8 @@
       <c r="H185" t="s">
         <v>9</v>
       </c>
-      <c r="I185" t="str">
-        <f t="shared" si="3"/>
-        <v>CC688</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -7440,12 +6698,8 @@
       <c r="H186" t="s">
         <v>75</v>
       </c>
-      <c r="I186" t="str">
-        <f t="shared" si="3"/>
-        <v>CC690</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -7470,12 +6724,8 @@
       <c r="H187" t="s">
         <v>54</v>
       </c>
-      <c r="I187" t="str">
-        <f t="shared" si="3"/>
-        <v>CC694</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -7500,12 +6750,8 @@
       <c r="H188" t="s">
         <v>68</v>
       </c>
-      <c r="I188" t="str">
-        <f t="shared" si="3"/>
-        <v>CC702</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -7530,12 +6776,8 @@
       <c r="H189" t="s">
         <v>46</v>
       </c>
-      <c r="I189" t="str">
-        <f t="shared" si="3"/>
-        <v>CC703</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -7560,12 +6802,8 @@
       <c r="H190" t="s">
         <v>9</v>
       </c>
-      <c r="I190" t="str">
-        <f t="shared" si="3"/>
-        <v>CC705</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -7590,12 +6828,8 @@
       <c r="H191" t="s">
         <v>141</v>
       </c>
-      <c r="I191" t="str">
-        <f t="shared" si="3"/>
-        <v>CC90</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -7620,12 +6854,8 @@
       <c r="H192" t="s">
         <v>75</v>
       </c>
-      <c r="I192" t="str">
-        <f t="shared" si="3"/>
-        <v>CC706</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -7650,12 +6880,8 @@
       <c r="H193" t="s">
         <v>63</v>
       </c>
-      <c r="I193" t="str">
-        <f t="shared" si="3"/>
-        <v>CC710</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -7680,12 +6906,8 @@
       <c r="H194" t="s">
         <v>75</v>
       </c>
-      <c r="I194" t="str">
-        <f t="shared" si="3"/>
-        <v>CC728</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -7710,12 +6932,8 @@
       <c r="H195" t="s">
         <v>9</v>
       </c>
-      <c r="I195" t="str">
-        <f t="shared" si="3"/>
-        <v>CC724</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -7740,12 +6958,8 @@
       <c r="H196" t="s">
         <v>5</v>
       </c>
-      <c r="I196" t="str">
-        <f t="shared" si="3"/>
-        <v>CC144</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -7770,12 +6984,8 @@
       <c r="H197" t="s">
         <v>13</v>
       </c>
-      <c r="I197" t="str">
-        <f t="shared" si="3"/>
-        <v>CC729</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -7800,12 +7010,8 @@
       <c r="H198" t="s">
         <v>20</v>
       </c>
-      <c r="I198" t="str">
-        <f t="shared" si="3"/>
-        <v>CC740</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -7830,12 +7036,8 @@
       <c r="H199" t="s">
         <v>63</v>
       </c>
-      <c r="I199" t="str">
-        <f t="shared" si="3"/>
-        <v>CC748</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -7860,12 +7062,8 @@
       <c r="H200" t="s">
         <v>91</v>
       </c>
-      <c r="I200" t="str">
-        <f t="shared" si="3"/>
-        <v>CC752</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -7890,12 +7088,8 @@
       <c r="H201" t="s">
         <v>33</v>
       </c>
-      <c r="I201" t="str">
-        <f t="shared" si="3"/>
-        <v>CC756</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -7920,12 +7114,8 @@
       <c r="H202" t="s">
         <v>23</v>
       </c>
-      <c r="I202" t="str">
-        <f t="shared" si="3"/>
-        <v>CC760</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -7950,12 +7140,8 @@
       <c r="H203" t="s">
         <v>96</v>
       </c>
-      <c r="I203" t="str">
-        <f t="shared" si="3"/>
-        <v>CC158</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7980,12 +7166,8 @@
       <c r="H204" t="s">
         <v>5</v>
       </c>
-      <c r="I204" t="str">
-        <f t="shared" si="3"/>
-        <v>CC762</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -8010,12 +7192,8 @@
       <c r="H205" t="s">
         <v>68</v>
       </c>
-      <c r="I205" t="str">
-        <f t="shared" si="3"/>
-        <v>CC764</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -8040,12 +7218,8 @@
       <c r="H206" t="s">
         <v>9</v>
       </c>
-      <c r="I206" t="str">
-        <f t="shared" si="3"/>
-        <v>CC807</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -8070,12 +7244,8 @@
       <c r="H207" t="s">
         <v>68</v>
       </c>
-      <c r="I207" t="str">
-        <f t="shared" si="3"/>
-        <v>CC626</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -8100,12 +7270,8 @@
       <c r="H208" t="s">
         <v>54</v>
       </c>
-      <c r="I208" t="str">
-        <f t="shared" si="3"/>
-        <v>CC768</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -8130,12 +7296,8 @@
       <c r="H209" t="s">
         <v>150</v>
       </c>
-      <c r="I209" t="str">
-        <f t="shared" si="3"/>
-        <v>CC776</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -8160,12 +7322,8 @@
       <c r="H210" t="s">
         <v>26</v>
       </c>
-      <c r="I210" t="str">
-        <f t="shared" si="3"/>
-        <v>CC780</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -8190,12 +7348,8 @@
       <c r="H211" t="s">
         <v>13</v>
       </c>
-      <c r="I211" t="str">
-        <f t="shared" si="3"/>
-        <v>CC788</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -8220,12 +7374,8 @@
       <c r="H212" t="s">
         <v>23</v>
       </c>
-      <c r="I212" t="str">
-        <f t="shared" si="3"/>
-        <v>CC792</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -8250,12 +7400,8 @@
       <c r="H213" t="s">
         <v>5</v>
       </c>
-      <c r="I213" t="str">
-        <f t="shared" si="3"/>
-        <v>CC795</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -8280,12 +7426,8 @@
       <c r="H214" t="s">
         <v>75</v>
       </c>
-      <c r="I214" t="str">
-        <f t="shared" si="3"/>
-        <v>CC800</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -8310,12 +7452,8 @@
       <c r="H215" t="s">
         <v>46</v>
       </c>
-      <c r="I215" t="str">
-        <f t="shared" si="3"/>
-        <v>CC804</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -8340,12 +7478,8 @@
       <c r="H216" t="s">
         <v>23</v>
       </c>
-      <c r="I216" t="str">
-        <f t="shared" si="3"/>
-        <v>CC784</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -8370,12 +7504,8 @@
       <c r="H217" t="s">
         <v>91</v>
       </c>
-      <c r="I217" t="str">
-        <f t="shared" si="3"/>
-        <v>CC826</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -8400,12 +7530,8 @@
       <c r="H218" t="s">
         <v>75</v>
       </c>
-      <c r="I218" t="str">
-        <f t="shared" si="3"/>
-        <v>CC834</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -8430,12 +7556,8 @@
       <c r="H219" t="s">
         <v>82</v>
       </c>
-      <c r="I219" t="str">
-        <f t="shared" si="3"/>
-        <v>CC840</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -8460,12 +7582,8 @@
       <c r="H220" t="s">
         <v>26</v>
       </c>
-      <c r="I220" t="str">
-        <f t="shared" si="3"/>
-        <v>CC850</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -8490,12 +7608,8 @@
       <c r="H221" t="s">
         <v>20</v>
       </c>
-      <c r="I221" t="str">
-        <f t="shared" si="3"/>
-        <v>CC858</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -8520,12 +7634,8 @@
       <c r="H222" t="s">
         <v>5</v>
       </c>
-      <c r="I222" t="str">
-        <f t="shared" ref="I222:I229" si="4">CONCATENATE("CC",C222)</f>
-        <v>CC860</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -8550,12 +7660,8 @@
       <c r="H223" t="s">
         <v>141</v>
       </c>
-      <c r="I223" t="str">
-        <f t="shared" si="4"/>
-        <v>CC548</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -8580,12 +7686,8 @@
       <c r="H224" t="s">
         <v>20</v>
       </c>
-      <c r="I224" t="str">
-        <f t="shared" si="4"/>
-        <v>CC862</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -8610,12 +7712,8 @@
       <c r="H225" t="s">
         <v>68</v>
       </c>
-      <c r="I225" t="str">
-        <f t="shared" si="4"/>
-        <v>CC704</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -8640,12 +7738,8 @@
       <c r="H226" t="s">
         <v>13</v>
       </c>
-      <c r="I226" t="str">
-        <f t="shared" si="4"/>
-        <v>CC732</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -8670,12 +7764,8 @@
       <c r="H227" t="s">
         <v>23</v>
       </c>
-      <c r="I227" t="str">
-        <f t="shared" si="4"/>
-        <v>CC887</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -8700,12 +7790,8 @@
       <c r="H228" t="s">
         <v>75</v>
       </c>
-      <c r="I228" t="str">
-        <f t="shared" si="4"/>
-        <v>CC894</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -8729,10 +7815,6 @@
       </c>
       <c r="H229" t="s">
         <v>75</v>
-      </c>
-      <c r="I229" t="str">
-        <f t="shared" si="4"/>
-        <v>CC716</v>
       </c>
     </row>
   </sheetData>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\User\creiter\Data Explorer 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="442">
   <si>
     <t>continent</t>
   </si>
@@ -1339,6 +1339,12 @@
   </si>
   <si>
     <t>edu8</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>Southern Asia</t>
   </si>
 </sst>
 </file>
@@ -2176,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,13 +2420,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>440</v>
       </c>
       <c r="C16">
-        <v>920</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2428,13 +2431,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>441</v>
       </c>
       <c r="C17">
-        <v>922</v>
-      </c>
-      <c r="D17">
-        <v>145</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D18">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D19">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2484,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C21">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D21">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,13 +2498,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2512,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,13 +2540,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>954</v>
+        <v>927</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,65 +2582,41 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C28">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="D28">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
+        <v>954</v>
+      </c>
+      <c r="D29">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>9</v>
+        <v>957</v>
+      </c>
+      <c r="D30">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2648,13 +2624,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2663,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2674,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2689,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2700,25 +2676,25 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,25 +2702,25 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,25 +2728,25 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>429</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,25 +2754,25 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>533</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,25 +2780,25 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2830,25 +2806,25 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>533</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2856,25 +2832,25 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
         <v>36</v>
       </c>
-      <c r="C39">
-        <v>31</v>
-      </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,25 +2858,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,19 +2884,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -2934,13 +2910,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2949,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2960,25 +2936,25 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2986,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3001,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,25 +2988,25 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,25 +3014,25 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,25 +3040,25 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,25 +3066,25 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3116,25 +3092,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,25 +3118,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,13 +3144,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -3183,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,13 +3170,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -3209,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3220,25 +3196,25 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C53">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,13 +3222,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -3261,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,25 +3248,25 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C55">
-        <v>854</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3298,25 +3274,25 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C56">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3324,13 +3300,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C57">
-        <v>116</v>
+        <v>854</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3339,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3350,13 +3326,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C58">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3368,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,25 +3352,25 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,15 +3378,15 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60">
@@ -3420,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3428,25 +3404,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C61">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3454,15 +3430,15 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C62">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="1">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62">
@@ -3472,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3480,25 +3456,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C63">
-        <v>830</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3506,13 +3482,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C64">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3521,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,25 +3508,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C65">
-        <v>156</v>
+        <v>830</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,19 +3534,19 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C66">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -3584,25 +3560,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C67">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3610,25 +3586,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C68">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,13 +3612,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C69">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3651,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,13 +3638,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C70">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3680,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,25 +3664,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C71">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3714,13 +3690,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3729,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,25 +3716,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>430</v>
+        <v>109</v>
       </c>
       <c r="C73">
-        <v>531</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,13 +3742,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3781,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,25 +3768,25 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>430</v>
       </c>
       <c r="C75">
-        <v>203</v>
+        <v>531</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="2">
+        <v>434</v>
+      </c>
+      <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,13 +3794,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C76">
-        <v>408</v>
+        <v>196</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3836,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,25 +3820,25 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C77">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="1">
+        <v>116</v>
+      </c>
+      <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,25 +3846,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C78">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,16 +3872,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C79">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3914,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,25 +3898,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C80">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3948,25 +3924,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C81">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,25 +3950,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C82">
-        <v>818</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,13 +3976,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C83">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -4018,7 +3994,7 @@
         <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4026,25 +4002,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C84">
-        <v>226</v>
+        <v>818</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,25 +4028,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C85">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4078,25 +4054,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C86">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,16 +4080,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C87">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4130,25 +4106,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,25 +4132,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C89">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,25 +4158,25 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C90">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4208,25 +4184,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C91">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,25 +4210,25 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C92">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4260,13 +4236,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C93">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4275,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4286,13 +4262,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C94">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -4301,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,25 +4288,25 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C95">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4338,25 +4314,25 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C96">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,25 +4340,25 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C97">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4390,13 +4366,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C98">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -4408,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4416,25 +4392,25 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C99">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4442,25 +4418,25 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C100">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4468,13 +4444,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C101">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4483,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,13 +4470,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C102">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -4512,7 +4488,7 @@
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4520,25 +4496,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C103">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H103" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4546,13 +4522,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C104">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4561,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,13 +4548,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C105">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -4587,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4598,13 +4574,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C106">
-        <v>332</v>
+        <v>624</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -4613,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,13 +4600,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C107">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4642,7 +4618,7 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4650,25 +4626,25 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C108">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
-      </c>
-      <c r="E108" s="2">
+        <v>181</v>
+      </c>
+      <c r="E108" s="1">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4676,25 +4652,25 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C109">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4702,25 +4678,25 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C110">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
-      </c>
-      <c r="E110" s="1">
+        <v>185</v>
+      </c>
+      <c r="E110" s="2">
         <v>1</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4728,25 +4704,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C111">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4754,13 +4730,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -4769,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4780,13 +4756,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C113">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -4806,25 +4782,25 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C114">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4832,25 +4808,25 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C115">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,13 +4834,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C116">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -4884,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -4902,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4910,13 +4886,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C118">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -4925,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4936,25 +4912,25 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C119">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,25 +4938,25 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C120">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4988,13 +4964,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C121">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -5006,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5014,13 +4990,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C122">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D122" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -5029,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5040,13 +5016,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>210</v>
       </c>
       <c r="C123">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="D123" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -5055,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,25 +5042,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C124">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D124" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,13 +5068,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="C125">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>433</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -5107,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H125" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,13 +5094,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C126">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -5136,7 +5112,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5144,25 +5120,25 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C127">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5170,13 +5146,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C128">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -5188,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5196,25 +5172,25 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C129">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5222,13 +5198,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C130">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D130" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -5237,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5248,16 +5224,16 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C131">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5266,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5274,25 +5250,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C132">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5300,25 +5276,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C133">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D133" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5326,25 +5302,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C134">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H134" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5352,25 +5328,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C135">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H135" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,13 +5354,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C136">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D136" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -5393,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5404,13 +5380,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C137">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D137" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -5419,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5430,13 +5406,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C138">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -5445,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5456,13 +5432,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C139">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5471,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5482,13 +5458,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C140">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -5497,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5508,13 +5484,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C141">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D141" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5523,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5534,25 +5510,25 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C142">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H142" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5560,13 +5536,13 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C143">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D143" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -5575,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5586,13 +5562,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C144">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -5604,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5612,25 +5588,25 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C145">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5638,25 +5614,25 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C146">
-        <v>583</v>
+        <v>175</v>
       </c>
       <c r="D146" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5664,25 +5640,25 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C147">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D147" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5690,25 +5666,25 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C148">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D148" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5716,13 +5692,13 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C149">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D149" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -5731,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5742,25 +5718,25 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C150">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H150" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5768,13 +5744,13 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C151">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="D151" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -5783,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5794,13 +5770,13 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C152">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D152" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -5812,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5820,13 +5796,13 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C153">
-        <v>524</v>
+        <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5838,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5846,25 +5822,25 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C154">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,13 +5848,13 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C155">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -5887,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5898,13 +5874,13 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C156">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="D156" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5913,10 +5889,10 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5924,13 +5900,13 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C157">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D157" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -5939,10 +5915,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H157" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5950,25 +5926,25 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C158">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D158" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H158" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5976,13 +5952,13 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C159">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D159" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -5991,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6002,25 +5978,25 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C160">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D160" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6028,25 +6004,25 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C161">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="D161" t="s">
-        <v>289</v>
-      </c>
-      <c r="E161" s="2">
+        <v>285</v>
+      </c>
+      <c r="E161" s="1">
         <v>1</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6054,25 +6030,25 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C162">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="D162" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6080,15 +6056,15 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C163">
-        <v>586</v>
+        <v>275</v>
       </c>
       <c r="D163" t="s">
-        <v>293</v>
-      </c>
-      <c r="E163" s="1">
+        <v>289</v>
+      </c>
+      <c r="E163" s="2">
         <v>1</v>
       </c>
       <c r="F163">
@@ -6098,7 +6074,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6106,25 +6082,25 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C164">
-        <v>591</v>
+        <v>512</v>
       </c>
       <c r="D164" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6132,25 +6108,25 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C165">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D165" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6158,25 +6134,25 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C166">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D166" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6184,25 +6160,25 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C167">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D167" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6210,13 +6186,13 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C168">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D168" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -6225,10 +6201,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6236,25 +6212,25 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C169">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6262,25 +6238,25 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C170">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="D170" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H170" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6288,13 +6264,13 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C171">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="D171" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6303,10 +6279,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6314,25 +6290,25 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C172">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D172" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6340,13 +6316,13 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C173">
-        <v>410</v>
+        <v>630</v>
       </c>
       <c r="D173" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -6355,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6366,13 +6342,13 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C174">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="D174" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -6381,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H174" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6392,25 +6368,25 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C175">
-        <v>638</v>
+        <v>410</v>
       </c>
       <c r="D175" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6418,19 +6394,19 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C176">
-        <v>642</v>
+        <v>498</v>
       </c>
       <c r="D176" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="s">
         <v>8</v>
@@ -6444,25 +6420,25 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C177">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D177" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6470,25 +6446,25 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C178">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D178" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H178" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6496,13 +6472,13 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C179">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D179" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -6511,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H179" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,13 +6498,13 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C180">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="D180" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -6537,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6548,25 +6524,25 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C181">
-        <v>882</v>
+        <v>662</v>
       </c>
       <c r="D181" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6574,13 +6550,13 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C182">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D182" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6589,10 +6565,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6600,25 +6576,25 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C183">
-        <v>682</v>
+        <v>882</v>
       </c>
       <c r="D183" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6626,13 +6602,13 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C184">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D184" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6644,7 +6620,7 @@
         <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6652,25 +6628,25 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C185">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D185" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6678,16 +6654,16 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="C186">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D186" t="s">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="E186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6696,7 +6672,7 @@
         <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6704,13 +6680,13 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C187">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D187" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -6719,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H187" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6730,25 +6706,25 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="C188">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D188" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="E188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6756,25 +6732,25 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C189">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D189" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H189" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6782,25 +6758,25 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C190">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D190" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6808,25 +6784,25 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C191">
-        <v>90</v>
+        <v>703</v>
       </c>
       <c r="D191" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H191" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6834,25 +6810,25 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C192">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D192" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H192" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6860,25 +6836,25 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C193">
-        <v>710</v>
+        <v>90</v>
       </c>
       <c r="D193" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H193" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6886,13 +6862,13 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>426</v>
+        <v>348</v>
       </c>
       <c r="C194">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="D194" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -6912,13 +6888,13 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C195">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D195" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -6927,10 +6903,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6938,13 +6914,13 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="C196">
-        <v>144</v>
+        <v>728</v>
       </c>
       <c r="D196" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -6953,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H196" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6964,25 +6940,25 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C197">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D197" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6990,13 +6966,13 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C198">
-        <v>740</v>
+        <v>144</v>
       </c>
       <c r="D198" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -7005,10 +6981,10 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7016,13 +6992,13 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C199">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D199" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -7034,7 +7010,7 @@
         <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7042,25 +7018,25 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C200">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D200" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H200" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7068,25 +7044,25 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C201">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D201" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7094,13 +7070,13 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C202">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -7109,10 +7085,10 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H202" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7120,13 +7096,13 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="C203">
-        <v>158</v>
+        <v>756</v>
       </c>
       <c r="D203" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -7135,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H203" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7146,25 +7122,25 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C204">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D204" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,25 +7148,25 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="C205">
-        <v>764</v>
+        <v>158</v>
       </c>
       <c r="D205" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7198,13 +7174,13 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="C206">
-        <v>807</v>
+        <v>762</v>
       </c>
       <c r="D206" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -7213,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7224,13 +7200,13 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C207">
-        <v>626</v>
+        <v>764</v>
       </c>
       <c r="D207" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -7250,13 +7226,13 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="C208">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="D208" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -7265,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H208" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7276,13 +7252,13 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C209">
-        <v>776</v>
+        <v>626</v>
       </c>
       <c r="D209" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -7291,10 +7267,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H209" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7302,13 +7278,13 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C210">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D210" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -7317,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7328,13 +7304,13 @@
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C211">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="D211" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -7343,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H211" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7354,13 +7330,13 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C212">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="D212" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -7369,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H212" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7380,13 +7356,13 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C213">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D213" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -7395,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7406,13 +7382,13 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C214">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D214" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -7421,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7432,13 +7408,13 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C215">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D215" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -7447,10 +7423,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H215" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7458,13 +7434,13 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C216">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D216" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -7473,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7484,25 +7460,25 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C217">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="D217" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="s">
         <v>8</v>
       </c>
       <c r="H217" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7510,13 +7486,13 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C218">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="D218" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
@@ -7525,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7536,13 +7512,13 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C219">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D219" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
@@ -7551,10 +7527,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="H219" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7562,25 +7538,25 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C220">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D220" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H220" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7588,13 +7564,13 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C221">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="D221" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -7603,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7614,13 +7590,13 @@
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C222">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D222" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E222" s="1">
         <v>0</v>
@@ -7629,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H222" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7640,25 +7616,25 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C223">
-        <v>548</v>
+        <v>858</v>
       </c>
       <c r="D223" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7666,25 +7642,25 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C224">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D224" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7692,13 +7668,13 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C225">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="D225" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -7707,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H225" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7718,25 +7694,25 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C226">
-        <v>732</v>
+        <v>862</v>
       </c>
       <c r="D226" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="E226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H226" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7744,13 +7720,13 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C227">
-        <v>887</v>
+        <v>704</v>
       </c>
       <c r="D227" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E227" s="1">
         <v>1</v>
@@ -7762,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="H227" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7770,16 +7746,16 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C228">
-        <v>894</v>
+        <v>732</v>
       </c>
       <c r="D228" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="E228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -7788,7 +7764,7 @@
         <v>12</v>
       </c>
       <c r="H228" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7796,24 +7772,76 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
+        <v>411</v>
+      </c>
+      <c r="C229">
+        <v>887</v>
+      </c>
+      <c r="D229" t="s">
+        <v>412</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>413</v>
+      </c>
+      <c r="C230">
+        <v>894</v>
+      </c>
+      <c r="D230" t="s">
+        <v>414</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
         <v>415</v>
       </c>
-      <c r="C229">
+      <c r="C231">
         <v>716</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D231" t="s">
         <v>416</v>
       </c>
-      <c r="E229" s="1">
-        <v>1</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
         <v>12</v>
       </c>
-      <c r="H229" t="s">
+      <c r="H231" t="s">
         <v>75</v>
       </c>
     </row>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\User\creiter\Data Explorer 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="440">
   <si>
     <t>continent</t>
   </si>
@@ -1339,12 +1339,6 @@
   </si>
   <si>
     <t>edu8</t>
-  </si>
-  <si>
-    <t>Central Asia</t>
-  </si>
-  <si>
-    <t>Southern Asia</t>
   </si>
 </sst>
 </file>
@@ -2182,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,10 +2414,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>68</v>
       </c>
       <c r="C16">
-        <v>5500</v>
+        <v>920</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2431,10 +2428,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>5501</v>
+        <v>922</v>
+      </c>
+      <c r="D17">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C19">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D19">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D20">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2484,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D21">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,13 +2498,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2512,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="D23">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,13 +2540,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C26">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="C27">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,41 +2582,65 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C28">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>954</v>
-      </c>
-      <c r="D29">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>957</v>
-      </c>
-      <c r="D30">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,13 +2648,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2639,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2650,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2665,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2676,25 +2700,25 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>429</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>436</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,25 +2726,25 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2728,25 +2752,25 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2754,25 +2778,25 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>533</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2780,25 +2804,25 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2806,25 +2830,25 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>533</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,25 +2856,25 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
         <v>31</v>
       </c>
-      <c r="C39">
-        <v>36</v>
-      </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,25 +2882,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2884,19 +2908,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -2910,13 +2934,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2925,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2936,25 +2960,25 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2962,13 +2986,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2977,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2988,25 +3012,25 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C45">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3014,25 +3038,25 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C46">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3040,25 +3064,25 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C47">
+        <v>204</v>
+      </c>
+      <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s">
-        <v>50</v>
-      </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3066,25 +3090,25 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3092,25 +3116,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C49">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3118,25 +3142,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3144,13 +3168,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -3159,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3170,13 +3194,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C52">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -3185,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,25 +3220,25 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C53">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,13 +3246,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -3237,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3248,25 +3272,25 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55">
-        <v>96</v>
+        <v>854</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3274,25 +3298,25 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3300,13 +3324,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C57">
-        <v>854</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3315,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3326,13 +3350,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C58">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3344,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3352,25 +3376,25 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C59">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3378,15 +3402,15 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C60">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="1">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60">
@@ -3396,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3404,25 +3428,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C61">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,15 +3454,15 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C62">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2">
+        <v>90</v>
+      </c>
+      <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62">
@@ -3448,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3456,25 +3480,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C63">
-        <v>140</v>
+        <v>830</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3482,13 +3506,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C64">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3497,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3508,25 +3532,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C65">
-        <v>830</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3534,19 +3558,19 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C66">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -3560,25 +3584,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C67">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3586,25 +3610,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C68">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3612,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C69">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3627,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3638,13 +3662,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C70">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3656,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3664,25 +3688,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C71">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3690,13 +3714,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C72">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3705,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3716,25 +3740,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>430</v>
       </c>
       <c r="C73">
-        <v>191</v>
+        <v>531</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>434</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3742,13 +3766,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C74">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3757,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3768,25 +3792,25 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>430</v>
+        <v>115</v>
       </c>
       <c r="C75">
-        <v>531</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>434</v>
-      </c>
-      <c r="E75" s="1">
+        <v>116</v>
+      </c>
+      <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3794,13 +3818,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C76">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3812,7 +3836,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3820,25 +3844,25 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C77">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
-      </c>
-      <c r="E77" s="2">
+        <v>120</v>
+      </c>
+      <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3846,25 +3870,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C78">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3872,16 +3896,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C79">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3890,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3898,25 +3922,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C80">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3924,25 +3948,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C81">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3950,25 +3974,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C82">
-        <v>214</v>
+        <v>818</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3976,13 +4000,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C83">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -3994,7 +4018,7 @@
         <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4002,25 +4026,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C84">
-        <v>818</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4028,25 +4052,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C85">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4054,25 +4078,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C86">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4080,16 +4104,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C87">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4106,25 +4130,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C88">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,25 +4156,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C89">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4158,25 +4182,25 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C90">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4184,25 +4208,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C91">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4210,25 +4234,25 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C92">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4236,13 +4260,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C93">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4251,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4262,13 +4286,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C94">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -4277,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4288,25 +4312,25 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C95">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4314,25 +4338,25 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C96">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,25 +4364,25 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C97">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4366,13 +4390,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C98">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -4384,7 +4408,7 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4392,25 +4416,25 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C99">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4418,25 +4442,25 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C100">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4444,13 +4468,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C101">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4459,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4470,13 +4494,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C102">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -4488,7 +4512,7 @@
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4496,25 +4520,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C103">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,13 +4546,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C104">
-        <v>320</v>
+        <v>624</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4537,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4548,13 +4572,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C105">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -4563,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4574,13 +4598,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C106">
-        <v>624</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -4589,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,13 +4624,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C107">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4618,7 +4642,7 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4626,25 +4650,25 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C108">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>181</v>
-      </c>
-      <c r="E108" s="1">
+        <v>185</v>
+      </c>
+      <c r="E108" s="2">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4652,25 +4676,25 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C109">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4678,25 +4702,25 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C110">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
-      </c>
-      <c r="E110" s="2">
+        <v>189</v>
+      </c>
+      <c r="E110" s="1">
         <v>1</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4704,25 +4728,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C111">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4730,13 +4754,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C112">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -4745,10 +4769,10 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4756,13 +4780,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C113">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D113" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -4782,25 +4806,25 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C114">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4808,25 +4832,25 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C115">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4834,13 +4858,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C116">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -4860,13 +4884,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C117">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -4878,7 +4902,7 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4886,13 +4910,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C118">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -4901,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4912,25 +4936,25 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C119">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4938,25 +4962,25 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C120">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4964,13 +4988,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C121">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -4982,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4990,13 +5014,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C122">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -5005,10 +5029,10 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5016,13 +5040,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>210</v>
+        <v>425</v>
       </c>
       <c r="C123">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>433</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -5031,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H123" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5042,25 +5066,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C124">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D124" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5068,13 +5092,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>216</v>
       </c>
       <c r="C125">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="D125" t="s">
-        <v>433</v>
+        <v>217</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -5083,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5094,13 +5118,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C126">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -5112,7 +5136,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5120,25 +5144,25 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C127">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D127" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H127" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,13 +5170,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C128">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D128" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -5164,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,25 +5196,25 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C129">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5198,13 +5222,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C130">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -5213,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5224,16 +5248,16 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C131">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5242,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,25 +5274,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C132">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D132" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H132" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5276,25 +5300,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C133">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D133" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5302,25 +5326,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C134">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D134" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5328,25 +5352,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C135">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5354,13 +5378,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C136">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -5369,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5380,13 +5404,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C137">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -5395,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5406,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C138">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -5421,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5432,13 +5456,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C139">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5447,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5458,13 +5482,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C140">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D140" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -5473,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5484,13 +5508,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C141">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5499,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5510,25 +5534,25 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C142">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D142" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,13 +5560,13 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C143">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -5551,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5562,13 +5586,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C144">
-        <v>478</v>
+        <v>175</v>
       </c>
       <c r="D144" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -5580,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5588,25 +5612,25 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C145">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5614,25 +5638,25 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C146">
-        <v>175</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H146" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5640,25 +5664,25 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C147">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D147" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H147" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5666,25 +5690,25 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C148">
-        <v>583</v>
+        <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5692,13 +5716,13 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C149">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D149" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -5707,10 +5731,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5718,25 +5742,25 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C150">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D150" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5744,13 +5768,13 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C151">
-        <v>504</v>
+        <v>104</v>
       </c>
       <c r="D151" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -5759,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5770,13 +5794,13 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C152">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D152" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -5788,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,13 +5820,13 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C153">
-        <v>104</v>
+        <v>524</v>
       </c>
       <c r="D153" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5814,7 +5838,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,25 +5846,25 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D154" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H154" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5848,13 +5872,13 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C155">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -5863,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H155" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5874,13 +5898,13 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5889,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H156" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5900,13 +5924,13 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C157">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -5915,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5926,25 +5950,25 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C158">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D158" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5952,13 +5976,13 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C159">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D159" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -5967,10 +5991,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5978,25 +6002,25 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C160">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="D160" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H160" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6004,25 +6028,25 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C161">
-        <v>566</v>
+        <v>275</v>
       </c>
       <c r="D161" t="s">
-        <v>285</v>
-      </c>
-      <c r="E161" s="1">
+        <v>289</v>
+      </c>
+      <c r="E161" s="2">
         <v>1</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6030,25 +6054,25 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C162">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="D162" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6056,15 +6080,15 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C163">
-        <v>275</v>
+        <v>586</v>
       </c>
       <c r="D163" t="s">
-        <v>289</v>
-      </c>
-      <c r="E163" s="2">
+        <v>293</v>
+      </c>
+      <c r="E163" s="1">
         <v>1</v>
       </c>
       <c r="F163">
@@ -6074,7 +6098,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6082,25 +6106,25 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C164">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="D164" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6108,25 +6132,25 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C165">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D165" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H165" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6134,25 +6158,25 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C166">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="D166" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6160,25 +6184,25 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C167">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D167" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6186,13 +6210,13 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C168">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D168" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -6201,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6212,25 +6236,25 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C169">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D169" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6238,25 +6262,25 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C170">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D170" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H170" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6264,13 +6288,13 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C171">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="D171" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6279,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6290,25 +6314,25 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C172">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="D172" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6316,13 +6340,13 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C173">
-        <v>630</v>
+        <v>410</v>
       </c>
       <c r="D173" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -6331,10 +6355,10 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H173" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6342,13 +6366,13 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C174">
-        <v>634</v>
+        <v>498</v>
       </c>
       <c r="D174" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -6357,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H174" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6368,25 +6392,25 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C175">
-        <v>410</v>
+        <v>638</v>
       </c>
       <c r="D175" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6394,19 +6418,19 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C176">
-        <v>498</v>
+        <v>642</v>
       </c>
       <c r="D176" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="s">
         <v>8</v>
@@ -6420,25 +6444,25 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C177">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D177" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H177" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6446,25 +6470,25 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C178">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D178" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H178" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6472,13 +6496,13 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C179">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="D179" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -6487,10 +6511,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6498,13 +6522,13 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C180">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="D180" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -6513,10 +6537,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6524,25 +6548,25 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C181">
-        <v>662</v>
+        <v>882</v>
       </c>
       <c r="D181" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H181" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6550,13 +6574,13 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C182">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D182" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6565,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6576,25 +6600,25 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C183">
-        <v>882</v>
+        <v>682</v>
       </c>
       <c r="D183" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H183" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6602,13 +6626,13 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C184">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D184" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6620,7 +6644,7 @@
         <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6628,25 +6652,25 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C185">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D185" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H185" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6654,16 +6678,16 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>334</v>
+        <v>427</v>
       </c>
       <c r="C186">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D186" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="E186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6672,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6680,13 +6704,13 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C187">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D187" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -6695,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6706,25 +6730,25 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="C188">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D188" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="E188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6732,25 +6756,25 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C189">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D189" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H189" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6758,25 +6782,25 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C190">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D190" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H190" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6784,25 +6808,25 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C191">
-        <v>703</v>
+        <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H191" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6810,25 +6834,25 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C192">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D192" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6836,25 +6860,25 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C193">
-        <v>90</v>
+        <v>710</v>
       </c>
       <c r="D193" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6862,13 +6886,13 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="C194">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="D194" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -6888,13 +6912,13 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C195">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -6903,10 +6927,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H195" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6914,13 +6938,13 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="C196">
-        <v>728</v>
+        <v>144</v>
       </c>
       <c r="D196" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -6929,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H196" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6940,25 +6964,25 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C197">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D197" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6966,13 +6990,13 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C198">
-        <v>144</v>
+        <v>740</v>
       </c>
       <c r="D198" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -6981,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H198" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6992,13 +7016,13 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C199">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="D199" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -7010,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7018,25 +7042,25 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C200">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D200" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7044,25 +7068,25 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C201">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D201" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H201" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7070,13 +7094,13 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C202">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D202" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -7085,10 +7109,10 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7096,13 +7120,13 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="C203">
-        <v>756</v>
+        <v>158</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -7111,10 +7135,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7122,25 +7146,25 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C204">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D204" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7148,25 +7172,25 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="C205">
-        <v>158</v>
+        <v>764</v>
       </c>
       <c r="D205" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7174,13 +7198,13 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C206">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c r="D206" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -7189,10 +7213,10 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H206" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7200,13 +7224,13 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C207">
-        <v>764</v>
+        <v>626</v>
       </c>
       <c r="D207" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -7226,13 +7250,13 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="C208">
-        <v>807</v>
+        <v>768</v>
       </c>
       <c r="D208" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -7241,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7252,13 +7276,13 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C209">
-        <v>626</v>
+        <v>776</v>
       </c>
       <c r="D209" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -7267,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H209" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7278,13 +7302,13 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C210">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="D210" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -7293,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7304,13 +7328,13 @@
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C211">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -7319,10 +7343,10 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H211" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7330,13 +7354,13 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C212">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="D212" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -7345,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7356,13 +7380,13 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C213">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="D213" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -7371,10 +7395,10 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7382,13 +7406,13 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C214">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D214" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -7397,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H214" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7408,13 +7432,13 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C215">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D215" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -7423,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H215" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7434,13 +7458,13 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C216">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="D216" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -7449,10 +7473,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7460,25 +7484,25 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C217">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="D217" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
         <v>8</v>
       </c>
       <c r="H217" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7486,13 +7510,13 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C218">
-        <v>784</v>
+        <v>834</v>
       </c>
       <c r="D218" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
@@ -7501,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H218" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,13 +7536,13 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C219">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="D219" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
@@ -7527,10 +7551,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H219" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7538,25 +7562,25 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C220">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="D220" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H220" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7564,13 +7588,13 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C221">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="D221" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -7579,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H221" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7590,13 +7614,13 @@
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C222">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D222" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E222" s="1">
         <v>0</v>
@@ -7605,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7616,25 +7640,25 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C223">
-        <v>858</v>
+        <v>548</v>
       </c>
       <c r="D223" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H223" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7642,25 +7666,25 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C224">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D224" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H224" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7668,13 +7692,13 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C225">
-        <v>548</v>
+        <v>704</v>
       </c>
       <c r="D225" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -7683,10 +7707,10 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7694,25 +7718,25 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C226">
-        <v>862</v>
+        <v>732</v>
       </c>
       <c r="D226" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7720,13 +7744,13 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C227">
-        <v>704</v>
+        <v>887</v>
       </c>
       <c r="D227" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E227" s="1">
         <v>1</v>
@@ -7738,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="H227" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7746,16 +7770,16 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C228">
-        <v>732</v>
+        <v>894</v>
       </c>
       <c r="D228" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="E228" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -7764,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7772,13 +7796,13 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C229">
-        <v>887</v>
+        <v>716</v>
       </c>
       <c r="D229" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
@@ -7787,61 +7811,9 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>2</v>
-      </c>
-      <c r="B230" t="s">
-        <v>413</v>
-      </c>
-      <c r="C230">
-        <v>894</v>
-      </c>
-      <c r="D230" t="s">
-        <v>414</v>
-      </c>
-      <c r="E230" s="1">
-        <v>1</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
-      <c r="H230" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>2</v>
-      </c>
-      <c r="B231" t="s">
-        <v>415</v>
-      </c>
-      <c r="C231">
-        <v>716</v>
-      </c>
-      <c r="D231" t="s">
-        <v>416</v>
-      </c>
-      <c r="E231" s="1">
-        <v>1</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
-      <c r="H231" t="s">
         <v>75</v>
       </c>
     </row>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\User\creiter\Data Explorer 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\wcde2\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49568A35-BAA8-45B9-8838-A6C1029765E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="442">
   <si>
     <t>continent</t>
   </si>
@@ -1339,12 +1340,18 @@
   </si>
   <si>
     <t>edu8</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>Southern Asia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1965,6 +1972,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2000,6 +2024,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2175,11 +2216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,6 +2267,12 @@
       <c r="D2" t="s">
         <v>419</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2240,6 +2287,12 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2254,6 +2307,12 @@
       <c r="D4">
         <v>142</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2268,6 +2327,12 @@
       <c r="D5">
         <v>150</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2282,6 +2347,12 @@
       <c r="D6">
         <v>19</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2296,6 +2367,12 @@
       <c r="D7">
         <v>21</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2310,6 +2387,12 @@
       <c r="D8">
         <v>9</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2324,6 +2407,12 @@
       <c r="D9">
         <v>14</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2338,6 +2427,12 @@
       <c r="D10">
         <v>17</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2352,6 +2447,12 @@
       <c r="D11">
         <v>15</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2366,6 +2467,12 @@
       <c r="D12">
         <v>18</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2380,6 +2487,12 @@
       <c r="D13">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2394,6 +2507,12 @@
       <c r="D14">
         <v>30</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2408,19 +2527,28 @@
       <c r="D15">
         <v>142</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>440</v>
       </c>
       <c r="C16">
-        <v>920</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
+        <v>5500</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2428,13 +2556,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>441</v>
       </c>
       <c r="C17">
-        <v>922</v>
-      </c>
-      <c r="D17">
-        <v>145</v>
+        <v>5501</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,13 +2573,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D18">
-        <v>151</v>
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,13 +2593,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D19">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2470,13 +2613,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>151</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2484,13 +2633,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C21">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D21">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,13 +2653,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2512,13 +2673,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>155</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,13 +2693,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,13 +2713,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,13 +2733,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,13 +2753,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>954</v>
+        <v>927</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,65 +2773,59 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C28">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="D28">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
+        <v>954</v>
+      </c>
+      <c r="D29">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
+        <v>957</v>
+      </c>
+      <c r="D30">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2648,13 +2833,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2663,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2674,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2689,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2700,25 +2885,25 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2726,25 +2911,25 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,25 +2937,25 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>429</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>436</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,25 +2963,25 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>533</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,25 +2989,25 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2830,25 +3015,25 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>533</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2856,25 +3041,25 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
         <v>36</v>
       </c>
-      <c r="C39">
-        <v>31</v>
-      </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,25 +3067,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2908,19 +3093,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -2934,13 +3119,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2949,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2960,25 +3145,25 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2986,13 +3171,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3001,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,25 +3197,25 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,25 +3223,25 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,25 +3249,25 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,25 +3275,25 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3116,25 +3301,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,25 +3327,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3168,13 +3353,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -3183,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,13 +3379,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -3209,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3220,25 +3405,25 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C53">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3246,13 +3431,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -3261,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,25 +3457,25 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C55">
-        <v>854</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3298,25 +3483,25 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C56">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3324,13 +3509,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C57">
-        <v>116</v>
+        <v>854</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3339,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3350,13 +3535,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C58">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3368,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3376,25 +3561,25 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C59">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,15 +3587,15 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C60">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60">
@@ -3420,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3428,25 +3613,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C61">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3454,15 +3639,15 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C62">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="1">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62">
@@ -3472,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3480,25 +3665,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C63">
-        <v>830</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3506,13 +3691,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C64">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3521,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3532,25 +3717,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C65">
-        <v>156</v>
+        <v>830</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,19 +3743,19 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C66">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
@@ -3584,25 +3769,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C67">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3610,25 +3795,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C68">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,13 +3821,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C69">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3651,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,13 +3847,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C70">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3680,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,25 +3873,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C71">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3714,13 +3899,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3729,10 +3914,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3740,25 +3925,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>430</v>
+        <v>109</v>
       </c>
       <c r="C73">
-        <v>531</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,13 +3951,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3781,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,25 +3977,25 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>430</v>
       </c>
       <c r="C75">
-        <v>203</v>
+        <v>531</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="2">
+        <v>434</v>
+      </c>
+      <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,13 +4003,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C76">
-        <v>408</v>
+        <v>196</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3836,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,25 +4029,25 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C77">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="1">
+        <v>116</v>
+      </c>
+      <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,25 +4055,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C78">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,16 +4081,16 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C79">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3914,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,25 +4107,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C80">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3948,25 +4133,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C81">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,25 +4159,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C82">
-        <v>818</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,13 +4185,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C83">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -4018,7 +4203,7 @@
         <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4026,25 +4211,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C84">
-        <v>226</v>
+        <v>818</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,25 +4237,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C85">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4078,25 +4263,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C86">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,16 +4289,16 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C87">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -4130,25 +4315,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,25 +4341,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C89">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4182,25 +4367,25 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C90">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4208,25 +4393,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C91">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4234,25 +4419,25 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C92">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4260,13 +4445,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C93">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4275,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4286,13 +4471,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C94">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -4301,10 +4486,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,25 +4497,25 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C95">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4338,25 +4523,25 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C96">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4364,25 +4549,25 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C97">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4390,13 +4575,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C98">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -4408,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4416,25 +4601,25 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C99">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4442,25 +4627,25 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C100">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4468,13 +4653,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C101">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4483,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,13 +4679,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C102">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -4512,7 +4697,7 @@
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4520,25 +4705,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C103">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H103" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4546,13 +4731,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C104">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4561,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,13 +4757,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C105">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -4587,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4598,13 +4783,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C106">
-        <v>332</v>
+        <v>624</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -4613,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,13 +4809,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C107">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4642,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4650,25 +4835,25 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C108">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
-      </c>
-      <c r="E108" s="2">
+        <v>181</v>
+      </c>
+      <c r="E108" s="1">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4676,25 +4861,25 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C109">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4702,25 +4887,25 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C110">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
-      </c>
-      <c r="E110" s="1">
+        <v>185</v>
+      </c>
+      <c r="E110" s="2">
         <v>1</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4728,25 +4913,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C111">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4754,13 +4939,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -4769,10 +4954,10 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4780,13 +4965,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C113">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -4806,25 +4991,25 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C114">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4832,25 +5017,25 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C115">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,13 +5043,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C116">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -4884,13 +5069,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -4902,7 +5087,7 @@
         <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4910,13 +5095,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C118">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -4925,10 +5110,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4936,25 +5121,25 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C119">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H119" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,25 +5147,25 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C120">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4988,13 +5173,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C121">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -5006,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5014,13 +5199,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C122">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D122" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -5029,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5040,13 +5225,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>210</v>
       </c>
       <c r="C123">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="D123" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -5055,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,25 +5251,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C124">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D124" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,13 +5277,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="C125">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>433</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -5107,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H125" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,13 +5303,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C126">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -5136,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5144,25 +5329,25 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C127">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D127" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5170,13 +5355,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C128">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -5188,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5196,25 +5381,25 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C129">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5222,13 +5407,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C130">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D130" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -5237,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5248,16 +5433,16 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C131">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5266,7 +5451,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5274,25 +5459,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C132">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5300,25 +5485,25 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C133">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D133" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5326,25 +5511,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C134">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H134" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5352,25 +5537,25 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C135">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H135" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,13 +5563,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C136">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D136" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -5393,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5404,13 +5589,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C137">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D137" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -5419,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5430,13 +5615,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C138">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D138" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -5445,10 +5630,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5456,13 +5641,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C139">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5471,10 +5656,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5482,13 +5667,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C140">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -5497,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5508,13 +5693,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C141">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D141" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5523,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5534,25 +5719,25 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C142">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D142" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H142" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5560,13 +5745,13 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C143">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D143" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -5575,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5586,13 +5771,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C144">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -5604,7 +5789,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5612,25 +5797,25 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C145">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5638,25 +5823,25 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C146">
-        <v>583</v>
+        <v>175</v>
       </c>
       <c r="D146" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5664,25 +5849,25 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C147">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D147" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5690,25 +5875,25 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C148">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="D148" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5716,13 +5901,13 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C149">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D149" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -5731,10 +5916,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5742,25 +5927,25 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C150">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H150" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5768,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C151">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="D151" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -5783,10 +5968,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5794,13 +5979,13 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C152">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D152" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -5812,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5820,13 +6005,13 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C153">
-        <v>524</v>
+        <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5838,7 +6023,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5846,25 +6031,25 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C154">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D154" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,13 +6057,13 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C155">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -5887,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5898,13 +6083,13 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C156">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="D156" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5913,10 +6098,10 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5924,13 +6109,13 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C157">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D157" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -5939,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H157" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5950,25 +6135,25 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C158">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D158" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H158" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5976,13 +6161,13 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C159">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D159" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -5991,10 +6176,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6002,25 +6187,25 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C160">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D160" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6028,25 +6213,25 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C161">
-        <v>275</v>
+        <v>566</v>
       </c>
       <c r="D161" t="s">
-        <v>289</v>
-      </c>
-      <c r="E161" s="2">
+        <v>285</v>
+      </c>
+      <c r="E161" s="1">
         <v>1</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6054,25 +6239,25 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C162">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="D162" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6080,15 +6265,15 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C163">
-        <v>586</v>
+        <v>275</v>
       </c>
       <c r="D163" t="s">
-        <v>293</v>
-      </c>
-      <c r="E163" s="1">
+        <v>289</v>
+      </c>
+      <c r="E163" s="2">
         <v>1</v>
       </c>
       <c r="F163">
@@ -6098,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6106,25 +6291,25 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C164">
-        <v>591</v>
+        <v>512</v>
       </c>
       <c r="D164" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6132,25 +6317,25 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C165">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D165" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6158,25 +6343,25 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C166">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D166" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6184,25 +6369,25 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C167">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D167" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6210,13 +6395,13 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C168">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D168" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -6225,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6236,25 +6421,25 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C169">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D169" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6262,25 +6447,25 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C170">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="D170" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H170" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6288,13 +6473,13 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C171">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="D171" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6303,10 +6488,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6314,25 +6499,25 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C172">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D172" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6340,13 +6525,13 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C173">
-        <v>410</v>
+        <v>630</v>
       </c>
       <c r="D173" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -6355,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6366,13 +6551,13 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C174">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="D174" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -6381,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H174" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6392,25 +6577,25 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C175">
-        <v>638</v>
+        <v>410</v>
       </c>
       <c r="D175" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H175" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6418,19 +6603,19 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C176">
-        <v>642</v>
+        <v>498</v>
       </c>
       <c r="D176" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="s">
         <v>8</v>
@@ -6444,25 +6629,25 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C177">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D177" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6470,25 +6655,25 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C178">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D178" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H178" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6496,13 +6681,13 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C179">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D179" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -6511,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H179" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,13 +6707,13 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C180">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="D180" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -6537,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6548,25 +6733,25 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C181">
-        <v>882</v>
+        <v>662</v>
       </c>
       <c r="D181" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6574,13 +6759,13 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C182">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D182" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6589,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6600,25 +6785,25 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C183">
-        <v>682</v>
+        <v>882</v>
       </c>
       <c r="D183" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6626,13 +6811,13 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C184">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D184" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6644,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6652,25 +6837,25 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C185">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D185" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6678,16 +6863,16 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="C186">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D186" t="s">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="E186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6696,7 +6881,7 @@
         <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6704,13 +6889,13 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C187">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D187" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -6719,10 +6904,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H187" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6730,25 +6915,25 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="C188">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D188" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="E188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6756,25 +6941,25 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C189">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D189" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H189" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6782,25 +6967,25 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C190">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D190" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6808,25 +6993,25 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C191">
-        <v>90</v>
+        <v>703</v>
       </c>
       <c r="D191" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H191" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6834,25 +7019,25 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C192">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D192" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H192" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6860,25 +7045,25 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C193">
-        <v>710</v>
+        <v>90</v>
       </c>
       <c r="D193" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H193" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6886,13 +7071,13 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>426</v>
+        <v>348</v>
       </c>
       <c r="C194">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="D194" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -6912,13 +7097,13 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C195">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D195" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -6927,10 +7112,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6938,13 +7123,13 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="C196">
-        <v>144</v>
+        <v>728</v>
       </c>
       <c r="D196" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -6953,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H196" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6964,25 +7149,25 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C197">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D197" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6990,13 +7175,13 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C198">
-        <v>740</v>
+        <v>144</v>
       </c>
       <c r="D198" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -7005,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7016,13 +7201,13 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C199">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D199" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -7034,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7042,25 +7227,25 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C200">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D200" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H200" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7068,25 +7253,25 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C201">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D201" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7094,13 +7279,13 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C202">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -7109,10 +7294,10 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H202" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7120,13 +7305,13 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="C203">
-        <v>158</v>
+        <v>756</v>
       </c>
       <c r="D203" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -7135,10 +7320,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H203" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7146,25 +7331,25 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C204">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D204" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,25 +7357,25 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="C205">
-        <v>764</v>
+        <v>158</v>
       </c>
       <c r="D205" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7198,13 +7383,13 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="C206">
-        <v>807</v>
+        <v>762</v>
       </c>
       <c r="D206" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -7213,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7224,13 +7409,13 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C207">
-        <v>626</v>
+        <v>764</v>
       </c>
       <c r="D207" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -7250,13 +7435,13 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="C208">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="D208" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -7265,10 +7450,10 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H208" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7276,13 +7461,13 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C209">
-        <v>776</v>
+        <v>626</v>
       </c>
       <c r="D209" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -7291,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H209" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7302,13 +7487,13 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C210">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D210" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -7317,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7328,13 +7513,13 @@
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C211">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="D211" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -7343,10 +7528,10 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H211" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7354,13 +7539,13 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C212">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="D212" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -7369,10 +7554,10 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H212" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7380,13 +7565,13 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C213">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D213" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -7395,10 +7580,10 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7406,13 +7591,13 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C214">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D214" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -7421,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7432,13 +7617,13 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C215">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D215" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -7447,10 +7632,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H215" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7458,13 +7643,13 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C216">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D216" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -7473,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7484,25 +7669,25 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C217">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="D217" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="s">
         <v>8</v>
       </c>
       <c r="H217" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7510,13 +7695,13 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C218">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="D218" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
@@ -7525,10 +7710,10 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7536,13 +7721,13 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C219">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D219" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
@@ -7551,10 +7736,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="H219" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7562,25 +7747,25 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C220">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D220" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H220" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7588,13 +7773,13 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C221">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="D221" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -7603,10 +7788,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7614,13 +7799,13 @@
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C222">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D222" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E222" s="1">
         <v>0</v>
@@ -7629,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H222" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7640,25 +7825,25 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C223">
-        <v>548</v>
+        <v>858</v>
       </c>
       <c r="D223" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7666,25 +7851,25 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C224">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D224" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7692,13 +7877,13 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C225">
-        <v>704</v>
+        <v>548</v>
       </c>
       <c r="D225" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -7707,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H225" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7718,25 +7903,25 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C226">
-        <v>732</v>
+        <v>862</v>
       </c>
       <c r="D226" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="E226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H226" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7744,13 +7929,13 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C227">
-        <v>887</v>
+        <v>704</v>
       </c>
       <c r="D227" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E227" s="1">
         <v>1</v>
@@ -7762,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="H227" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7770,16 +7955,16 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="C228">
-        <v>894</v>
+        <v>732</v>
       </c>
       <c r="D228" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="E228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -7788,7 +7973,7 @@
         <v>12</v>
       </c>
       <c r="H228" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7796,24 +7981,76 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
+        <v>411</v>
+      </c>
+      <c r="C229">
+        <v>887</v>
+      </c>
+      <c r="D229" t="s">
+        <v>412</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>413</v>
+      </c>
+      <c r="C230">
+        <v>894</v>
+      </c>
+      <c r="D230" t="s">
+        <v>414</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
         <v>415</v>
       </c>
-      <c r="C229">
+      <c r="C231">
         <v>716</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D231" t="s">
         <v>416</v>
       </c>
-      <c r="E229" s="1">
-        <v>1</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
         <v>12</v>
       </c>
-      <c r="H229" t="s">
+      <c r="H231" t="s">
         <v>75</v>
       </c>
     </row>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\wcde2\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49568A35-BAA8-45B9-8838-A6C1029765E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -1351,7 +1350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1972,23 +1971,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2024,23 +2006,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2216,11 +2181,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,12 +2232,6 @@
       <c r="D2" t="s">
         <v>419</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2287,12 +2246,6 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2307,12 +2260,6 @@
       <c r="D4">
         <v>142</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2327,12 +2274,6 @@
       <c r="D5">
         <v>150</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2347,12 +2288,6 @@
       <c r="D6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2367,12 +2302,6 @@
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2387,12 +2316,6 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2407,12 +2330,6 @@
       <c r="D9">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2427,12 +2344,6 @@
       <c r="D10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2447,12 +2358,6 @@
       <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2467,12 +2372,6 @@
       <c r="D12">
         <v>18</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2487,12 +2386,6 @@
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2507,12 +2400,6 @@
       <c r="D14">
         <v>30</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2527,12 +2414,6 @@
       <c r="D15">
         <v>142</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2544,12 +2425,6 @@
       <c r="C16">
         <v>5500</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2561,12 +2436,6 @@
       <c r="C17">
         <v>5501</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2581,12 +2450,6 @@
       <c r="D18">
         <v>35</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2601,12 +2464,6 @@
       <c r="D19">
         <v>145</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2621,12 +2478,6 @@
       <c r="D20">
         <v>151</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2641,12 +2492,6 @@
       <c r="D21">
         <v>154</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2661,12 +2506,6 @@
       <c r="D22">
         <v>39</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2681,12 +2520,6 @@
       <c r="D23">
         <v>155</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2701,12 +2534,6 @@
       <c r="D24">
         <v>29</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2721,12 +2548,6 @@
       <c r="D25">
         <v>13</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2741,12 +2562,6 @@
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2761,12 +2576,6 @@
       <c r="D27">
         <v>53</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2781,12 +2590,6 @@
       <c r="D28">
         <v>54</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2801,12 +2604,6 @@
       <c r="D29">
         <v>57</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2820,12 +2617,6 @@
       </c>
       <c r="D30">
         <v>61</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F4397-DD9A-41BD-BA27-007696817437}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1971,6 +1972,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2006,6 +2024,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2181,12 +2216,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2766,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
@@ -2844,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -2948,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
@@ -3078,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -3156,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3182,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -3208,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -3234,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -3416,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>82</v>
@@ -3572,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
         <v>4</v>
@@ -3598,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -3806,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="s">
         <v>4</v>
@@ -4014,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -4352,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>4</v>
@@ -4690,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
         <v>4</v>
@@ -4742,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4794,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
@@ -5002,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
@@ -5054,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>12</v>
@@ -5522,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
@@ -5652,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>19</v>
@@ -5730,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
@@ -5938,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
         <v>29</v>
@@ -6042,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
         <v>8</v>
@@ -6146,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -6328,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="s">
         <v>19</v>
@@ -6380,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="s">
         <v>4</v>
@@ -6484,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="s">
         <v>8</v>
@@ -6536,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -6640,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
         <v>4</v>
@@ -6900,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="s">
         <v>12</v>
@@ -7108,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -7134,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
@@ -7160,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
@@ -7576,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
         <v>82</v>
@@ -7628,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" t="s">
         <v>19</v>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiareiter/Dropbox/Data Explorer 2.0/meta-to-wcde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F4397-DD9A-41BD-BA27-007696817437}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AEA9C7-6591-FD4D-85FA-0ADC877BC0A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -1840,48 +1840,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1897,7 +1897,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2219,14 +2219,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>421</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>417</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>417</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>417</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2420,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2498,7 +2500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2808,7 +2810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +2914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3744,7 +3746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
         <v>4</v>
@@ -3848,7 +3850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4030,7 +4032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4082,7 +4084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4524,7 +4526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -4602,7 +4604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -4758,7 +4760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -5148,7 +5150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -5200,7 +5202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -5330,7 +5332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -5460,7 +5462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -5512,7 +5514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>8</v>
@@ -5564,7 +5566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -5590,7 +5592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -5642,7 +5644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -5824,7 +5826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -6032,7 +6034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -6058,7 +6060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -6136,7 +6138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -6266,7 +6268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -6396,7 +6398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -6656,7 +6658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -6916,7 +6918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -7072,7 +7074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -7228,7 +7230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -7280,7 +7282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -7332,7 +7334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -7358,7 +7360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -7436,7 +7438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -7462,7 +7464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -7540,7 +7542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -7592,7 +7594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -7670,7 +7672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -7722,7 +7724,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -7800,7 +7802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -7826,7 +7828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -7852,7 +7854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10115"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiareiter/Dropbox/Data Explorer 2.0/meta-to-wcde/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AEA9C7-6591-FD4D-85FA-0ADC877BC0A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -1351,7 +1350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1840,48 +1839,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1897,7 +1896,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1972,23 +1971,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2024,23 +2006,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2216,19 +2181,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>421</v>
       </c>
@@ -2254,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>417</v>
       </c>
@@ -2268,7 +2233,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>417</v>
       </c>
@@ -2282,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -2296,7 +2261,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -2310,7 +2275,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>417</v>
       </c>
@@ -2324,7 +2289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>417</v>
       </c>
@@ -2338,7 +2303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>417</v>
       </c>
@@ -2352,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +2331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2408,7 +2373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2436,7 +2401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2461,7 +2426,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2437,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2486,7 +2451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +2465,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2479,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2493,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2570,7 +2535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2584,7 +2549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +2577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2626,7 +2591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2680,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2758,7 +2723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +2749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>19</v>
@@ -2810,7 +2775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2836,7 +2801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2879,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -2888,7 +2853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2914,7 +2879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2940,7 +2905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2966,7 +2931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2983,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
@@ -2992,7 +2957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3018,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3044,7 +3009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3070,7 +3035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -3096,7 +3061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3113,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -3122,7 +3087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3148,7 +3113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -3174,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3191,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3200,7 +3165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -3217,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
         <v>8</v>
@@ -3226,7 +3191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -3243,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -3252,7 +3217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -3278,7 +3243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -3304,7 +3269,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3330,7 +3295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3356,7 +3321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -3382,7 +3347,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -3408,7 +3373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -3434,7 +3399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -3451,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
         <v>82</v>
@@ -3460,7 +3425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -3486,7 +3451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -3538,7 +3503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3564,7 +3529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3590,7 +3555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3607,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
         <v>4</v>
@@ -3616,7 +3581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -3642,7 +3607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3668,7 +3633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3694,7 +3659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3720,7 +3685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3746,7 +3711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3772,7 +3737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -3798,7 +3763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3824,7 +3789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -3876,7 +3841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -3902,7 +3867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -3928,7 +3893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3954,7 +3919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3980,7 +3945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4006,7 +3971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +3997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4049,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -4058,7 +4023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4084,7 +4049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -4110,7 +4075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -4136,7 +4101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4162,7 +4127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4188,7 +4153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4214,7 +4179,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -4266,7 +4231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -4292,7 +4257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4344,7 +4309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4370,7 +4335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -4387,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
         <v>4</v>
@@ -4396,7 +4361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -4422,7 +4387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -4448,7 +4413,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -4474,7 +4439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -4500,7 +4465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4526,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4552,7 +4517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4578,7 +4543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -4604,7 +4569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -4630,7 +4595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4656,7 +4621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4682,7 +4647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +4673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -4725,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="s">
         <v>4</v>
@@ -4734,7 +4699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4777,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4786,7 +4751,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4812,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -4829,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
@@ -4838,7 +4803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -4864,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -4890,7 +4855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4916,7 +4881,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -4942,7 +4907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4968,7 +4933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -4994,7 +4959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -5020,7 +4985,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -5037,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
@@ -5046,7 +5011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -5072,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -5089,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="s">
         <v>12</v>
@@ -5098,7 +5063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -5124,7 +5089,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -5202,7 +5167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -5228,7 +5193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -5280,7 +5245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -5306,7 +5271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -5332,7 +5297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5358,7 +5323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -5384,7 +5349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -5410,7 +5375,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -5436,7 +5401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -5462,7 +5427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +5453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -5514,7 +5479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -5540,7 +5505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -5566,7 +5531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -5592,7 +5557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -5618,7 +5583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -5644,7 +5609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -5687,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="s">
         <v>19</v>
@@ -5696,7 +5661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -5722,7 +5687,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -5748,7 +5713,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -5765,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="s">
         <v>8</v>
@@ -5774,7 +5739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -5800,7 +5765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -5826,7 +5791,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -5852,7 +5817,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -5878,7 +5843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -5904,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -5930,7 +5895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -5956,7 +5921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -5973,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="s">
         <v>29</v>
@@ -5982,7 +5947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -6008,7 +5973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -6034,7 +5999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -6060,7 +6025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -6077,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" t="s">
         <v>8</v>
@@ -6086,7 +6051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -6112,7 +6077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -6138,7 +6103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -6164,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -6181,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -6190,7 +6155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -6216,7 +6181,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -6242,7 +6207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -6268,7 +6233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -6294,7 +6259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -6320,7 +6285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -6346,7 +6311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -6363,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="s">
         <v>19</v>
@@ -6372,7 +6337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -6398,7 +6363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -6415,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="s">
         <v>4</v>
@@ -6424,7 +6389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -6450,7 +6415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -6476,7 +6441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -6502,7 +6467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -6528,7 +6493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -6554,7 +6519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -6571,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -6580,7 +6545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -6606,7 +6571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -6632,7 +6597,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -6658,7 +6623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -6675,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="s">
         <v>4</v>
@@ -6684,7 +6649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -6710,7 +6675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -6736,7 +6701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -6762,7 +6727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -6788,7 +6753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -6814,7 +6779,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -6840,7 +6805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -6866,7 +6831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -6892,7 +6857,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -6918,7 +6883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -6935,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="s">
         <v>12</v>
@@ -6944,7 +6909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -6970,7 +6935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -6996,7 +6961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -7022,7 +6987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -7048,7 +7013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -7074,7 +7039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -7100,7 +7065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -7126,7 +7091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -7143,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -7152,7 +7117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7169,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
@@ -7178,7 +7143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -7195,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
@@ -7204,7 +7169,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -7230,7 +7195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -7256,7 +7221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -7282,7 +7247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -7308,7 +7273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -7360,7 +7325,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -7412,7 +7377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -7438,7 +7403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -7490,7 +7455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -7516,7 +7481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -7542,7 +7507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -7568,7 +7533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -7594,7 +7559,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -7611,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="s">
         <v>82</v>
@@ -7620,7 +7585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -7646,7 +7611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -7663,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="s">
         <v>19</v>
@@ -7672,7 +7637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -7698,7 +7663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -7724,7 +7689,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -7750,7 +7715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -7776,7 +7741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -7802,7 +7767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -7828,7 +7793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -7854,7 +7819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2</v>
       </c>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clreiter\Dropbox\Data Explorer 2.0\meta-to-wcde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Dropbox\WIC Projections 2022\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40188363-908C-4759-85C0-4CC757F872F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12900"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="440">
   <si>
     <t>continent</t>
   </si>
@@ -295,12 +296,6 @@
   </si>
   <si>
     <t>Northern Europe</t>
-  </si>
-  <si>
-    <t>Channel Islands</t>
-  </si>
-  <si>
-    <t>GB-CHA</t>
   </si>
   <si>
     <t>Chile</t>
@@ -1350,7 +1345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1831,7 +1826,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1896,9 +1891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1936,9 +1931,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1973,7 +1968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2008,7 +2003,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2181,11 +2176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,22 +2190,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2221,21 +2216,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2">
         <v>900</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -2249,7 +2244,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2263,7 +2258,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2277,7 +2272,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2291,7 +2286,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -2305,7 +2300,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2392,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>906</v>
@@ -2420,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C16">
         <v>5500</v>
@@ -2431,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C17">
         <v>5501</v>
@@ -2582,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28">
         <v>928</v>
@@ -2596,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29">
         <v>954</v>
@@ -2610,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30">
         <v>957</v>
@@ -2728,13 +2723,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C35">
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3511,22 +3506,22 @@
         <v>92</v>
       </c>
       <c r="C65">
-        <v>830</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3534,25 +3529,25 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66">
+        <v>156</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" t="s">
         <v>94</v>
-      </c>
-      <c r="C66">
-        <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3563,7 +3558,7 @@
         <v>97</v>
       </c>
       <c r="C67">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
         <v>98</v>
@@ -3575,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3589,7 +3584,7 @@
         <v>99</v>
       </c>
       <c r="C68">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
         <v>100</v>
@@ -3598,13 +3593,13 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3615,7 +3610,7 @@
         <v>101</v>
       </c>
       <c r="C69">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s">
         <v>102</v>
@@ -3630,7 +3625,7 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,7 +3636,7 @@
         <v>103</v>
       </c>
       <c r="C70">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D70" t="s">
         <v>104</v>
@@ -3653,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,7 +3662,7 @@
         <v>105</v>
       </c>
       <c r="C71">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="D71" t="s">
         <v>106</v>
@@ -3679,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3693,7 +3688,7 @@
         <v>107</v>
       </c>
       <c r="C72">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
         <v>108</v>
@@ -3702,13 +3697,13 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3719,7 +3714,7 @@
         <v>109</v>
       </c>
       <c r="C73">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D73" t="s">
         <v>110</v>
@@ -3728,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3742,13 +3737,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>428</v>
       </c>
       <c r="C74">
-        <v>192</v>
+        <v>531</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>432</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3768,13 +3763,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>430</v>
+        <v>111</v>
       </c>
       <c r="C75">
-        <v>531</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>434</v>
+        <v>112</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -3783,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,22 +3792,22 @@
         <v>113</v>
       </c>
       <c r="C76">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,22 +3818,22 @@
         <v>115</v>
       </c>
       <c r="C77">
-        <v>203</v>
+        <v>408</v>
       </c>
       <c r="D77" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,7 +3844,7 @@
         <v>117</v>
       </c>
       <c r="C78">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
         <v>118</v>
@@ -3861,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3875,7 +3870,7 @@
         <v>119</v>
       </c>
       <c r="C79">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s">
         <v>120</v>
@@ -3884,13 +3879,13 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3901,22 +3896,22 @@
         <v>121</v>
       </c>
       <c r="C80">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="D80" t="s">
         <v>122</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3927,22 +3922,22 @@
         <v>123</v>
       </c>
       <c r="C81">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
         <v>124</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3953,7 +3948,7 @@
         <v>125</v>
       </c>
       <c r="C82">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D82" t="s">
         <v>126</v>
@@ -3968,7 +3963,7 @@
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3979,7 +3974,7 @@
         <v>127</v>
       </c>
       <c r="C83">
-        <v>218</v>
+        <v>818</v>
       </c>
       <c r="D83" t="s">
         <v>128</v>
@@ -3988,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4005,7 +4000,7 @@
         <v>129</v>
       </c>
       <c r="C84">
-        <v>818</v>
+        <v>222</v>
       </c>
       <c r="D84" t="s">
         <v>130</v>
@@ -4014,13 +4009,13 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4031,7 +4026,7 @@
         <v>131</v>
       </c>
       <c r="C85">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D85" t="s">
         <v>132</v>
@@ -4043,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,13 +4052,13 @@
         <v>133</v>
       </c>
       <c r="C86">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
         <v>134</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4072,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4083,22 +4078,22 @@
         <v>135</v>
       </c>
       <c r="C87">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
         <v>136</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4109,7 +4104,7 @@
         <v>137</v>
       </c>
       <c r="C88">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
         <v>138</v>
@@ -4118,13 +4113,13 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,25 +4127,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89">
+        <v>242</v>
+      </c>
+      <c r="D89" t="s">
+        <v>141</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" t="s">
         <v>139</v>
-      </c>
-      <c r="C89">
-        <v>231</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4161,7 +4156,7 @@
         <v>142</v>
       </c>
       <c r="C90">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
         <v>143</v>
@@ -4170,13 +4165,13 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4187,7 +4182,7 @@
         <v>144</v>
       </c>
       <c r="C91">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D91" t="s">
         <v>145</v>
@@ -4202,7 +4197,7 @@
         <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4213,7 +4208,7 @@
         <v>146</v>
       </c>
       <c r="C92">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
         <v>147</v>
@@ -4222,13 +4217,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4236,25 +4231,25 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93">
+        <v>258</v>
+      </c>
+      <c r="D93" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" t="s">
         <v>148</v>
-      </c>
-      <c r="C93">
-        <v>254</v>
-      </c>
-      <c r="D93" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4265,7 +4260,7 @@
         <v>151</v>
       </c>
       <c r="C94">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
         <v>152</v>
@@ -4277,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,7 +4286,7 @@
         <v>153</v>
       </c>
       <c r="C95">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D95" t="s">
         <v>154</v>
@@ -4306,7 +4301,7 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4317,7 +4312,7 @@
         <v>155</v>
       </c>
       <c r="C96">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" t="s">
         <v>156</v>
@@ -4326,13 +4321,13 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4343,7 +4338,7 @@
         <v>157</v>
       </c>
       <c r="C97">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
         <v>158</v>
@@ -4355,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4369,7 +4364,7 @@
         <v>159</v>
       </c>
       <c r="C98">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D98" t="s">
         <v>160</v>
@@ -4378,13 +4373,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4395,7 +4390,7 @@
         <v>161</v>
       </c>
       <c r="C99">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D99" t="s">
         <v>162</v>
@@ -4404,13 +4399,13 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4421,22 +4416,22 @@
         <v>163</v>
       </c>
       <c r="C100">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
         <v>164</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4447,13 +4442,13 @@
         <v>165</v>
       </c>
       <c r="C101">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D101" t="s">
         <v>166</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4470,25 +4465,25 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102">
+        <v>316</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" t="s">
         <v>167</v>
-      </c>
-      <c r="C102">
-        <v>312</v>
-      </c>
-      <c r="D102" t="s">
-        <v>168</v>
-      </c>
-      <c r="E102" s="1">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4499,22 +4494,22 @@
         <v>170</v>
       </c>
       <c r="C103">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D103" t="s">
         <v>171</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,7 +4520,7 @@
         <v>172</v>
       </c>
       <c r="C104">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D104" t="s">
         <v>173</v>
@@ -4537,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4551,7 +4546,7 @@
         <v>174</v>
       </c>
       <c r="C105">
-        <v>324</v>
+        <v>624</v>
       </c>
       <c r="D105" t="s">
         <v>175</v>
@@ -4577,7 +4572,7 @@
         <v>176</v>
       </c>
       <c r="C106">
-        <v>624</v>
+        <v>328</v>
       </c>
       <c r="D106" t="s">
         <v>177</v>
@@ -4589,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4603,7 +4598,7 @@
         <v>178</v>
       </c>
       <c r="C107">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D107" t="s">
         <v>179</v>
@@ -4618,7 +4613,7 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4629,7 +4624,7 @@
         <v>180</v>
       </c>
       <c r="C108">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D108" t="s">
         <v>181</v>
@@ -4644,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4655,22 +4650,22 @@
         <v>182</v>
       </c>
       <c r="C109">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D109" t="s">
         <v>183</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4681,22 +4676,22 @@
         <v>184</v>
       </c>
       <c r="C110">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s">
         <v>185</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>1</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,7 +4702,7 @@
         <v>186</v>
       </c>
       <c r="C111">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D111" t="s">
         <v>187</v>
@@ -4722,7 +4717,7 @@
         <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4733,7 +4728,7 @@
         <v>188</v>
       </c>
       <c r="C112">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
         <v>189</v>
@@ -4742,13 +4737,13 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4759,7 +4754,7 @@
         <v>190</v>
       </c>
       <c r="C113">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D113" t="s">
         <v>191</v>
@@ -4768,13 +4763,13 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="s">
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4785,7 +4780,7 @@
         <v>192</v>
       </c>
       <c r="C114">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D114" t="s">
         <v>193</v>
@@ -4794,13 +4789,13 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4811,7 +4806,7 @@
         <v>194</v>
       </c>
       <c r="C115">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D115" t="s">
         <v>195</v>
@@ -4826,7 +4821,7 @@
         <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4837,7 +4832,7 @@
         <v>196</v>
       </c>
       <c r="C116">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D116" t="s">
         <v>197</v>
@@ -4846,13 +4841,13 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4863,7 +4858,7 @@
         <v>198</v>
       </c>
       <c r="C117">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D117" t="s">
         <v>199</v>
@@ -4872,13 +4867,13 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4889,7 +4884,7 @@
         <v>200</v>
       </c>
       <c r="C118">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D118" t="s">
         <v>201</v>
@@ -4898,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4915,7 +4910,7 @@
         <v>202</v>
       </c>
       <c r="C119">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D119" t="s">
         <v>203</v>
@@ -4924,13 +4919,13 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4941,7 +4936,7 @@
         <v>204</v>
       </c>
       <c r="C120">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D120" t="s">
         <v>205</v>
@@ -4953,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4967,7 +4962,7 @@
         <v>206</v>
       </c>
       <c r="C121">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D121" t="s">
         <v>207</v>
@@ -4976,13 +4971,13 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="s">
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4993,7 +4988,7 @@
         <v>208</v>
       </c>
       <c r="C122">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D122" t="s">
         <v>209</v>
@@ -5002,13 +4997,13 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5019,7 +5014,7 @@
         <v>210</v>
       </c>
       <c r="C123">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D123" t="s">
         <v>211</v>
@@ -5028,13 +5023,13 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5042,25 +5037,25 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>423</v>
       </c>
       <c r="C124">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="D124" t="s">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H124" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5068,13 +5063,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="C125">
-        <v>296</v>
+        <v>414</v>
       </c>
       <c r="D125" t="s">
-        <v>433</v>
+        <v>213</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -5083,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,7 +5092,7 @@
         <v>214</v>
       </c>
       <c r="C126">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D126" t="s">
         <v>215</v>
@@ -5112,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5123,7 +5118,7 @@
         <v>216</v>
       </c>
       <c r="C127">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D127" t="s">
         <v>217</v>
@@ -5138,7 +5133,7 @@
         <v>4</v>
       </c>
       <c r="H127" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5149,7 +5144,7 @@
         <v>218</v>
       </c>
       <c r="C128">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D128" t="s">
         <v>219</v>
@@ -5158,13 +5153,13 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H128" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5175,7 +5170,7 @@
         <v>220</v>
       </c>
       <c r="C129">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D129" t="s">
         <v>221</v>
@@ -5184,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5201,7 +5196,7 @@
         <v>222</v>
       </c>
       <c r="C130">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D130" t="s">
         <v>223</v>
@@ -5213,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5227,7 +5222,7 @@
         <v>224</v>
       </c>
       <c r="C131">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D131" t="s">
         <v>225</v>
@@ -5242,7 +5237,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5253,13 +5248,13 @@
         <v>226</v>
       </c>
       <c r="C132">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D132" t="s">
         <v>227</v>
       </c>
       <c r="E132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -5268,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5279,22 +5274,22 @@
         <v>228</v>
       </c>
       <c r="C133">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D133" t="s">
         <v>229</v>
       </c>
       <c r="E133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5305,7 +5300,7 @@
         <v>230</v>
       </c>
       <c r="C134">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D134" t="s">
         <v>231</v>
@@ -5320,7 +5315,7 @@
         <v>8</v>
       </c>
       <c r="H134" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5331,7 +5326,7 @@
         <v>232</v>
       </c>
       <c r="C135">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D135" t="s">
         <v>233</v>
@@ -5340,13 +5335,13 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5357,7 +5352,7 @@
         <v>234</v>
       </c>
       <c r="C136">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D136" t="s">
         <v>235</v>
@@ -5369,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5383,7 +5378,7 @@
         <v>236</v>
       </c>
       <c r="C137">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D137" t="s">
         <v>237</v>
@@ -5409,7 +5404,7 @@
         <v>238</v>
       </c>
       <c r="C138">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D138" t="s">
         <v>239</v>
@@ -5421,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5435,7 +5430,7 @@
         <v>240</v>
       </c>
       <c r="C139">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D139" t="s">
         <v>241</v>
@@ -5450,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5461,7 +5456,7 @@
         <v>242</v>
       </c>
       <c r="C140">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D140" t="s">
         <v>243</v>
@@ -5473,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5487,7 +5482,7 @@
         <v>244</v>
       </c>
       <c r="C141">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D141" t="s">
         <v>245</v>
@@ -5499,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H141" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5513,7 +5508,7 @@
         <v>246</v>
       </c>
       <c r="C142">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D142" t="s">
         <v>247</v>
@@ -5525,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H142" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5539,22 +5534,22 @@
         <v>248</v>
       </c>
       <c r="C143">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D143" t="s">
         <v>249</v>
       </c>
       <c r="E143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,13 +5560,13 @@
         <v>250</v>
       </c>
       <c r="C144">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D144" t="s">
         <v>251</v>
       </c>
       <c r="E144" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5580,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="H144" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5591,13 +5586,13 @@
         <v>252</v>
       </c>
       <c r="C145">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="D145" t="s">
         <v>253</v>
       </c>
       <c r="E145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5617,22 +5612,22 @@
         <v>254</v>
       </c>
       <c r="C146">
-        <v>175</v>
+        <v>484</v>
       </c>
       <c r="D146" t="s">
         <v>255</v>
       </c>
       <c r="E146" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5643,7 +5638,7 @@
         <v>256</v>
       </c>
       <c r="C147">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="D147" t="s">
         <v>257</v>
@@ -5652,13 +5647,13 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H147" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,7 +5664,7 @@
         <v>258</v>
       </c>
       <c r="C148">
-        <v>583</v>
+        <v>496</v>
       </c>
       <c r="D148" t="s">
         <v>259</v>
@@ -5681,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5695,7 +5690,7 @@
         <v>260</v>
       </c>
       <c r="C149">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D149" t="s">
         <v>261</v>
@@ -5704,13 +5699,13 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5721,7 +5716,7 @@
         <v>262</v>
       </c>
       <c r="C150">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D150" t="s">
         <v>263</v>
@@ -5730,13 +5725,13 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,7 +5742,7 @@
         <v>264</v>
       </c>
       <c r="C151">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D151" t="s">
         <v>265</v>
@@ -5762,7 +5757,7 @@
         <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5773,7 +5768,7 @@
         <v>266</v>
       </c>
       <c r="C152">
-        <v>508</v>
+        <v>104</v>
       </c>
       <c r="D152" t="s">
         <v>267</v>
@@ -5785,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H152" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,7 +5794,7 @@
         <v>268</v>
       </c>
       <c r="C153">
-        <v>104</v>
+        <v>516</v>
       </c>
       <c r="D153" t="s">
         <v>269</v>
@@ -5811,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H153" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,7 +5820,7 @@
         <v>270</v>
       </c>
       <c r="C154">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D154" t="s">
         <v>271</v>
@@ -5837,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H154" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,7 +5846,7 @@
         <v>272</v>
       </c>
       <c r="C155">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D155" t="s">
         <v>273</v>
@@ -5860,13 +5855,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H155" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5877,7 +5872,7 @@
         <v>274</v>
       </c>
       <c r="C156">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D156" t="s">
         <v>275</v>
@@ -5886,13 +5881,13 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H156" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5903,7 +5898,7 @@
         <v>276</v>
       </c>
       <c r="C157">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="D157" t="s">
         <v>277</v>
@@ -5912,13 +5907,13 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
       </c>
       <c r="H157" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,7 +5924,7 @@
         <v>278</v>
       </c>
       <c r="C158">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D158" t="s">
         <v>279</v>
@@ -5938,13 +5933,13 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5955,7 +5950,7 @@
         <v>280</v>
       </c>
       <c r="C159">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D159" t="s">
         <v>281</v>
@@ -5967,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5981,7 +5976,7 @@
         <v>282</v>
       </c>
       <c r="C160">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D160" t="s">
         <v>283</v>
@@ -6007,7 +6002,7 @@
         <v>284</v>
       </c>
       <c r="C161">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D161" t="s">
         <v>285</v>
@@ -6016,13 +6011,13 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H161" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6033,22 +6028,22 @@
         <v>286</v>
       </c>
       <c r="C162">
-        <v>578</v>
+        <v>275</v>
       </c>
       <c r="D162" t="s">
         <v>287</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6059,12 +6054,12 @@
         <v>288</v>
       </c>
       <c r="C163">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="D163" t="s">
         <v>289</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>1</v>
       </c>
       <c r="F163">
@@ -6085,7 +6080,7 @@
         <v>290</v>
       </c>
       <c r="C164">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="D164" t="s">
         <v>291</v>
@@ -6100,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6111,7 +6106,7 @@
         <v>292</v>
       </c>
       <c r="C165">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D165" t="s">
         <v>293</v>
@@ -6120,13 +6115,13 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6137,22 +6132,22 @@
         <v>294</v>
       </c>
       <c r="C166">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D166" t="s">
         <v>295</v>
       </c>
       <c r="E166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H166" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6163,22 +6158,22 @@
         <v>296</v>
       </c>
       <c r="C167">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D167" t="s">
         <v>297</v>
       </c>
       <c r="E167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,7 +6184,7 @@
         <v>298</v>
       </c>
       <c r="C168">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D168" t="s">
         <v>299</v>
@@ -6215,7 +6210,7 @@
         <v>300</v>
       </c>
       <c r="C169">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D169" t="s">
         <v>301</v>
@@ -6227,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6241,7 +6236,7 @@
         <v>302</v>
       </c>
       <c r="C170">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D170" t="s">
         <v>303</v>
@@ -6250,13 +6245,13 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H170" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6267,7 +6262,7 @@
         <v>304</v>
       </c>
       <c r="C171">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D171" t="s">
         <v>305</v>
@@ -6282,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="H171" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6293,7 +6288,7 @@
         <v>306</v>
       </c>
       <c r="C172">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D172" t="s">
         <v>307</v>
@@ -6305,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6319,7 +6314,7 @@
         <v>308</v>
       </c>
       <c r="C173">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D173" t="s">
         <v>309</v>
@@ -6328,13 +6323,13 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H173" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6345,7 +6340,7 @@
         <v>310</v>
       </c>
       <c r="C174">
-        <v>634</v>
+        <v>410</v>
       </c>
       <c r="D174" t="s">
         <v>311</v>
@@ -6354,13 +6349,13 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="s">
         <v>4</v>
       </c>
       <c r="H174" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6371,7 +6366,7 @@
         <v>312</v>
       </c>
       <c r="C175">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="D175" t="s">
         <v>313</v>
@@ -6380,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H175" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6397,7 +6392,7 @@
         <v>314</v>
       </c>
       <c r="C176">
-        <v>498</v>
+        <v>638</v>
       </c>
       <c r="D176" t="s">
         <v>315</v>
@@ -6409,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H176" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6423,7 +6418,7 @@
         <v>316</v>
       </c>
       <c r="C177">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D177" t="s">
         <v>317</v>
@@ -6432,13 +6427,13 @@
         <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H177" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6449,7 +6444,7 @@
         <v>318</v>
       </c>
       <c r="C178">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D178" t="s">
         <v>319</v>
@@ -6458,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="s">
         <v>8</v>
@@ -6475,7 +6470,7 @@
         <v>320</v>
       </c>
       <c r="C179">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D179" t="s">
         <v>321</v>
@@ -6487,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6501,7 +6496,7 @@
         <v>322</v>
       </c>
       <c r="C180">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D180" t="s">
         <v>323</v>
@@ -6510,13 +6505,13 @@
         <v>1</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6527,7 +6522,7 @@
         <v>324</v>
       </c>
       <c r="C181">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D181" t="s">
         <v>325</v>
@@ -6536,7 +6531,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -6553,7 +6548,7 @@
         <v>326</v>
       </c>
       <c r="C182">
-        <v>670</v>
+        <v>882</v>
       </c>
       <c r="D182" t="s">
         <v>327</v>
@@ -6565,10 +6560,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H182" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6579,7 +6574,7 @@
         <v>328</v>
       </c>
       <c r="C183">
-        <v>882</v>
+        <v>678</v>
       </c>
       <c r="D183" t="s">
         <v>329</v>
@@ -6591,10 +6586,10 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H183" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6605,7 +6600,7 @@
         <v>330</v>
       </c>
       <c r="C184">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D184" t="s">
         <v>331</v>
@@ -6614,13 +6609,13 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H184" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6631,7 +6626,7 @@
         <v>332</v>
       </c>
       <c r="C185">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D185" t="s">
         <v>333</v>
@@ -6640,13 +6635,13 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6657,7 +6652,7 @@
         <v>334</v>
       </c>
       <c r="C186">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D186" t="s">
         <v>335</v>
@@ -6669,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H186" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6680,25 +6675,25 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="C187">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D187" t="s">
-        <v>337</v>
+        <v>435</v>
       </c>
       <c r="E187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6706,16 +6701,16 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>427</v>
+        <v>336</v>
       </c>
       <c r="C188">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D188" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="E188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -6724,7 +6719,7 @@
         <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6735,7 +6730,7 @@
         <v>338</v>
       </c>
       <c r="C189">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D189" t="s">
         <v>339</v>
@@ -6747,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H189" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6761,7 +6756,7 @@
         <v>340</v>
       </c>
       <c r="C190">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D190" t="s">
         <v>341</v>
@@ -6770,13 +6765,13 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H190" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6787,7 +6782,7 @@
         <v>342</v>
       </c>
       <c r="C191">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D191" t="s">
         <v>343</v>
@@ -6802,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="H191" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6813,7 +6808,7 @@
         <v>344</v>
       </c>
       <c r="C192">
-        <v>705</v>
+        <v>90</v>
       </c>
       <c r="D192" t="s">
         <v>345</v>
@@ -6822,13 +6817,13 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6839,7 +6834,7 @@
         <v>346</v>
       </c>
       <c r="C193">
-        <v>90</v>
+        <v>706</v>
       </c>
       <c r="D193" t="s">
         <v>347</v>
@@ -6851,10 +6846,10 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6865,7 +6860,7 @@
         <v>348</v>
       </c>
       <c r="C194">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D194" t="s">
         <v>349</v>
@@ -6874,13 +6869,13 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="s">
         <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6888,25 +6883,25 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="C195">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="s">
         <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6914,25 +6909,25 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="C196">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D196" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H196" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6943,7 +6938,7 @@
         <v>352</v>
       </c>
       <c r="C197">
-        <v>724</v>
+        <v>144</v>
       </c>
       <c r="D197" t="s">
         <v>353</v>
@@ -6952,13 +6947,13 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6969,7 +6964,7 @@
         <v>354</v>
       </c>
       <c r="C198">
-        <v>144</v>
+        <v>729</v>
       </c>
       <c r="D198" t="s">
         <v>355</v>
@@ -6981,10 +6976,10 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6995,7 +6990,7 @@
         <v>356</v>
       </c>
       <c r="C199">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="D199" t="s">
         <v>357</v>
@@ -7007,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7021,7 +7016,7 @@
         <v>358</v>
       </c>
       <c r="C200">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D200" t="s">
         <v>359</v>
@@ -7033,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7047,7 +7042,7 @@
         <v>360</v>
       </c>
       <c r="C201">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D201" t="s">
         <v>361</v>
@@ -7056,13 +7051,13 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H201" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7073,7 +7068,7 @@
         <v>362</v>
       </c>
       <c r="C202">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D202" t="s">
         <v>363</v>
@@ -7088,7 +7083,7 @@
         <v>8</v>
       </c>
       <c r="H202" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7099,7 +7094,7 @@
         <v>364</v>
       </c>
       <c r="C203">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D203" t="s">
         <v>365</v>
@@ -7111,10 +7106,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7122,13 +7117,13 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="C204">
-        <v>760</v>
+        <v>158</v>
       </c>
       <c r="D204" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
@@ -7140,7 +7135,7 @@
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7148,25 +7143,25 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="C205">
-        <v>158</v>
+        <v>762</v>
       </c>
       <c r="D205" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7177,7 +7172,7 @@
         <v>368</v>
       </c>
       <c r="C206">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D206" t="s">
         <v>369</v>
@@ -7192,7 +7187,7 @@
         <v>4</v>
       </c>
       <c r="H206" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7200,14 +7195,14 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
+        <v>418</v>
+      </c>
+      <c r="C207">
+        <v>807</v>
+      </c>
+      <c r="D207" t="s">
         <v>370</v>
       </c>
-      <c r="C207">
-        <v>764</v>
-      </c>
-      <c r="D207" t="s">
-        <v>371</v>
-      </c>
       <c r="E207" s="1">
         <v>1</v>
       </c>
@@ -7215,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H207" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7226,10 +7221,10 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="C208">
-        <v>807</v>
+        <v>626</v>
       </c>
       <c r="D208" t="s">
         <v>372</v>
@@ -7241,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7255,7 +7250,7 @@
         <v>373</v>
       </c>
       <c r="C209">
-        <v>626</v>
+        <v>768</v>
       </c>
       <c r="D209" t="s">
         <v>374</v>
@@ -7267,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H209" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7281,7 +7276,7 @@
         <v>375</v>
       </c>
       <c r="C210">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D210" t="s">
         <v>376</v>
@@ -7293,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H210" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,7 +7302,7 @@
         <v>377</v>
       </c>
       <c r="C211">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D211" t="s">
         <v>378</v>
@@ -7319,10 +7314,10 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H211" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7333,7 +7328,7 @@
         <v>379</v>
       </c>
       <c r="C212">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D212" t="s">
         <v>380</v>
@@ -7345,10 +7340,10 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H212" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7359,7 +7354,7 @@
         <v>381</v>
       </c>
       <c r="C213">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D213" t="s">
         <v>382</v>
@@ -7371,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7385,7 +7380,7 @@
         <v>383</v>
       </c>
       <c r="C214">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D214" t="s">
         <v>384</v>
@@ -7400,7 +7395,7 @@
         <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7411,7 +7406,7 @@
         <v>385</v>
       </c>
       <c r="C215">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D215" t="s">
         <v>386</v>
@@ -7423,10 +7418,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H215" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7437,7 +7432,7 @@
         <v>387</v>
       </c>
       <c r="C216">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D216" t="s">
         <v>388</v>
@@ -7449,10 +7444,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H216" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7463,7 +7458,7 @@
         <v>389</v>
       </c>
       <c r="C217">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="D217" t="s">
         <v>390</v>
@@ -7475,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7489,7 +7484,7 @@
         <v>391</v>
       </c>
       <c r="C218">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="D218" t="s">
         <v>392</v>
@@ -7498,13 +7493,13 @@
         <v>1</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H218" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7515,7 +7510,7 @@
         <v>393</v>
       </c>
       <c r="C219">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D219" t="s">
         <v>394</v>
@@ -7524,13 +7519,13 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H219" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7541,7 +7536,7 @@
         <v>395</v>
       </c>
       <c r="C220">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D220" t="s">
         <v>396</v>
@@ -7550,13 +7545,13 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="H220" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7567,22 +7562,22 @@
         <v>397</v>
       </c>
       <c r="C221">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="D221" t="s">
         <v>398</v>
       </c>
       <c r="E221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H221" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7593,22 +7588,22 @@
         <v>399</v>
       </c>
       <c r="C222">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="D222" t="s">
         <v>400</v>
       </c>
       <c r="E222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222" t="s">
         <v>19</v>
       </c>
       <c r="H222" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7619,22 +7614,22 @@
         <v>401</v>
       </c>
       <c r="C223">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D223" t="s">
         <v>402</v>
       </c>
       <c r="E223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H223" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7645,22 +7640,22 @@
         <v>403</v>
       </c>
       <c r="C224">
-        <v>860</v>
+        <v>548</v>
       </c>
       <c r="D224" t="s">
         <v>404</v>
       </c>
       <c r="E224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H224" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7671,7 +7666,7 @@
         <v>405</v>
       </c>
       <c r="C225">
-        <v>548</v>
+        <v>862</v>
       </c>
       <c r="D225" t="s">
         <v>406</v>
@@ -7683,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H225" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7697,7 +7692,7 @@
         <v>407</v>
       </c>
       <c r="C226">
-        <v>862</v>
+        <v>704</v>
       </c>
       <c r="D226" t="s">
         <v>408</v>
@@ -7709,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7720,25 +7715,25 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C227">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="D227" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="E227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H227" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7746,25 +7741,25 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="C228">
-        <v>732</v>
+        <v>887</v>
       </c>
       <c r="D228" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="E228" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7775,7 +7770,7 @@
         <v>411</v>
       </c>
       <c r="C229">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="D229" t="s">
         <v>412</v>
@@ -7787,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7801,7 +7796,7 @@
         <v>413</v>
       </c>
       <c r="C230">
-        <v>894</v>
+        <v>716</v>
       </c>
       <c r="D230" t="s">
         <v>414</v>
@@ -7816,32 +7811,6 @@
         <v>12</v>
       </c>
       <c r="H230" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>2</v>
-      </c>
-      <c r="B231" t="s">
-        <v>415</v>
-      </c>
-      <c r="C231">
-        <v>716</v>
-      </c>
-      <c r="D231" t="s">
-        <v>416</v>
-      </c>
-      <c r="E231" s="1">
-        <v>1</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
-      <c r="H231" t="s">
         <v>75</v>
       </c>
     </row>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Dropbox\WIC Projections 2022\WCDE for Guy\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\GitHub\wcde-shiny\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40188363-908C-4759-85C0-4CC757F872F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082CEF0-013D-4CA1-A8F6-E08462A7B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
@@ -2179,16 +2179,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>419</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>415</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>415</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>415</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>415</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>415</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>415</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2420,8 +2420,11 @@
       <c r="C16">
         <v>5500</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2431,8 +2434,11 @@
       <c r="C17">
         <v>5501</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4018,7 +4024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4258,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4538,7 +4544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4642,7 +4648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -4720,7 +4726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -4876,7 +4882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -4980,7 +4986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -5162,7 +5168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -5266,7 +5272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -5370,7 +5376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -6046,7 +6052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -6072,7 +6078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -6150,7 +6156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -6384,7 +6390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -6410,7 +6416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -6462,7 +6468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -6488,7 +6494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -6566,7 +6572,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -6592,7 +6598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -6696,7 +6702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -6878,7 +6884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>2</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>2</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>2</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -7060,7 +7066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -7086,7 +7092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>2</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>2</v>
       </c>
@@ -7164,7 +7170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>2</v>
       </c>
@@ -7190,7 +7196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>2</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -7242,7 +7248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -7268,7 +7274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>2</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>2</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>2</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -7372,7 +7378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>2</v>
       </c>
@@ -7476,7 +7482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>2</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -7658,7 +7664,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -7710,7 +7716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -7736,7 +7742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>2</v>
       </c>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\GitHub\wcde-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082CEF0-013D-4CA1-A8F6-E08462A7B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76CC6B-6808-4B45-9558-4FF0E30AC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2420,9 +2420,6 @@
       <c r="C16">
         <v>5500</v>
       </c>
-      <c r="D16">
-        <v>143</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -2433,9 +2430,6 @@
       </c>
       <c r="C17">
         <v>5501</v>
-      </c>
-      <c r="D17">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Dropbox\WCDE for Guy\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\GitHub\wcde-shiny\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76CC6B-6808-4B45-9558-4FF0E30AC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A785C6-8E2C-48E4-A8BB-4EAA63AEEF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="440">
   <si>
     <t>continent</t>
   </si>
@@ -2177,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2401,13 +2401,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
       <c r="C15">
-        <v>921</v>
-      </c>
-      <c r="D15">
-        <v>142</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -2415,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C16">
-        <v>5500</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2426,10 +2423,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>68</v>
       </c>
       <c r="C17">
-        <v>5501</v>
+        <v>920</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2437,13 +2437,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2451,13 +2451,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D19">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2465,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C20">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D20">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2479,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D21">
-        <v>154</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2493,13 +2493,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2507,13 +2507,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D23">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2521,13 +2521,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2535,13 +2535,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2549,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2563,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C27">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2577,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C28">
-        <v>928</v>
+        <v>954</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2591,27 +2591,39 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C29">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>957</v>
-      </c>
-      <c r="D30">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2619,13 +2631,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2634,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2645,13 +2657,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2660,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2671,13 +2683,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2689,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -2697,25 +2709,25 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>427</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2723,25 +2735,25 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2749,25 +2761,25 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2775,13 +2787,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>51</v>
+        <v>533</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2790,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2801,25 +2813,25 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38">
-        <v>533</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2827,13 +2839,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2842,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2853,25 +2865,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2879,13 +2891,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2894,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2905,25 +2917,25 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2931,25 +2943,25 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2957,25 +2969,25 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -2983,25 +2995,25 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3009,25 +3021,25 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3035,13 +3047,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3050,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -3061,25 +3073,25 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -3087,13 +3099,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3102,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -3113,25 +3125,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3139,13 +3151,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -3154,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3165,13 +3177,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C52">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -3180,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3191,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -3206,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -3217,25 +3229,25 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C54">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -3243,25 +3255,25 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -3269,25 +3281,25 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>854</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -3295,13 +3307,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C57">
-        <v>854</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3313,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -3321,13 +3333,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3336,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -3347,13 +3359,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3362,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3373,25 +3385,25 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C60">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3399,25 +3411,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C61">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="1">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3425,15 +3437,15 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C62">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="2">
+        <v>88</v>
+      </c>
+      <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62">
@@ -3443,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -3451,13 +3463,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C63">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3477,13 +3489,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3492,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3503,25 +3515,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C65">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -3529,13 +3541,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -3544,10 +3556,10 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3555,25 +3567,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3581,13 +3593,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C68">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -3599,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3607,13 +3619,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3622,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3633,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C70">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3648,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3659,25 +3671,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C71">
-        <v>384</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -3685,25 +3697,25 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C72">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3711,13 +3723,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>428</v>
       </c>
       <c r="C73">
-        <v>192</v>
+        <v>531</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>432</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -3737,13 +3749,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>111</v>
       </c>
       <c r="C74">
-        <v>531</v>
+        <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>432</v>
+        <v>112</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3752,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -3763,25 +3775,25 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
-      </c>
-      <c r="E75" s="1">
+        <v>114</v>
+      </c>
+      <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3789,25 +3801,25 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C76">
-        <v>203</v>
+        <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="2">
+        <v>116</v>
+      </c>
+      <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3815,13 +3827,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C77">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3830,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3841,25 +3853,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C78">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -3867,25 +3879,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C79">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -3893,25 +3905,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C80">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3919,13 +3931,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C81">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -3937,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3945,25 +3957,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C82">
-        <v>218</v>
+        <v>818</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -3971,25 +3983,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C83">
-        <v>818</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -3997,13 +4009,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C84">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -4012,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -4023,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C85">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4041,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -4049,25 +4061,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C86">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -4075,25 +4087,25 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C87">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -4101,13 +4113,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C88">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -4116,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -4127,25 +4139,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C89">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H89" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -4153,13 +4165,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -4171,7 +4183,7 @@
         <v>8</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -4179,25 +4191,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C91">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -4205,13 +4217,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C92">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -4220,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -4231,13 +4243,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C93">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4246,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -4257,13 +4269,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C94">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -4275,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -4283,25 +4295,25 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C95">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -4309,13 +4321,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C96">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -4324,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -4335,25 +4347,25 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C97">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -4361,25 +4373,25 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C98">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H98" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4387,25 +4399,25 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C99">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -4413,16 +4425,16 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C100">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4439,25 +4451,25 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C101">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -4465,25 +4477,25 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C102">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -4491,13 +4503,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C103">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -4506,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -4517,13 +4529,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104">
-        <v>324</v>
+        <v>624</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4543,13 +4555,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C105">
-        <v>624</v>
+        <v>328</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -4558,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -4569,13 +4581,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C106">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -4587,7 +4599,7 @@
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -4595,13 +4607,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C107">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4613,7 +4625,7 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -4621,25 +4633,25 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C108">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>181</v>
-      </c>
-      <c r="E108" s="1">
+        <v>183</v>
+      </c>
+      <c r="E108" s="2">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -4647,25 +4659,25 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C109">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="2">
+        <v>185</v>
+      </c>
+      <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -4673,13 +4685,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C110">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -4691,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -4699,25 +4711,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C111">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -4725,25 +4737,25 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C112">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -4751,25 +4763,25 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C113">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D113" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -4777,13 +4789,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C114">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -4795,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -4803,25 +4815,25 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C115">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -4829,25 +4841,25 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C116">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -4855,25 +4867,25 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C117">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -4881,25 +4893,25 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C118">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -4907,13 +4919,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C119">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -4922,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -4933,25 +4945,25 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C120">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -4959,25 +4971,25 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C121">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -4985,25 +4997,25 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C122">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -5011,25 +5023,25 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>210</v>
+        <v>423</v>
       </c>
       <c r="C123">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>431</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H123" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -5037,13 +5049,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>423</v>
+        <v>212</v>
       </c>
       <c r="C124">
-        <v>296</v>
+        <v>414</v>
       </c>
       <c r="D124" t="s">
-        <v>431</v>
+        <v>213</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -5052,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -5063,13 +5075,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C125">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D125" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -5081,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -5089,13 +5101,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C126">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -5107,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -5115,25 +5127,25 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C127">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D127" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H127" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -5141,25 +5153,25 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C128">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D128" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
@@ -5167,13 +5179,13 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C129">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -5182,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -5193,13 +5205,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C130">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -5211,7 +5223,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -5219,16 +5231,16 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C131">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -5237,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -5245,25 +5257,25 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C132">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D132" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -5271,13 +5283,13 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C133">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D133" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -5289,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="H133" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -5297,25 +5309,25 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C134">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D134" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -5323,13 +5335,13 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C135">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -5338,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -5349,13 +5361,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C136">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -5375,13 +5387,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C137">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -5390,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -5401,13 +5413,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C138">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -5419,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -5427,13 +5439,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C139">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5442,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H139" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -5453,13 +5465,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C140">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D140" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -5468,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -5479,13 +5491,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C141">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5494,10 +5506,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -5505,25 +5517,25 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C142">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
@@ -5531,16 +5543,16 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C143">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -5549,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
@@ -5557,16 +5569,16 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C144">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="D144" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5583,25 +5595,25 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C145">
-        <v>175</v>
+        <v>484</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E145" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
@@ -5609,25 +5621,25 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C146">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H146" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
@@ -5635,13 +5647,13 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C147">
-        <v>583</v>
+        <v>496</v>
       </c>
       <c r="D147" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -5650,10 +5662,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
@@ -5661,25 +5673,25 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C148">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H148" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
@@ -5687,25 +5699,25 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C149">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D149" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
@@ -5713,13 +5725,13 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C150">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D150" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -5731,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -5739,13 +5751,13 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C151">
-        <v>508</v>
+        <v>104</v>
       </c>
       <c r="D151" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -5754,10 +5766,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -5765,13 +5777,13 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C152">
-        <v>104</v>
+        <v>516</v>
       </c>
       <c r="D152" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -5780,10 +5792,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -5791,13 +5803,13 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C153">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D153" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5806,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
@@ -5817,25 +5829,25 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C154">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D154" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H154" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
@@ -5843,25 +5855,25 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C155">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
@@ -5869,25 +5881,25 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C156">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="D156" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
       </c>
       <c r="H156" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
@@ -5895,25 +5907,25 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C157">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
@@ -5921,13 +5933,13 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C158">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D158" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -5936,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -5947,13 +5959,13 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C159">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D159" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -5973,25 +5985,25 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C160">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H160" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -5999,25 +6011,25 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C161">
-        <v>578</v>
+        <v>275</v>
       </c>
       <c r="D161" t="s">
-        <v>285</v>
-      </c>
-      <c r="E161" s="1">
+        <v>287</v>
+      </c>
+      <c r="E161" s="2">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -6025,15 +6037,15 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C162">
-        <v>275</v>
+        <v>512</v>
       </c>
       <c r="D162" t="s">
-        <v>287</v>
-      </c>
-      <c r="E162" s="2">
+        <v>289</v>
+      </c>
+      <c r="E162" s="1">
         <v>1</v>
       </c>
       <c r="F162">
@@ -6051,13 +6063,13 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C163">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="D163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -6069,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -6077,25 +6089,25 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C164">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D164" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -6103,25 +6115,25 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C165">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D165" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H165" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -6129,25 +6141,25 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C166">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D166" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E166" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -6155,13 +6167,13 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C167">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D167" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
@@ -6181,13 +6193,13 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C168">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D168" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -6196,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -6207,25 +6219,25 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C169">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D169" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H169" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -6233,13 +6245,13 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C170">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D170" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -6251,7 +6263,7 @@
         <v>8</v>
       </c>
       <c r="H170" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -6259,13 +6271,13 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C171">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D171" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6274,10 +6286,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -6285,25 +6297,25 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C172">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D172" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
@@ -6311,25 +6323,25 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C173">
-        <v>634</v>
+        <v>410</v>
       </c>
       <c r="D173" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="s">
         <v>4</v>
       </c>
       <c r="H173" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -6337,25 +6349,25 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C174">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="D174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H174" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
@@ -6363,13 +6375,13 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C175">
-        <v>498</v>
+        <v>638</v>
       </c>
       <c r="D175" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -6378,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H175" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
@@ -6389,25 +6401,25 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C176">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D176" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H176" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
@@ -6415,19 +6427,19 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C177">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D177" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
@@ -6441,13 +6453,13 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C178">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D178" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -6456,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H178" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -6467,25 +6479,25 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C179">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="D179" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
@@ -6493,19 +6505,19 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C180">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D180" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
         <v>19</v>
@@ -6519,13 +6531,13 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C181">
-        <v>670</v>
+        <v>882</v>
       </c>
       <c r="D181" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -6534,10 +6546,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H181" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
@@ -6545,13 +6557,13 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C182">
-        <v>882</v>
+        <v>678</v>
       </c>
       <c r="D182" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6560,10 +6572,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
@@ -6571,25 +6583,25 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C183">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D183" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H183" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
@@ -6597,25 +6609,25 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C184">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D184" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
@@ -6623,13 +6635,13 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C185">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D185" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -6638,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H185" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
@@ -6649,25 +6661,25 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>334</v>
+        <v>425</v>
       </c>
       <c r="C186">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D186" t="s">
-        <v>335</v>
+        <v>435</v>
       </c>
       <c r="E186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
@@ -6675,16 +6687,16 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="C187">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D187" t="s">
-        <v>435</v>
+        <v>337</v>
       </c>
       <c r="E187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -6693,7 +6705,7 @@
         <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
@@ -6701,13 +6713,13 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C188">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D188" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -6716,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
@@ -6727,25 +6739,25 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C189">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D189" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H189" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
@@ -6753,13 +6765,13 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C190">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D190" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -6771,7 +6783,7 @@
         <v>8</v>
       </c>
       <c r="H190" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
@@ -6779,25 +6791,25 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C191">
-        <v>705</v>
+        <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
@@ -6805,13 +6817,13 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C192">
-        <v>90</v>
+        <v>706</v>
       </c>
       <c r="D192" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
@@ -6820,10 +6832,10 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
@@ -6831,25 +6843,25 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C193">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D193" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
         <v>12</v>
       </c>
       <c r="H193" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
@@ -6857,25 +6869,25 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="C194">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="D194" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="s">
         <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
@@ -6883,25 +6895,25 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="C195">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D195" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H195" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
@@ -6909,25 +6921,25 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C196">
-        <v>724</v>
+        <v>144</v>
       </c>
       <c r="D196" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H196" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -6935,13 +6947,13 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C197">
-        <v>144</v>
+        <v>729</v>
       </c>
       <c r="D197" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
@@ -6950,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
@@ -6961,13 +6973,13 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C198">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="D198" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -6976,10 +6988,10 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H198" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -6987,13 +6999,13 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C199">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="D199" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -7002,10 +7014,10 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
@@ -7013,25 +7025,25 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C200">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D200" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H200" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
@@ -7039,13 +7051,13 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C201">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D201" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -7057,7 +7069,7 @@
         <v>8</v>
       </c>
       <c r="H201" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
@@ -7065,13 +7077,13 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C202">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D202" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -7080,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
@@ -7091,13 +7103,13 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="C203">
-        <v>760</v>
+        <v>158</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -7109,7 +7121,7 @@
         <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
@@ -7117,25 +7129,25 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="C204">
-        <v>158</v>
+        <v>762</v>
       </c>
       <c r="D204" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
@@ -7143,13 +7155,13 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C205">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D205" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -7161,7 +7173,7 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
@@ -7169,13 +7181,13 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="C206">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="D206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -7184,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H206" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
@@ -7195,13 +7207,13 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="C207">
-        <v>807</v>
+        <v>626</v>
       </c>
       <c r="D207" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -7210,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H207" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
@@ -7221,13 +7233,13 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C208">
-        <v>626</v>
+        <v>768</v>
       </c>
       <c r="D208" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -7236,10 +7248,10 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H208" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
@@ -7247,13 +7259,13 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C209">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D209" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -7262,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H209" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
@@ -7273,13 +7285,13 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C210">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D210" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -7288,10 +7300,10 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
@@ -7299,13 +7311,13 @@
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C211">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -7314,10 +7326,10 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H211" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
@@ -7325,13 +7337,13 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C212">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D212" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -7340,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
@@ -7351,13 +7363,13 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C213">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D213" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -7369,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
@@ -7377,13 +7389,13 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C214">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D214" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -7392,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H214" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
@@ -7403,13 +7415,13 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C215">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D215" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -7418,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H215" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
@@ -7429,13 +7441,13 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C216">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="D216" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -7444,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
@@ -7455,25 +7467,25 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C217">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="D217" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H217" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
@@ -7481,25 +7493,25 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C218">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="D218" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H218" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
@@ -7507,25 +7519,25 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C219">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D219" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="H219" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
@@ -7533,25 +7545,25 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C220">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="D220" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H220" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
@@ -7559,25 +7571,25 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C221">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="D221" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221" t="s">
         <v>19</v>
       </c>
       <c r="H221" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
@@ -7585,25 +7597,25 @@
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C222">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D222" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
@@ -7611,25 +7623,25 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C223">
-        <v>860</v>
+        <v>548</v>
       </c>
       <c r="D223" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E223" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H223" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
@@ -7637,13 +7649,13 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C224">
-        <v>548</v>
+        <v>862</v>
       </c>
       <c r="D224" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
@@ -7652,10 +7664,10 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H224" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
@@ -7663,13 +7675,13 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C225">
-        <v>862</v>
+        <v>704</v>
       </c>
       <c r="D225" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -7678,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
@@ -7689,25 +7701,25 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C226">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="D226" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="E226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H226" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
@@ -7715,25 +7727,25 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C227">
-        <v>732</v>
+        <v>887</v>
       </c>
       <c r="D227" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="E227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H227" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
@@ -7741,13 +7753,13 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C228">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="D228" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E228" s="1">
         <v>1</v>
@@ -7756,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H228" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
@@ -7767,13 +7779,13 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C229">
-        <v>894</v>
+        <v>716</v>
       </c>
       <c r="D229" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
@@ -7785,32 +7797,6 @@
         <v>12</v>
       </c>
       <c r="H229" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>2</v>
-      </c>
-      <c r="B230" t="s">
-        <v>413</v>
-      </c>
-      <c r="C230">
-        <v>716</v>
-      </c>
-      <c r="D230" t="s">
-        <v>414</v>
-      </c>
-      <c r="E230" s="1">
-        <v>1</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
-      <c r="H230" t="s">
         <v>75</v>
       </c>
     </row>

--- a/meta/geography.xlsx
+++ b/meta/geography.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\GitHub\wcde-shiny\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A785C6-8E2C-48E4-A8BB-4EAA63AEEF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95AF20-1AC1-4D8A-978E-D62A79A26499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iso" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iso!$A$1:$H$229</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="439">
   <si>
     <t>continent</t>
   </si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>Asia</t>
-  </si>
-  <si>
-    <t>South-Central Asia</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2190,22 +2190,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
         <v>419</v>
-      </c>
-      <c r="B1" t="s">
-        <v>420</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" t="s">
         <v>421</v>
       </c>
-      <c r="E1" t="s">
-        <v>422</v>
-      </c>
       <c r="F1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2216,24 +2216,24 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" t="s">
         <v>415</v>
-      </c>
-      <c r="B2" t="s">
-        <v>416</v>
       </c>
       <c r="C2">
         <v>900</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>903</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>908</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>904</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>905</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>909</v>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>910</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>911</v>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>912</v>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>913</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>914</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>906</v>
@@ -2401,29 +2401,35 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15">
         <v>5500</v>
       </c>
+      <c r="D15">
+        <v>142</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C16">
         <v>5501</v>
       </c>
+      <c r="D16">
+        <v>142</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>920</v>
@@ -2437,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>922</v>
@@ -2451,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>923</v>
@@ -2465,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20">
         <v>924</v>
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>925</v>
@@ -2493,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>926</v>
@@ -2507,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>915</v>
@@ -2521,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>916</v>
@@ -2535,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>931</v>
@@ -2549,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>927</v>
@@ -2563,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>928</v>
@@ -2577,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28">
         <v>954</v>
@@ -2591,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29">
         <v>957</v>
@@ -2605,13 +2611,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2623,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2631,13 +2637,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2646,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
         <v>8</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2657,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2672,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
         <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2683,13 +2689,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2698,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -2709,13 +2715,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C34">
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2724,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2735,13 +2741,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2750,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
         <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2761,13 +2767,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2779,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2787,13 +2793,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>533</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2802,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2813,13 +2819,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2828,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
         <v>29</v>
-      </c>
-      <c r="H38" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2839,13 +2845,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2854,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2865,13 +2871,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2883,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -2891,13 +2897,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2906,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -2917,13 +2923,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2935,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2943,13 +2949,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2961,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2969,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2984,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -2995,13 +3001,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3010,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3021,13 +3027,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3036,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3047,13 +3053,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3062,10 +3068,10 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -3073,13 +3079,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3088,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -3099,13 +3105,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3117,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -3125,13 +3131,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -3140,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
         <v>19</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3151,13 +3157,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -3166,10 +3172,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" t="s">
         <v>8</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3177,13 +3183,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -3192,10 +3198,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3203,13 +3209,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53">
         <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -3218,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
         <v>19</v>
-      </c>
-      <c r="H53" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -3229,13 +3235,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -3247,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -3255,13 +3261,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -3270,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -3281,13 +3287,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>854</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3296,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -3307,13 +3313,13 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57">
         <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3322,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -3333,13 +3339,13 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3351,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -3359,13 +3365,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59">
         <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3374,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3385,13 +3391,13 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -3400,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3411,13 +3417,13 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -3426,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3437,13 +3443,13 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3452,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -3463,13 +3469,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63">
         <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3478,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3489,13 +3495,13 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64">
         <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3504,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
         <v>19</v>
-      </c>
-      <c r="H64" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3515,13 +3521,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65">
         <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -3533,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -3541,13 +3547,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66">
         <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -3556,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
         <v>19</v>
-      </c>
-      <c r="H66" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3567,13 +3573,13 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67">
         <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -3582,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3593,13 +3599,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -3608,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3619,13 +3625,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3634,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -3645,13 +3651,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>384</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -3660,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3671,13 +3677,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71">
         <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -3686,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
         <v>8</v>
-      </c>
-      <c r="H71" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -3697,13 +3703,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72">
         <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3712,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -3723,13 +3729,13 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C73">
         <v>531</v>
       </c>
       <c r="D73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -3738,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3749,13 +3755,13 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74">
         <v>196</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3767,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -3775,13 +3781,13 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75">
         <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -3790,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3801,13 +3807,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76">
         <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -3819,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3827,13 +3833,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77">
         <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3842,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -3853,13 +3859,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C78">
         <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -3868,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -3879,13 +3885,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C79">
         <v>262</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -3894,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -3905,13 +3911,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80">
         <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -3920,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3931,13 +3937,13 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81">
         <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -3946,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
         <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3957,13 +3963,13 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82">
         <v>818</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -3972,10 +3978,10 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
         <v>12</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -3983,13 +3989,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83">
         <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -3998,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -4009,13 +4015,13 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84">
         <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -4024,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -4035,13 +4041,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85">
         <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -4050,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -4061,13 +4067,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86">
         <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -4076,10 +4082,10 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -4087,13 +4093,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87">
         <v>231</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -4102,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -4113,13 +4119,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88">
         <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -4128,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -4139,13 +4145,13 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C89">
         <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -4154,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -4165,13 +4171,13 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90">
         <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -4180,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -4191,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91">
         <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -4206,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
         <v>19</v>
-      </c>
-      <c r="H91" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -4217,13 +4223,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92">
         <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -4232,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -4243,13 +4249,13 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93">
         <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -4258,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -4269,13 +4275,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C94">
         <v>270</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -4284,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -4295,13 +4301,13 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95">
         <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -4313,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -4321,13 +4327,13 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96">
         <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -4336,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -4347,13 +4353,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97">
         <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -4362,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -4373,13 +4379,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98">
         <v>300</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -4388,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
         <v>8</v>
-      </c>
-      <c r="H98" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4399,13 +4405,13 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99">
         <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -4414,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -4425,13 +4431,13 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100">
         <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -4440,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -4451,13 +4457,13 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C101">
         <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4466,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -4477,13 +4483,13 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102">
         <v>320</v>
       </c>
       <c r="D102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -4492,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -4503,13 +4509,13 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103">
         <v>324</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -4518,10 +4524,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -4529,13 +4535,13 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C104">
         <v>624</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4544,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -4555,13 +4561,13 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105">
         <v>328</v>
       </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -4570,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s">
         <v>19</v>
-      </c>
-      <c r="H105" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -4581,13 +4587,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C106">
         <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -4596,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -4607,13 +4613,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107">
         <v>340</v>
       </c>
       <c r="D107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -4622,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -4633,13 +4639,13 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C108">
         <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -4651,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -4659,13 +4665,13 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C109">
         <v>348</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -4674,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -4685,13 +4691,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110">
         <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -4700,10 +4706,10 @@
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -4711,13 +4717,13 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C111">
         <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -4729,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -4737,13 +4743,13 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112">
         <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -4755,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -4763,13 +4769,13 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C113">
         <v>364</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -4781,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -4789,13 +4795,13 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114">
         <v>368</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -4807,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -4815,13 +4821,13 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C115">
         <v>372</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -4830,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -4841,13 +4847,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C116">
         <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -4859,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -4867,13 +4873,13 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C117">
         <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -4882,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" t="s">
         <v>8</v>
-      </c>
-      <c r="H117" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -4893,13 +4899,13 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118">
         <v>388</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -4908,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -4919,13 +4925,13 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119">
         <v>392</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -4937,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -4945,13 +4951,13 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C120">
         <v>400</v>
       </c>
       <c r="D120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -4963,7 +4969,7 @@
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -4971,13 +4977,13 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C121">
         <v>398</v>
       </c>
       <c r="D121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -4989,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -4997,13 +5003,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122">
         <v>404</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -5012,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -5023,13 +5029,13 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C123">
         <v>296</v>
       </c>
       <c r="D123" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -5038,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
@@ -5049,13 +5055,13 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C124">
         <v>414</v>
       </c>
       <c r="D124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -5067,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -5075,13 +5081,13 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C125">
         <v>417</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -5093,7 +5099,7 @@
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -5101,13 +5107,13 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C126">
         <v>418</v>
       </c>
       <c r="D126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -5119,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -5127,13 +5133,13 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127">
         <v>428</v>
       </c>
       <c r="D127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -5142,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
@@ -5153,13 +5159,13 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128">
         <v>422</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -5171,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
@@ -5179,13 +5185,13 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C129">
         <v>426</v>
       </c>
       <c r="D129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -5194,10 +5200,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -5205,13 +5211,13 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130">
         <v>430</v>
       </c>
       <c r="D130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -5220,10 +5226,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -5231,13 +5237,13 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C131">
         <v>434</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
@@ -5246,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
         <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -5257,13 +5263,13 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C132">
         <v>440</v>
       </c>
       <c r="D132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -5272,10 +5278,10 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
@@ -5283,13 +5289,13 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C133">
         <v>442</v>
       </c>
       <c r="D133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -5298,10 +5304,10 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -5309,13 +5315,13 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C134">
         <v>446</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -5327,7 +5333,7 @@
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
@@ -5335,13 +5341,13 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C135">
         <v>450</v>
       </c>
       <c r="D135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -5350,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -5361,13 +5367,13 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C136">
         <v>454</v>
       </c>
       <c r="D136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -5376,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -5387,13 +5393,13 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C137">
         <v>458</v>
       </c>
       <c r="D137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -5405,7 +5411,7 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
@@ -5413,13 +5419,13 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C138">
         <v>462</v>
       </c>
       <c r="D138" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -5431,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -5439,13 +5445,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C139">
         <v>466</v>
       </c>
       <c r="D139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -5454,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -5465,13 +5471,13 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C140">
         <v>470</v>
       </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -5480,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" t="s">
         <v>8</v>
-      </c>
-      <c r="H140" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -5491,13 +5497,13 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C141">
         <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -5506,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -5517,13 +5523,13 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C142">
         <v>478</v>
       </c>
       <c r="D142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E142" s="1">
         <v>0</v>
@@ -5532,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
@@ -5543,13 +5549,13 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C143">
         <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -5558,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
@@ -5569,13 +5575,13 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C144">
         <v>175</v>
       </c>
       <c r="D144" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
@@ -5584,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
@@ -5595,13 +5601,13 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C145">
         <v>484</v>
       </c>
       <c r="D145" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -5610,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
@@ -5621,13 +5627,13 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C146">
         <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
@@ -5636,10 +5642,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
@@ -5647,13 +5653,13 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C147">
         <v>496</v>
       </c>
       <c r="D147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -5665,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="H147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
@@ -5673,13 +5679,13 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C148">
         <v>499</v>
       </c>
       <c r="D148" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -5688,10 +5694,10 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" t="s">
         <v>8</v>
-      </c>
-      <c r="H148" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
@@ -5699,13 +5705,13 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C149">
         <v>504</v>
       </c>
       <c r="D149" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -5714,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
         <v>12</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
@@ -5725,13 +5731,13 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C150">
         <v>508</v>
       </c>
       <c r="D150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -5740,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
@@ -5751,13 +5757,13 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C151">
         <v>104</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -5769,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
@@ -5777,13 +5783,13 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C152">
         <v>516</v>
       </c>
       <c r="D152" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -5792,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H152" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
@@ -5803,13 +5809,13 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C153">
         <v>524</v>
       </c>
       <c r="D153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -5821,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
@@ -5829,13 +5835,13 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C154">
         <v>528</v>
       </c>
       <c r="D154" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -5844,10 +5850,10 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
@@ -5855,13 +5861,13 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155">
         <v>540</v>
       </c>
       <c r="D155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -5870,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
@@ -5881,13 +5887,13 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C156">
         <v>554</v>
       </c>
       <c r="D156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5896,10 +5902,10 @@
         <v>1</v>
       </c>
       <c r="G156" t="s">
+        <v>28</v>
+      </c>
+      <c r="H156" t="s">
         <v>29</v>
-      </c>
-      <c r="H156" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
@@ -5907,13 +5913,13 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C157">
         <v>558</v>
       </c>
       <c r="D157" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -5922,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
@@ -5933,13 +5939,13 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C158">
         <v>562</v>
       </c>
       <c r="D158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -5948,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
@@ -5959,13 +5965,13 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C159">
         <v>566</v>
       </c>
       <c r="D159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -5974,10 +5980,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -5985,13 +5991,13 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C160">
         <v>578</v>
       </c>
       <c r="D160" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -6000,10 +6006,10 @@
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -6011,13 +6017,13 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C161">
         <v>275</v>
       </c>
       <c r="D161" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
@@ -6029,7 +6035,7 @@
         <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
@@ -6037,13 +6043,13 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C162">
         <v>512</v>
       </c>
       <c r="D162" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -6055,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
@@ -6063,13 +6069,13 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C163">
         <v>586</v>
       </c>
       <c r="D163" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -6081,7 +6087,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
@@ -6089,13 +6095,13 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C164">
         <v>591</v>
       </c>
       <c r="D164" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
@@ -6104,10 +6110,10 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -6115,13 +6121,13 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C165">
         <v>598</v>
       </c>
       <c r="D165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
@@ -6130,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -6141,13 +6147,13 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C166">
         <v>600</v>
       </c>
       <c r="D166" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -6156,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" t="s">
         <v>19</v>
-      </c>
-      <c r="H166" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
@@ -6167,13 +6173,13 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C167">
         <v>604</v>
       </c>
       <c r="D167" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
@@ -6182,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" t="s">
         <v>19</v>
-      </c>
-      <c r="H167" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -6193,13 +6199,13 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C168">
         <v>608</v>
       </c>
       <c r="D168" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -6211,7 +6217,7 @@
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
@@ -6219,13 +6225,13 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C169">
         <v>616</v>
       </c>
       <c r="D169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -6234,10 +6240,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
@@ -6245,13 +6251,13 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C170">
         <v>620</v>
       </c>
       <c r="D170" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -6260,10 +6266,10 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" t="s">
         <v>8</v>
-      </c>
-      <c r="H170" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -6271,13 +6277,13 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C171">
         <v>630</v>
       </c>
       <c r="D171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -6286,10 +6292,10 @@
         <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
@@ -6297,13 +6303,13 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C172">
         <v>634</v>
       </c>
       <c r="D172" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -6315,7 +6321,7 @@
         <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
@@ -6323,13 +6329,13 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C173">
         <v>410</v>
       </c>
       <c r="D173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -6341,7 +6347,7 @@
         <v>4</v>
       </c>
       <c r="H173" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -6349,13 +6355,13 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C174">
         <v>498</v>
       </c>
       <c r="D174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -6364,10 +6370,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
@@ -6375,13 +6381,13 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C175">
         <v>638</v>
       </c>
       <c r="D175" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -6390,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
@@ -6401,13 +6407,13 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C176">
         <v>642</v>
       </c>
       <c r="D176" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -6416,10 +6422,10 @@
         <v>1</v>
       </c>
       <c r="G176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
@@ -6427,13 +6433,13 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C177">
         <v>643</v>
       </c>
       <c r="D177" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -6442,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
@@ -6453,13 +6459,13 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C178">
         <v>646</v>
       </c>
       <c r="D178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -6468,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -6479,13 +6485,13 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C179">
         <v>662</v>
       </c>
       <c r="D179" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -6494,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="G179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
@@ -6505,13 +6511,13 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C180">
         <v>670</v>
       </c>
       <c r="D180" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -6520,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
@@ -6531,13 +6537,13 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C181">
         <v>882</v>
       </c>
       <c r="D181" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -6546,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
@@ -6557,13 +6563,13 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C182">
         <v>678</v>
       </c>
       <c r="D182" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6572,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
@@ -6583,13 +6589,13 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C183">
         <v>682</v>
       </c>
       <c r="D183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -6601,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
@@ -6609,13 +6615,13 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C184">
         <v>686</v>
       </c>
       <c r="D184" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6624,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
@@ -6635,13 +6641,13 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C185">
         <v>688</v>
       </c>
       <c r="D185" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -6650,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
+        <v>7</v>
+      </c>
+      <c r="H185" t="s">
         <v>8</v>
-      </c>
-      <c r="H185" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
@@ -6661,13 +6667,13 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C186">
         <v>690</v>
       </c>
       <c r="D186" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E186" s="1">
         <v>0</v>
@@ -6676,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
@@ -6687,13 +6693,13 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C187">
         <v>694</v>
       </c>
       <c r="D187" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -6702,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
@@ -6713,13 +6719,13 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C188">
         <v>702</v>
       </c>
       <c r="D188" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -6731,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="H188" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
@@ -6739,13 +6745,13 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C189">
         <v>703</v>
       </c>
       <c r="D189" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -6754,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
@@ -6765,13 +6771,13 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C190">
         <v>705</v>
       </c>
       <c r="D190" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -6780,10 +6786,10 @@
         <v>1</v>
       </c>
       <c r="G190" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" t="s">
         <v>8</v>
-      </c>
-      <c r="H190" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
@@ -6791,13 +6797,13 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C191">
         <v>90</v>
       </c>
       <c r="D191" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
@@ -6806,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H191" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
@@ -6817,13 +6823,13 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C192">
         <v>706</v>
       </c>
       <c r="D192" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
@@ -6832,10 +6838,10 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H192" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
@@ -6843,13 +6849,13 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C193">
         <v>710</v>
       </c>
       <c r="D193" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
@@ -6858,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
@@ -6869,13 +6875,13 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C194">
         <v>728</v>
       </c>
       <c r="D194" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -6884,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H194" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
@@ -6895,13 +6901,13 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C195">
         <v>724</v>
       </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -6910,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="G195" t="s">
+        <v>7</v>
+      </c>
+      <c r="H195" t="s">
         <v>8</v>
-      </c>
-      <c r="H195" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
@@ -6921,13 +6927,13 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C196">
         <v>144</v>
       </c>
       <c r="D196" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -6939,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="H196" t="s">
-        <v>5</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -6947,13 +6953,13 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C197">
         <v>729</v>
       </c>
       <c r="D197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
@@ -6962,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
         <v>12</v>
-      </c>
-      <c r="H197" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
@@ -6973,13 +6979,13 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C198">
         <v>740</v>
       </c>
       <c r="D198" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
@@ -6988,10 +6994,10 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" t="s">
         <v>19</v>
-      </c>
-      <c r="H198" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
@@ -6999,13 +7005,13 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C199">
         <v>748</v>
       </c>
       <c r="D199" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E199" s="1">
         <v>1</v>
@@ -7014,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H199" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
@@ -7025,13 +7031,13 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C200">
         <v>752</v>
       </c>
       <c r="D200" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
@@ -7040,10 +7046,10 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H200" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
@@ -7051,13 +7057,13 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C201">
         <v>756</v>
       </c>
       <c r="D201" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -7066,10 +7072,10 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
@@ -7077,13 +7083,13 @@
         <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C202">
         <v>760</v>
       </c>
       <c r="D202" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -7095,7 +7101,7 @@
         <v>4</v>
       </c>
       <c r="H202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
@@ -7103,13 +7109,13 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C203">
         <v>158</v>
       </c>
       <c r="D203" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -7121,7 +7127,7 @@
         <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
@@ -7129,13 +7135,13 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C204">
         <v>762</v>
       </c>
       <c r="D204" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
@@ -7147,7 +7153,7 @@
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
@@ -7155,13 +7161,13 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C205">
         <v>764</v>
       </c>
       <c r="D205" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
@@ -7173,7 +7179,7 @@
         <v>4</v>
       </c>
       <c r="H205" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
@@ -7181,13 +7187,13 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C206">
         <v>807</v>
       </c>
       <c r="D206" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
@@ -7196,10 +7202,10 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
+        <v>7</v>
+      </c>
+      <c r="H206" t="s">
         <v>8</v>
-      </c>
-      <c r="H206" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
@@ -7207,13 +7213,13 @@
         <v>2</v>
       </c>
       <c r="B207" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C207">
         <v>626</v>
       </c>
       <c r="D207" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
@@ -7225,7 +7231,7 @@
         <v>4</v>
       </c>
       <c r="H207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
@@ -7233,13 +7239,13 @@
         <v>2</v>
       </c>
       <c r="B208" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C208">
         <v>768</v>
       </c>
       <c r="D208" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
@@ -7248,10 +7254,10 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
@@ -7259,13 +7265,13 @@
         <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C209">
         <v>776</v>
       </c>
       <c r="D209" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
@@ -7274,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H209" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
@@ -7285,13 +7291,13 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C210">
         <v>780</v>
       </c>
       <c r="D210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
@@ -7300,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
@@ -7311,13 +7317,13 @@
         <v>2</v>
       </c>
       <c r="B211" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C211">
         <v>788</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
@@ -7326,10 +7332,10 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
         <v>12</v>
-      </c>
-      <c r="H211" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
@@ -7337,13 +7343,13 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C212">
         <v>792</v>
       </c>
       <c r="D212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
@@ -7355,7 +7361,7 @@
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
@@ -7363,13 +7369,13 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C213">
         <v>795</v>
       </c>
       <c r="D213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -7381,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
@@ -7389,13 +7395,13 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C214">
         <v>800</v>
       </c>
       <c r="D214" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
@@ -7404,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H214" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
@@ -7415,13 +7421,13 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C215">
         <v>804</v>
       </c>
       <c r="D215" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
@@ -7430,10 +7436,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
@@ -7441,13 +7447,13 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C216">
         <v>784</v>
       </c>
       <c r="D216" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -7459,7 +7465,7 @@
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
@@ -7467,13 +7473,13 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C217">
         <v>826</v>
       </c>
       <c r="D217" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
@@ -7482,10 +7488,10 @@
         <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H217" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
@@ -7493,13 +7499,13 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C218">
         <v>834</v>
       </c>
       <c r="D218" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
@@ -7508,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H218" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
@@ -7519,13 +7525,13 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C219">
         <v>840</v>
       </c>
       <c r="D219" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E219" s="1">
         <v>1</v>
@@ -7534,10 +7540,10 @@
         <v>1</v>
       </c>
       <c r="G219" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H219" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
@@ -7545,13 +7551,13 @@
         <v>2</v>
       </c>
       <c r="B220" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C220">
         <v>850</v>
       </c>
       <c r="D220" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E220" s="1">
         <v>0</v>
@@ -7560,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
@@ -7571,13 +7577,13 @@
         <v>2</v>
       </c>
       <c r="B221" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C221">
         <v>858</v>
       </c>
       <c r="D221" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
@@ -7586,10 +7592,10 @@
         <v>1</v>
       </c>
       <c r="G221" t="s">
+        <v>18</v>
+      </c>
+      <c r="H221" t="s">
         <v>19</v>
-      </c>
-      <c r="H221" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
@@ -7597,13 +7603,13 @@
         <v>2</v>
       </c>
       <c r="B222" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C222">
         <v>860</v>
       </c>
       <c r="D222" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E222" s="1">
         <v>0</v>
@@ -7615,7 +7621,7 @@
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
@@ -7623,13 +7629,13 @@
         <v>2</v>
       </c>
       <c r="B223" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C223">
         <v>548</v>
       </c>
       <c r="D223" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
@@ -7638,10 +7644,10 @@
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H223" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
@@ -7649,13 +7655,13 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C224">
         <v>862</v>
       </c>
       <c r="D224" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
@@ -7664,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="G224" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224" t="s">
         <v>19</v>
-      </c>
-      <c r="H224" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
@@ -7675,13 +7681,13 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C225">
         <v>704</v>
       </c>
       <c r="D225" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -7693,7 +7699,7 @@
         <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
@@ -7701,13 +7707,13 @@
         <v>2</v>
       </c>
       <c r="B226" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C226">
         <v>732</v>
       </c>
       <c r="D226" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E226" s="1">
         <v>0</v>
@@ -7716,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" t="s">
         <v>12</v>
-      </c>
-      <c r="H226" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
@@ -7727,13 +7733,13 @@
         <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C227">
         <v>887</v>
       </c>
       <c r="D227" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E227" s="1">
         <v>1</v>
@@ -7745,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="H227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
@@ -7753,13 +7759,13 @@
         <v>2</v>
       </c>
       <c r="B228" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C228">
         <v>894</v>
       </c>
       <c r="D228" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E228" s="1">
         <v>1</v>
@@ -7768,10 +7774,10 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
@@ -7779,13 +7785,13 @@
         <v>2</v>
       </c>
       <c r="B229" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C229">
         <v>716</v>
       </c>
       <c r="D229" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
@@ -7794,13 +7800,14 @@
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H229" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H229" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>